--- a/Tarea 03/diseño corte.xlsx
+++ b/Tarea 03/diseño corte.xlsx
@@ -5,35 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ramos Ingenieria\12° Semestre\Diseño de Albañileria Estructural\proyecto-CI5223\Tarea 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EA94A4-B67C-436C-BDA6-6F551233E4BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9D826-45D9-4CFC-85A2-830447944756}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="4596" activeTab="2" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4590" activeTab="1" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia al corte" sheetId="1" r:id="rId1"/>
     <sheet name="Solicitación timpano" sheetId="2" r:id="rId2"/>
     <sheet name="Solicitacion cercha madera" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Pier</t>
   </si>
@@ -122,15 +117,6 @@
     <t>$\rho_{cad} \quad (tonf/m^3)$</t>
   </si>
   <si>
-    <t>$Q_{timp} \quad (tonf/m)$</t>
-  </si>
-  <si>
-    <t>$Q_{cad} \quad (tonf/m)$</t>
-  </si>
-  <si>
-    <t>$Q_{total} \quad (tonf/m)$</t>
-  </si>
-  <si>
     <t>Propiedades madera</t>
   </si>
   <si>
@@ -183,6 +169,27 @@
   </si>
   <si>
     <t>Solicitaciones a aplicar en ETABS</t>
+  </si>
+  <si>
+    <t>$Q_{timp} \quad (kgf/m)$</t>
+  </si>
+  <si>
+    <t>$Q_{cad} \quad (kgf/m)$</t>
+  </si>
+  <si>
+    <t>$Q_{total} \quad (kgf/m)$</t>
+  </si>
+  <si>
+    <t>L_r (kgf)</t>
+  </si>
+  <si>
+    <t>$A_{trib.cost} [m^2]$</t>
+  </si>
+  <si>
+    <t>$P_{L_r} \quad (kgf)$</t>
+  </si>
+  <si>
+    <t>$Q_{L_r} \quad (kgf/m)$</t>
   </si>
 </sst>
 </file>
@@ -190,9 +197,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -381,61 +388,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,13 +466,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -507,15 +514,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -555,13 +562,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -603,14 +610,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>261228</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>548791</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339241</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>94857</xdr:rowOff>
     </xdr:to>
@@ -649,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -951,64 +958,64 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25">
+      <c r="B1" s="23">
         <v>3.8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>14000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>2.7708847204661971E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>0.25341665296503307</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1026,12 +1033,12 @@
         <v>0.11696153213770756</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1047,7 @@
         <v>0.33139100772350477</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>0.25341665296503307</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7">
         <v>-2.4980000000000002</v>
@@ -1124,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7">
         <v>-2.4980000000000002</v>
@@ -1164,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7">
         <v>-2.4980000000000002</v>
@@ -1204,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7">
         <v>-2.4980000000000002</v>
@@ -1244,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7">
         <v>-2.4980000000000002</v>
@@ -1284,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7">
         <v>-2.4980000000000002</v>
@@ -1324,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7">
         <v>-2.4980000000000002</v>
@@ -1364,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7">
         <v>-2.4980000000000002</v>
@@ -1404,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7">
         <v>-2.4980000000000002</v>
@@ -1444,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7">
         <v>-2.4980000000000002</v>
@@ -1484,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7">
         <v>-2.4980000000000002</v>
@@ -1524,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7">
         <v>-2.4980000000000002</v>
@@ -1564,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7">
         <v>-2.4980000000000002</v>
@@ -1604,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7">
         <v>-2.4980000000000002</v>
@@ -1644,65 +1651,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1711,26 +1718,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C85F50-745A-40AF-AD65-075F51DE0E61}">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="6"/>
-    <col min="2" max="2" width="26.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="7.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1745,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1753,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1754,21 +1761,21 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="8">
-        <v>8.39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1784,7 +1791,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1800,31 +1807,40 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8">
-        <f>C3*C4*C5</f>
-        <v>0.26208000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+        <f>C3*C4*C5*1000</f>
+        <v>262.0800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8">
-        <f>C9*C10*C11</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="12">
-        <f>C15+C16</f>
-        <v>0.30408000000000007</v>
+        <f>C9*C10*C11*1000</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="11">
+        <f>C15+C16+'Solicitacion cercha madera'!C27*'Solicitacion cercha madera'!C10/'Solicitación timpano'!C6</f>
+        <v>307.01562500000011</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6">
+        <f>'Solicitacion cercha madera'!F22/2*5/'Solicitación timpano'!C6</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1839,303 +1855,355 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799F4323-B58A-4472-B8A9-BF42EC749805}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="8.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="6"/>
+    <col min="5" max="5" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8">
+        <v>550</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8">
+        <v>100</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8">
+        <v>50</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8">
-        <v>550</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="C11" s="8">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8">
+        <f>C11*C5/1000*C4/1000</f>
+        <v>4.2699999999999995E-2</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8">
+        <f>C11/10</f>
+        <v>0.85399999999999987</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="8">
-        <v>100</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="C16" s="8">
+        <f>C15*C5/1000*C4/1000</f>
+        <v>4.2699999999999995E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="6">
+        <v>49.59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="E19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6">
+        <f>8.4/5*5/6</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H19" s="6">
+        <f>10*8.4</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8">
+        <f>C3*C8/2</f>
+        <v>43.174999999999997</v>
+      </c>
+      <c r="H20" s="6">
+        <f>H18/H19</f>
+        <v>0.59035714285714291</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="25">
+        <f>$C$16*$C$3*2*5/2</f>
+        <v>11.742499999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="25">
+        <f>C16*C3*5/2</f>
+        <v>5.871249999999999</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0.157</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="8">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="8">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8">
-        <f>B12*B6/1000*B5/1000</f>
-        <v>4.2699999999999995E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="8">
-        <f>B12/8</f>
-        <v>1.0674999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="8">
-        <f>B16*B6/1000*B5/1000</f>
-        <v>5.3374999999999994E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="F22" s="25">
+        <f>F19*100</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="8">
-        <f>B4*B9/2</f>
-        <v>43.174999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="C26" s="25">
+        <f>C20+C21</f>
+        <v>54.917499999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="27">
-        <f>B17*B4*2*5/2</f>
-        <v>14.678124999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="27">
-        <f>B17*B4*5/2</f>
-        <v>7.3390624999999989</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="27">
-        <f>B21+B22</f>
-        <v>57.853124999999991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="27">
-        <f>B23</f>
-        <v>7.3390624999999989</v>
+      <c r="C27" s="25">
+        <f>C22</f>
+        <v>5.871249999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="25">
+        <f>+F22*C10/2</f>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44941632-0BEC-43CE-AA79-0E3620F1F440}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tarea 03/diseño corte.xlsx
+++ b/Tarea 03/diseño corte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ramos Ingenieria\12° Semestre\Diseño de Albañileria Estructural\proyecto-CI5223\Tarea 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9D826-45D9-4CFC-85A2-830447944756}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834EAD2-F7B4-4B09-AEBB-94BF1458EFD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4590" activeTab="1" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -443,6 +443,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1721,7 +1724,7 @@
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,8 +1842,8 @@
         <v>53</v>
       </c>
       <c r="C18" s="6">
-        <f>'Solicitacion cercha madera'!F22/2*5/'Solicitación timpano'!C6</f>
-        <v>35</v>
+        <f>'Solicitacion cercha madera'!F22/2*5/C6</f>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1857,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799F4323-B58A-4472-B8A9-BF42EC749805}">
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,9 +2106,9 @@
       <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="6">
-        <f>8.4/5*5/6</f>
-        <v>1.4000000000000001</v>
+      <c r="F19" s="28">
+        <f>8.4/5*10/6</f>
+        <v>2.8000000000000003</v>
       </c>
       <c r="H19" s="6">
         <f>10*8.4</f>
@@ -2147,7 +2150,7 @@
       </c>
       <c r="F22" s="25">
         <f>F19*100</f>
-        <v>140</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -2179,8 +2182,8 @@
         <v>52</v>
       </c>
       <c r="C28" s="25">
-        <f>+F22*C10/2</f>
-        <v>350</v>
+        <f>+F22*6/2</f>
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/Tarea 03/diseño corte.xlsx
+++ b/Tarea 03/diseño corte.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ramos Ingenieria\12° Semestre\Diseño de Albañileria Estructural\proyecto-CI5223\Tarea 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Google Drive (ignacio.yanez.g@ug.uchile.cl)\Universidad\Semestre 12 Primavera 2018\proyecto albañilería\proyecto-CI5223\Tarea 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834EAD2-F7B4-4B09-AEBB-94BF1458EFD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC56FA5-AB6F-4F6F-BD51-E089C1158011}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4590" activeTab="1" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="4596" activeTab="1" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resistencia al corte" sheetId="1" r:id="rId1"/>
-    <sheet name="Solicitación timpano" sheetId="2" r:id="rId2"/>
-    <sheet name="Solicitacion cercha madera" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Resultados por pier" sheetId="5" r:id="rId1"/>
+    <sheet name="Resistencia al corte" sheetId="1" r:id="rId2"/>
+    <sheet name="Tablas Informe " sheetId="6" r:id="rId3"/>
+    <sheet name="Solicitación timpano" sheetId="2" r:id="rId4"/>
+    <sheet name="Solicitacion cercha madera" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>Pier</t>
   </si>
@@ -190,18 +198,155 @@
   </si>
   <si>
     <t>$Q_{L_r} \quad (kgf/m)$</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M1Y</t>
+  </si>
+  <si>
+    <t>M2Y</t>
+  </si>
+  <si>
+    <t>M3Y</t>
+  </si>
+  <si>
+    <t>M4Y</t>
+  </si>
+  <si>
+    <t>M5Y</t>
+  </si>
+  <si>
+    <t>M6Y</t>
+  </si>
+  <si>
+    <t>M7Y</t>
+  </si>
+  <si>
+    <t>M8Y</t>
+  </si>
+  <si>
+    <t>M1X</t>
+  </si>
+  <si>
+    <t>M2X</t>
+  </si>
+  <si>
+    <t>M3X</t>
+  </si>
+  <si>
+    <t>M4X</t>
+  </si>
+  <si>
+    <t>M5X</t>
+  </si>
+  <si>
+    <t>M6X</t>
+  </si>
+  <si>
+    <t>M7X</t>
+  </si>
+  <si>
+    <t>M8X</t>
+  </si>
+  <si>
+    <t>M9X</t>
+  </si>
+  <si>
+    <t>M10X</t>
+  </si>
+  <si>
+    <t>M11X</t>
+  </si>
+  <si>
+    <t>M12X</t>
+  </si>
+  <si>
+    <t>M13X</t>
+  </si>
+  <si>
+    <t>M14X</t>
+  </si>
+  <si>
+    <t>M15X</t>
+  </si>
+  <si>
+    <t>M16X</t>
+  </si>
+  <si>
+    <t>M17X</t>
+  </si>
+  <si>
+    <t>M18X</t>
+  </si>
+  <si>
+    <t>M19X</t>
+  </si>
+  <si>
+    <t>M20X</t>
+  </si>
+  <si>
+    <t>M21X</t>
+  </si>
+  <si>
+    <t>$F_s \quad (tonf/M35m^2+E17:F30)$</t>
+  </si>
+  <si>
+    <t>escalerilla</t>
+  </si>
+  <si>
+    <t>M/Vd</t>
+  </si>
+  <si>
+    <t>$=0$</t>
+  </si>
+  <si>
+    <t>$\geq 1$</t>
+  </si>
+  <si>
+    <t>$\tau_0 $ (Mpa)</t>
+  </si>
+  <si>
+    <t>$\tau_1 $ (Mpa)</t>
+  </si>
+  <si>
+    <t>tonf</t>
+  </si>
+  <si>
+    <t>tonf-m</t>
+  </si>
+  <si>
+    <t>N°Hiladas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +360,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +407,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -364,11 +530,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -380,9 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -439,17 +655,60 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,7 +918,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -954,894 +1213,2553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DECA69-FFD3-42FF-AF12-189361EB5B99}">
-  <dimension ref="A1:K89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB47D0-9384-4CB5-BDAA-4D65CDC8E969}">
+  <dimension ref="B3:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="39">
+        <v>5.6189</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1.6123000000000001</v>
+      </c>
+      <c r="E5" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G5" s="39">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="H5" s="39">
+        <v>1.8597999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="39">
+        <v>3.9243999999999999</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="E6" s="39">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="F6" s="39">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="G6" s="39">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.61270000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="39">
+        <v>6.1524000000000001</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1.6081000000000001</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.1255</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.1246</v>
+      </c>
+      <c r="G7" s="39">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="H7" s="39">
+        <v>1.9031</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="39">
+        <v>4.5667999999999997</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1.6175999999999999</v>
+      </c>
+      <c r="E8" s="39">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.1227</v>
+      </c>
+      <c r="G8" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H8" s="39">
+        <v>2.5688</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="39">
+        <v>5.4020999999999999</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1.4973000000000001</v>
+      </c>
+      <c r="E9" s="39">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0.12</v>
+      </c>
+      <c r="G9" s="39">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="H9" s="39">
+        <v>2.7553000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="39">
+        <v>5.4909999999999997</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1.9168000000000001</v>
+      </c>
+      <c r="E10" s="39">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="39">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="H10" s="39">
+        <v>2.0171999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="39">
+        <v>3.0482</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1.1177999999999999</v>
+      </c>
+      <c r="E11" s="39">
+        <v>4.41E-2</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="39">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="H11" s="39">
+        <v>0.82740000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="39">
+        <v>5.4813000000000001</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1.9679</v>
+      </c>
+      <c r="E12" s="39">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="F12" s="39">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="H12" s="39">
+        <v>1.9932000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="39">
+        <v>3.8298000000000001</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1.5024999999999999</v>
+      </c>
+      <c r="E13" s="39">
+        <v>1.43E-2</v>
+      </c>
+      <c r="F13" s="39">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G13" s="39">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="H13" s="39">
+        <v>1.0904</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="39">
+        <v>2.0876999999999999</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="E14" s="39">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="F14" s="39">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G14" s="39">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H14" s="39">
+        <v>0.5968</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="E15" s="39">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F15" s="39">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G15" s="39">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="H15" s="39">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="39">
+        <v>2.4049999999999998</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1.4292</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0.1091</v>
+      </c>
+      <c r="F16" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G16" s="39">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="H16" s="39">
+        <v>1.3167</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="39">
+        <v>5.8376000000000001</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1.7835000000000001</v>
+      </c>
+      <c r="E17" s="39">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="F17" s="39">
+        <v>7.85E-2</v>
+      </c>
+      <c r="G17" s="39">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="H17" s="39">
+        <v>2.2806999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1.8027</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="E18" s="39">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="F18" s="39">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G18" s="39">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H18" s="39">
+        <v>0.43880000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="39">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1.0144</v>
+      </c>
+      <c r="E19" s="39">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="F19" s="39">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0.79590000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="39">
+        <v>3.8689</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1.8542000000000001</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0.1603</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="H20" s="39">
+        <v>1.5748</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="39">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0.121</v>
+      </c>
+      <c r="E21" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="39">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G21" s="39">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="H21" s="39">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="39">
+        <v>2.8382000000000001</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1.3111999999999999</v>
+      </c>
+      <c r="E22" s="39">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F22" s="39">
+        <v>2.76E-2</v>
+      </c>
+      <c r="G22" s="39">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1.6113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="39">
+        <v>3.5468999999999999</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="E23" s="39">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0.1043</v>
+      </c>
+      <c r="G23" s="39">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="H23" s="39">
+        <v>2.3294999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="39">
+        <v>3.7900999999999998</v>
+      </c>
+      <c r="D24" s="39">
+        <v>2.8323999999999998</v>
+      </c>
+      <c r="E24" s="39">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F24" s="39">
+        <v>2.06E-2</v>
+      </c>
+      <c r="G24" s="39">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H24" s="39">
+        <v>3.9697</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="39">
+        <v>3.7988</v>
+      </c>
+      <c r="D25" s="39">
+        <v>1.6707000000000001</v>
+      </c>
+      <c r="E25" s="39">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F25" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="39">
+        <v>1.34E-2</v>
+      </c>
+      <c r="H25" s="39">
+        <v>1.1577999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="39">
+        <v>2.1093999999999999</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="E26" s="39">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F26" s="39">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G26" s="39">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.62360000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="39">
+        <v>1.8062</v>
+      </c>
+      <c r="D27" s="39">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="E27" s="39">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F27" s="39">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="G27" s="39">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0.49080000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="39">
+        <v>2.4131999999999998</v>
+      </c>
+      <c r="D28" s="39">
+        <v>1.3024</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="F28" s="39">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="G28" s="39">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H28" s="39">
+        <v>1.2633000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="39">
+        <v>1.9093</v>
+      </c>
+      <c r="D29" s="39">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="E29" s="39">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F29" s="39">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="G29" s="39">
+        <v>6.3E-3</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0.44369999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="39">
+        <v>4.38</v>
+      </c>
+      <c r="D30" s="39">
+        <v>1.4371</v>
+      </c>
+      <c r="E30" s="39">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0.1124</v>
+      </c>
+      <c r="G30" s="39">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="39">
+        <v>2.4371</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="39">
+        <v>3.0327000000000002</v>
+      </c>
+      <c r="D31" s="39">
+        <v>1.1617999999999999</v>
+      </c>
+      <c r="E31" s="39">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F31" s="39">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G31" s="39">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0.77749999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="D32" s="39">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="E32" s="39">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F32" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="G32" s="39">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="H32" s="39">
+        <v>0.1595</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="39">
+        <v>3.8149000000000002</v>
+      </c>
+      <c r="D33" s="39">
+        <v>1.9393</v>
+      </c>
+      <c r="E33" s="39">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="F33" s="39">
+        <v>0.1235</v>
+      </c>
+      <c r="G33" s="39">
+        <v>0.1812</v>
+      </c>
+      <c r="H33" s="39">
+        <v>2.0179999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DECA69-FFD3-42FF-AF12-189361EB5B99}">
+  <dimension ref="A1:M89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="L11" sqref="L10:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="22">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23">
-        <v>2.7708847204661971E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="31">
+        <f>0.0000139*2</f>
+        <v>2.7800000000000001E-5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1.3900000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="22">
+        <v>0.104</v>
+      </c>
+      <c r="D5">
+        <f>10.4/100</f>
+        <v>0.10400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H7" s="32">
+        <v>457537853737373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3">
         <f>MIN(0.13*SQRT(B1),0.28)</f>
-        <v>0.25341665296503307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3">
         <f>MIN(0.06*SQRT(B1),0.19)</f>
-        <v>0.11696153213770756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
         <f>MIN(0.17*SQRT(B1),0.84)</f>
-        <v>0.33139100772350477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.63608175575157011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
         <f>MIN(0.13*SQRT(B1),0.52)</f>
-        <v>0.25341665296503307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.48641546028061239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E17" s="8">
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="str">
+        <f>'Resultados por pier'!B5</f>
+        <v>M1Y</v>
+      </c>
+      <c r="B17" s="24">
+        <f>'Resultados por pier'!D5</f>
+        <v>1.6123000000000001</v>
+      </c>
+      <c r="C17" s="24">
+        <f>'Resultados por pier'!H5</f>
+        <v>1.8597999999999999</v>
+      </c>
+      <c r="D17" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="E17" s="24">
         <f>ABS(B17/D17/$B$2)</f>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F17" s="8">
+        <v>2.9529304029304027</v>
+      </c>
+      <c r="F17" s="24">
         <f>C17/(B17*D17)</f>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G17" s="9">
+        <v>0.29577113122359039</v>
+      </c>
+      <c r="G17" s="8">
         <f>100*IF(F17&gt;=1,$B$10,($B$10-$B$9)*(F17)+$B$9)</f>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H17" s="9">
+        <v>25.338059818987691</v>
+      </c>
+      <c r="H17" s="8">
         <f>100*IF(F17&gt;=1,$B$13,($B$13-$B$12)*(F17)+$B$12)</f>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I17" s="10">
+        <v>59.181478623408083</v>
+      </c>
+      <c r="I17" s="9">
         <f>IF(H17&lt;=E17,"agregar mas muros",IF(H17&lt;=G17,0.0006,1.1*ABS(B17)/($B$3*$B$2*D17)))</f>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J17" s="8">
+        <v>1.9107196724843785E-4</v>
+      </c>
+      <c r="J17" s="28">
         <f>$B$4/(I17*$B$2*$B$5)</f>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K17" s="8">
+        <v>9.9927827552959343</v>
+      </c>
+      <c r="K17" s="38">
+        <f>ROUNDUP(J17,0)</f>
+        <v>10</v>
+      </c>
+      <c r="L17" s="7">
         <f>IF(J17&gt;3,3,ROUNDDOWN(J17,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" ref="E18:E30" si="0">ABS(B18/D18/$B$2)</f>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F30" si="1">C18/(B18*D18)</f>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" ref="G18:G30" si="2">100*IF(F18&gt;=1,$B$10,($B$10-$B$9)*(F18)+$B$9)</f>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H18" s="9">
-        <f t="shared" ref="H18:H30" si="3">100*IF(F18&gt;=1,$B$13,($B$13-$B$12)*(F18)+$B$12)</f>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" ref="I18:I30" si="4">IF(H18&lt;=E18,"agregar mas muros",IF(H18&lt;=G18,0.0006,1.1*ABS(B18)/($B$3*$B$2*D18)))</f>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" ref="J18:J30" si="5">$B$4/(I18*$B$2*$B$5)</f>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K18" s="8">
-        <f t="shared" ref="K18:K30" si="6">IF(J18&gt;3,3,ROUNDDOWN(J18,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C19" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="str">
+        <f>'Resultados por pier'!B6</f>
+        <v>M2Y</v>
+      </c>
+      <c r="B18" s="24">
+        <f>'Resultados por pier'!D6</f>
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="C18" s="24">
+        <f>'Resultados por pier'!H6</f>
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" ref="E18:E31" si="0">ABS(B18/D18/$B$2)</f>
+        <v>2.8368253968253963</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" ref="F18:F31" si="1">C18/(B18*D18)</f>
+        <v>0.3047349050034816</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G31" si="2">100*IF(F18&gt;=1,$B$10,($B$10-$B$9)*(F18)+$B$9)</f>
+        <v>25.257385854968668</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18:H31" si="3">100*IF(F18&gt;=1,$B$13,($B$13-$B$12)*(F18)+$B$12)</f>
+        <v>59.047321141900476</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" ref="I18:I31" si="4">IF(H18&lt;=E18,"agregar mas muros",IF(H18&lt;=G18,0.0006,1.1*ABS(B18)/($B$3*$B$2*D18)))</f>
+        <v>1.8355929038281981E-4</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" ref="J18:J31" si="5">$B$4/(I18*$B$2*$B$5)</f>
+        <v>10.401765311680261</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" ref="K18:K45" si="6">ROUNDUP(J18,0)</f>
+        <v>11</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" ref="L18:L31" si="7">IF(J18&gt;3,3,ROUNDDOWN(J18,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="str">
+        <f>'Resultados por pier'!B7</f>
+        <v>M3Y</v>
+      </c>
+      <c r="B19" s="24">
+        <f>'Resultados por pier'!D7</f>
+        <v>1.6081000000000001</v>
+      </c>
+      <c r="C19" s="24">
+        <f>'Resultados por pier'!H7</f>
+        <v>1.9031</v>
+      </c>
+      <c r="D19" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="E19" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F19" s="8">
+        <v>2.9452380952380954</v>
+      </c>
+      <c r="F19" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G19" s="9">
+        <v>0.30344777002323176</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H19" s="9">
+        <v>25.268970069790914</v>
+      </c>
+      <c r="H19" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I19" s="10">
+        <v>59.066585214326984</v>
+      </c>
+      <c r="I19" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J19" s="8">
+        <v>1.9057422969187676E-4</v>
+      </c>
+      <c r="J19" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K19" s="8">
+        <v>10.018881684201006</v>
+      </c>
+      <c r="K19" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C20" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E20" s="8">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="str">
+        <f>'Resultados por pier'!B8</f>
+        <v>M4Y</v>
+      </c>
+      <c r="B20" s="24">
+        <f>'Resultados por pier'!D8</f>
+        <v>1.6175999999999999</v>
+      </c>
+      <c r="C20" s="24">
+        <f>'Resultados por pier'!H8</f>
+        <v>2.5688</v>
+      </c>
+      <c r="D20" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="E20" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F20" s="8">
+        <v>2.9626373626373623</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G20" s="9">
+        <v>0.40718760303330037</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H20" s="9">
+        <v>24.335311572700295</v>
+      </c>
+      <c r="H20" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I20" s="10">
+        <v>57.513949564387715</v>
+      </c>
+      <c r="I20" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J20" s="8">
+        <v>1.9170006464124111E-4</v>
+      </c>
+      <c r="J20" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K20" s="8">
+        <v>9.9600418127866206</v>
+      </c>
+      <c r="K20" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E21" s="8">
+        <v>10</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="str">
+        <f>'Resultados por pier'!B9</f>
+        <v>M5Y</v>
+      </c>
+      <c r="B21" s="24">
+        <f>'Resultados por pier'!D9</f>
+        <v>1.4973000000000001</v>
+      </c>
+      <c r="C21" s="24">
+        <f>'Resultados por pier'!H9</f>
+        <v>2.7553000000000001</v>
+      </c>
+      <c r="D21" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="E21" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F21" s="8">
+        <v>2.7423076923076923</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G21" s="9">
+        <v>0.47184076637092065</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H21" s="9">
+        <v>23.753433102661713</v>
+      </c>
+      <c r="H21" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I21" s="10">
+        <v>56.546309619665678</v>
+      </c>
+      <c r="I21" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J21" s="8">
+        <v>1.7744343891402717E-4</v>
+      </c>
+      <c r="J21" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K21" s="8">
+        <v>10.76027759057212</v>
+      </c>
+      <c r="K21" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C22" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E22" s="8">
+        <v>11</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="str">
+        <f>'Resultados por pier'!B10</f>
+        <v>M6Y</v>
+      </c>
+      <c r="B22" s="24">
+        <f>'Resultados por pier'!D10</f>
+        <v>1.9168000000000001</v>
+      </c>
+      <c r="C22" s="24">
+        <f>'Resultados por pier'!H10</f>
+        <v>2.0171999999999999</v>
+      </c>
+      <c r="D22" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="E22" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F22" s="8">
+        <v>3.5106227106227106</v>
+      </c>
+      <c r="F22" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G22" s="9">
+        <v>0.269840760241428</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H22" s="9">
+        <v>25.571433157827151</v>
+      </c>
+      <c r="H22" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I22" s="10">
+        <v>59.569568879916865</v>
+      </c>
+      <c r="I22" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J22" s="8">
+        <v>2.2715794009911658E-4</v>
+      </c>
+      <c r="J22" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K22" s="8">
+        <v>8.4053441341629984</v>
+      </c>
+      <c r="K22" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C23" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E23" s="8">
+        <v>9</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="str">
+        <f>'Resultados por pier'!B11</f>
+        <v>M7Y</v>
+      </c>
+      <c r="B23" s="24">
+        <f>'Resultados por pier'!D11</f>
+        <v>1.1177999999999999</v>
+      </c>
+      <c r="C23" s="24">
+        <f>'Resultados por pier'!H11</f>
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="D23" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F23" s="8">
+        <v>3.548571428571428</v>
+      </c>
+      <c r="F23" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G23" s="9">
+        <v>0.32897954315023564</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H23" s="9">
+        <v>25.039184111647884</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I23" s="10">
+        <v>58.684460624254633</v>
+      </c>
+      <c r="I23" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J23" s="8">
+        <v>2.2961344537815123E-4</v>
+      </c>
+      <c r="J23" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K23" s="8">
+        <v>8.3154566850219034</v>
+      </c>
+      <c r="K23" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C24" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E24" s="8">
+        <v>9</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="str">
+        <f>'Resultados por pier'!B12</f>
+        <v>M8Y</v>
+      </c>
+      <c r="B24" s="24">
+        <f>'Resultados por pier'!D12</f>
+        <v>1.9679</v>
+      </c>
+      <c r="C24" s="24">
+        <f>'Resultados por pier'!H12</f>
+        <v>1.9932000000000001</v>
+      </c>
+      <c r="D24" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="E24" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F24" s="8">
+        <v>3.6042124542124543</v>
+      </c>
+      <c r="F24" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G24" s="9">
+        <v>0.25970675495549728</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H24" s="9">
+        <v>25.662639205400527</v>
+      </c>
+      <c r="H24" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I24" s="10">
+        <v>59.721240782859709</v>
+      </c>
+      <c r="I24" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J24" s="8">
+        <v>2.3321374703727648E-4</v>
+      </c>
+      <c r="J24" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K24" s="8">
+        <v>8.1870845248049378</v>
+      </c>
+      <c r="K24" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C25" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E25" s="8">
+        <v>9</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="str">
+        <f>'Resultados por pier'!B13</f>
+        <v>M1X</v>
+      </c>
+      <c r="B25" s="24">
+        <f>'Resultados por pier'!D13</f>
+        <v>1.5024999999999999</v>
+      </c>
+      <c r="C25" s="24">
+        <f>'Resultados por pier'!H13</f>
+        <v>1.0904</v>
+      </c>
+      <c r="D25" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="E25" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F25" s="8">
+        <v>3.252164502164502</v>
+      </c>
+      <c r="F25" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G25" s="9">
+        <v>0.21991630111430446</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H25" s="9">
+        <v>26.02075328997126</v>
+      </c>
+      <c r="H25" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I25" s="10">
+        <v>60.316769765011649</v>
+      </c>
+      <c r="I25" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J25" s="8">
+        <v>2.1043417366946782E-4</v>
+      </c>
+      <c r="J25" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K25" s="8">
+        <v>9.0733393062843977</v>
+      </c>
+      <c r="K25" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C26" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E26" s="8">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="str">
+        <f>'Resultados por pier'!B14</f>
+        <v>M2X</v>
+      </c>
+      <c r="B26" s="24">
+        <f>'Resultados por pier'!D14</f>
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="C26" s="24">
+        <f>'Resultados por pier'!H14</f>
+        <v>0.5968</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E26" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F26" s="8">
+        <v>4.4732142857142847</v>
+      </c>
+      <c r="F26" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G26" s="9">
+        <v>0.75970507963664491</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H26" s="9">
+        <v>21.162654283270196</v>
+      </c>
+      <c r="H26" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I26" s="10">
+        <v>52.237951083188449</v>
+      </c>
+      <c r="I26" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J26" s="8">
+        <v>2.894432773109244E-4</v>
+      </c>
+      <c r="J26" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K26" s="8">
+        <v>6.5965970157586931</v>
+      </c>
+      <c r="K26" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C27" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E27" s="8">
+        <v>7</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="str">
+        <f>'Resultados por pier'!B15</f>
+        <v>M3X</v>
+      </c>
+      <c r="B27" s="24">
+        <f>'Resultados por pier'!D15</f>
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="C27" s="24">
+        <f>'Resultados por pier'!H15</f>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0.98</v>
+      </c>
+      <c r="E27" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F27" s="8">
+        <v>5.3505830903790077</v>
+      </c>
+      <c r="F27" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G27" s="9">
+        <v>0.67693607888598839</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H27" s="9">
+        <v>21.907575290026106</v>
+      </c>
+      <c r="H27" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I27" s="10">
+        <v>53.47672405540682</v>
+      </c>
+      <c r="I27" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J27" s="8">
+        <v>3.4621419996570059E-4</v>
+      </c>
+      <c r="J27" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K27" s="8">
+        <v>5.5149114609678564</v>
+      </c>
+      <c r="K27" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C28" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E28" s="8">
+        <v>6</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="str">
+        <f>'Resultados por pier'!B16</f>
+        <v>M4X</v>
+      </c>
+      <c r="B28" s="24">
+        <f>'Resultados por pier'!D16</f>
+        <v>1.4292</v>
+      </c>
+      <c r="C28" s="24">
+        <f>'Resultados por pier'!H16</f>
+        <v>1.3167</v>
+      </c>
+      <c r="D28" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="E28" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F28" s="8">
+        <v>3.0935064935064935</v>
+      </c>
+      <c r="F28" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G28" s="9">
+        <v>0.27917716204869858</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H28" s="9">
+        <v>25.487405541561714</v>
+      </c>
+      <c r="H28" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I28" s="10">
+        <v>59.429834412764613</v>
+      </c>
+      <c r="I28" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J28" s="8">
+        <v>2.0016806722689077E-4</v>
+      </c>
+      <c r="J28" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K28" s="8">
+        <v>9.5386875928437629</v>
+      </c>
+      <c r="K28" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C29" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E29" s="8">
+        <v>10</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="str">
+        <f>'Resultados por pier'!B17</f>
+        <v>M5X</v>
+      </c>
+      <c r="B29" s="24">
+        <f>'Resultados por pier'!D17</f>
+        <v>1.7835000000000001</v>
+      </c>
+      <c r="C29" s="24">
+        <f>'Resultados por pier'!H17</f>
+        <v>2.2806999999999999</v>
+      </c>
+      <c r="D29" s="29">
+        <v>3.82</v>
+      </c>
+      <c r="E29" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F29" s="8">
+        <v>3.3348915482423336</v>
+      </c>
+      <c r="F29" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G29" s="9">
+        <v>0.33475855610695482</v>
+      </c>
+      <c r="G29" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H29" s="9">
+        <v>24.987172995037412</v>
+      </c>
+      <c r="H29" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I29" s="10">
+        <v>58.597968278183544</v>
+      </c>
+      <c r="I29" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J29" s="8">
+        <v>2.1578710018038631E-4</v>
+      </c>
+      <c r="J29" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K29" s="8">
+        <v>8.8482613545691766</v>
+      </c>
+      <c r="K29" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="C30" s="7">
-        <v>-1.2504</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E30" s="8">
+        <v>9</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="str">
+        <f>'Resultados por pier'!B18</f>
+        <v>M6X</v>
+      </c>
+      <c r="B30" s="24">
+        <f>'Resultados por pier'!D18</f>
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="C30" s="24">
+        <f>'Resultados por pier'!H18</f>
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.98</v>
+      </c>
+      <c r="E30" s="24">
         <f t="shared" si="0"/>
-        <v>20.699370235333113</v>
-      </c>
-      <c r="F30" s="8">
+        <v>4.8141399416909616</v>
+      </c>
+      <c r="F30" s="24">
         <f t="shared" si="1"/>
-        <v>0.58069657582214262</v>
-      </c>
-      <c r="G30" s="9">
+        <v>0.67790325819957065</v>
+      </c>
+      <c r="G30" s="8">
         <f t="shared" si="2"/>
-        <v>17.417763154720838</v>
-      </c>
-      <c r="H30" s="9">
+        <v>21.898870676203867</v>
+      </c>
+      <c r="H30" s="8">
         <f t="shared" si="3"/>
-        <v>28.611156691331928</v>
-      </c>
-      <c r="I30" s="10">
+        <v>53.462248640914822</v>
+      </c>
+      <c r="I30" s="9">
         <f t="shared" si="4"/>
-        <v>1.6263790899190302E-3</v>
-      </c>
-      <c r="J30" s="8">
+        <v>3.1150317269765048E-4</v>
+      </c>
+      <c r="J30" s="28">
         <f t="shared" si="5"/>
-        <v>1.5211731570067901</v>
-      </c>
-      <c r="K30" s="8">
+        <v>6.129442094619991</v>
+      </c>
+      <c r="K30" s="38">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>7</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="str">
+        <f>'Resultados por pier'!B19</f>
+        <v>M7X</v>
+      </c>
+      <c r="B31" s="24">
+        <f>'Resultados por pier'!D19</f>
+        <v>1.0144</v>
+      </c>
+      <c r="C31" s="24">
+        <f>'Resultados por pier'!H19</f>
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1.64</v>
+      </c>
+      <c r="E31" s="24">
+        <f>ABS(B31/D31/$B$2)</f>
+        <v>4.4181184668989539</v>
+      </c>
+      <c r="F31" s="24">
+        <f t="shared" si="1"/>
+        <v>0.47841569208278845</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="2"/>
+        <v>23.694258771254905</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="3"/>
+        <v>56.447905142236479</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="4"/>
+        <v>2.8587825374052066E-4</v>
+      </c>
+      <c r="J31" s="28">
+        <f t="shared" si="5"/>
+        <v>6.6788593898215325</v>
+      </c>
+      <c r="K31" s="38">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="str">
+        <f>'Resultados por pier'!B20</f>
+        <v>M8X</v>
+      </c>
+      <c r="B32" s="24">
+        <f>'Resultados por pier'!D20</f>
+        <v>1.8542000000000001</v>
+      </c>
+      <c r="C32" s="24">
+        <f>'Resultados por pier'!H20</f>
+        <v>1.5748</v>
+      </c>
+      <c r="D32" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" ref="E32:E45" si="8">ABS(B32/D32/$B$2)</f>
+        <v>2.5969187675070029</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" ref="F32:F45" si="9">C32/(B32*D32)</f>
+        <v>0.16653236637120603</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" ref="G32:G45" si="10">100*IF(F32&gt;=1,$B$10,($B$10-$B$9)*(F32)+$B$9)</f>
+        <v>26.501208702659145</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" ref="H32:H45" si="11">100*IF(F32&gt;=1,$B$13,($B$13-$B$12)*(F32)+$B$12)</f>
+        <v>61.115747340077945</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" ref="I32:I45" si="12">IF(H32&lt;=E32,"agregar mas muros",IF(H32&lt;=G32,0.0006,1.1*ABS(B32)/($B$3*$B$2*D32)))</f>
+        <v>1.6803592025045315E-4</v>
+      </c>
+      <c r="J32" s="28">
+        <f t="shared" ref="J32:J45" si="13">$B$4/(I32*$B$2*$B$5)</f>
+        <v>11.362693503239289</v>
+      </c>
+      <c r="K32" s="38">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" ref="L32:L45" si="14">IF(J32&gt;3,3,ROUNDDOWN(J32,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="str">
+        <f>'Resultados por pier'!B21</f>
+        <v>M9X</v>
+      </c>
+      <c r="B33" s="24">
+        <f>'Resultados por pier'!D21</f>
+        <v>0.121</v>
+      </c>
+      <c r="C33" s="24">
+        <f>'Resultados por pier'!H21</f>
+        <v>0.1002</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0.37</v>
+      </c>
+      <c r="E33" s="24">
+        <f t="shared" si="8"/>
+        <v>2.3359073359073355</v>
+      </c>
+      <c r="F33" s="24">
+        <f t="shared" si="9"/>
+        <v>2.238105874469511</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="11"/>
+        <v>48.641546028061242</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="12"/>
+        <v>1.5114694526459233E-4</v>
+      </c>
+      <c r="J33" s="28">
+        <f t="shared" si="13"/>
+        <v>12.632346991851124</v>
+      </c>
+      <c r="K33" s="38">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="str">
+        <f>'Resultados por pier'!B22</f>
+        <v>M10X</v>
+      </c>
+      <c r="B34" s="24">
+        <f>'Resultados por pier'!D22</f>
+        <v>1.3111999999999999</v>
+      </c>
+      <c r="C34" s="24">
+        <f>'Resultados por pier'!H22</f>
+        <v>1.6113</v>
+      </c>
+      <c r="D34" s="29">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E34" s="24">
+        <f t="shared" si="8"/>
+        <v>4.0369458128078817</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" si="9"/>
+        <v>0.52968720414045567</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="10"/>
+        <v>23.2328151627359</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="11"/>
+        <v>55.680543414949909</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="12"/>
+        <v>2.6121414082874532E-4</v>
+      </c>
+      <c r="J34" s="28">
+        <f t="shared" si="13"/>
+        <v>7.309484292400704</v>
+      </c>
+      <c r="K34" s="38">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="str">
+        <f>'Resultados por pier'!B23</f>
+        <v>M11X</v>
+      </c>
+      <c r="B35" s="24">
+        <f>'Resultados por pier'!D23</f>
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="C35" s="24">
+        <f>'Resultados por pier'!H23</f>
+        <v>2.3294999999999999</v>
+      </c>
+      <c r="D35" s="29">
+        <v>2.77</v>
+      </c>
+      <c r="E35" s="24">
+        <f t="shared" si="8"/>
+        <v>4.0278494069107786</v>
+      </c>
+      <c r="F35" s="24">
+        <f t="shared" si="9"/>
+        <v>0.53839611347111216</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="10"/>
+        <v>23.154434978759991</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="11"/>
+        <v>55.550200395238733</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="12"/>
+        <v>2.6062554985893275E-4</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="13"/>
+        <v>7.3259918698459021</v>
+      </c>
+      <c r="K35" s="38">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="str">
+        <f>'Resultados por pier'!B24</f>
+        <v>M12X</v>
+      </c>
+      <c r="B36" s="24">
+        <f>'Resultados por pier'!D24</f>
+        <v>2.8323999999999998</v>
+      </c>
+      <c r="C36" s="24">
+        <f>'Resultados por pier'!H24</f>
+        <v>3.9697</v>
+      </c>
+      <c r="D36" s="29">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E36" s="24">
+        <f t="shared" si="8"/>
+        <v>8.720443349753694</v>
+      </c>
+      <c r="F36" s="24">
+        <f t="shared" si="9"/>
+        <v>0.60410873683339106</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="10"/>
+        <v>22.563021368499481</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="11"/>
+        <v>54.566703904807682</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="12"/>
+        <v>5.6426398145465091E-4</v>
+      </c>
+      <c r="J36" s="28">
+        <f t="shared" si="13"/>
+        <v>3.3837719969622242</v>
+      </c>
+      <c r="K36" s="38">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="str">
+        <f>'Resultados por pier'!B25</f>
+        <v>M13X</v>
+      </c>
+      <c r="B37" s="24">
+        <f>'Resultados por pier'!D25</f>
+        <v>1.6707000000000001</v>
+      </c>
+      <c r="C37" s="24">
+        <f>'Resultados por pier'!H25</f>
+        <v>1.1577999999999999</v>
+      </c>
+      <c r="D37" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="E37" s="24">
+        <f t="shared" si="8"/>
+        <v>3.616233766233766</v>
+      </c>
+      <c r="F37" s="24">
+        <f t="shared" si="9"/>
+        <v>0.21000088875829584</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="10"/>
+        <v>26.109992001175343</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="11"/>
+        <v>60.465170068550734</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="12"/>
+        <v>2.3399159663865549E-4</v>
+      </c>
+      <c r="J37" s="28">
+        <f t="shared" si="13"/>
+        <v>8.1598685028385152</v>
+      </c>
+      <c r="K37" s="38">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="str">
+        <f>'Resultados por pier'!B26</f>
+        <v>M14X</v>
+      </c>
+      <c r="B38" s="24">
+        <f>'Resultados por pier'!D26</f>
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="C38" s="24">
+        <f>'Resultados por pier'!H26</f>
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="D38" s="29">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E38" s="24">
+        <f t="shared" si="8"/>
+        <v>4.8418367346938771</v>
+      </c>
+      <c r="F38" s="24">
+        <f t="shared" si="9"/>
+        <v>0.73338476591901247</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="10"/>
+        <v>21.399537106728889</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="11"/>
+        <v>52.631877468163601</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="12"/>
+        <v>3.1329531812725089E-4</v>
+      </c>
+      <c r="J38" s="28">
+        <f t="shared" si="13"/>
+        <v>6.0943798035473487</v>
+      </c>
+      <c r="K38" s="38">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="str">
+        <f>'Resultados por pier'!B27</f>
+        <v>M15X</v>
+      </c>
+      <c r="B39" s="24">
+        <f>'Resultados por pier'!D27</f>
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="C39" s="24">
+        <f>'Resultados por pier'!H27</f>
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.98</v>
+      </c>
+      <c r="E39" s="24">
+        <f t="shared" si="8"/>
+        <v>5.4190962099125359</v>
+      </c>
+      <c r="F39" s="24">
+        <f t="shared" si="9"/>
+        <v>0.67359290723686926</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="10"/>
+        <v>21.937663834868175</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="11"/>
+        <v>53.526760066991542</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="12"/>
+        <v>3.5064740181787004E-4</v>
+      </c>
+      <c r="J39" s="28">
+        <f t="shared" si="13"/>
+        <v>5.4451869583006092</v>
+      </c>
+      <c r="K39" s="38">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="str">
+        <f>'Resultados por pier'!B28</f>
+        <v>M16X</v>
+      </c>
+      <c r="B40" s="24">
+        <f>'Resultados por pier'!D28</f>
+        <v>1.3024</v>
+      </c>
+      <c r="C40" s="24">
+        <f>'Resultados por pier'!H28</f>
+        <v>1.2633000000000001</v>
+      </c>
+      <c r="D40" s="29">
+        <v>3.3</v>
+      </c>
+      <c r="E40" s="24">
+        <f t="shared" si="8"/>
+        <v>2.8190476190476188</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="shared" si="9"/>
+        <v>0.29393287916015193</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="10"/>
+        <v>25.354604087558634</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="11"/>
+        <v>59.208991061055748</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="12"/>
+        <v>1.8240896358543419E-4</v>
+      </c>
+      <c r="J40" s="28">
+        <f t="shared" si="13"/>
+        <v>10.467362029862029</v>
+      </c>
+      <c r="K40" s="38">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="str">
+        <f>'Resultados por pier'!B29</f>
+        <v>M17X</v>
+      </c>
+      <c r="B41" s="24">
+        <f>'Resultados por pier'!D29</f>
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="C41" s="24">
+        <f>'Resultados por pier'!H29</f>
+        <v>0.44369999999999998</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="E41" s="24">
+        <f t="shared" si="8"/>
+        <v>4.9315169366715752</v>
+      </c>
+      <c r="F41" s="24">
+        <f t="shared" si="9"/>
+        <v>0.68302625117570726</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="10"/>
+        <v>21.852763739418634</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="11"/>
+        <v>53.38557470286861</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="12"/>
+        <v>3.1909815472580788E-4</v>
+      </c>
+      <c r="J41" s="28">
+        <f t="shared" si="13"/>
+        <v>5.9835528067572259</v>
+      </c>
+      <c r="K41" s="38">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="str">
+        <f>'Resultados por pier'!B30</f>
+        <v>M18X</v>
+      </c>
+      <c r="B42" s="24">
+        <f>'Resultados por pier'!D30</f>
+        <v>1.4371</v>
+      </c>
+      <c r="C42" s="24">
+        <f>'Resultados por pier'!H30</f>
+        <v>2.4371</v>
+      </c>
+      <c r="D42" s="29">
+        <v>3.22</v>
+      </c>
+      <c r="E42" s="24">
+        <f t="shared" si="8"/>
+        <v>3.1878881987577636</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="9"/>
+        <v>0.52666018651260671</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="10"/>
+        <v>23.260058321386541</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="11"/>
+        <v>55.72584766641846</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="12"/>
+        <v>2.0627511874314947E-4</v>
+      </c>
+      <c r="J42" s="28">
+        <f t="shared" si="13"/>
+        <v>9.2562819547719677</v>
+      </c>
+      <c r="K42" s="38">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="str">
+        <f>'Resultados por pier'!B31</f>
+        <v>M19X</v>
+      </c>
+      <c r="B43" s="24">
+        <f>'Resultados por pier'!D31</f>
+        <v>1.1617999999999999</v>
+      </c>
+      <c r="C43" s="24">
+        <f>'Resultados por pier'!H31</f>
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="D43" s="29">
+        <v>1.64</v>
+      </c>
+      <c r="E43" s="24">
+        <f t="shared" si="8"/>
+        <v>5.0601045296167237</v>
+      </c>
+      <c r="F43" s="24">
+        <f t="shared" si="9"/>
+        <v>0.40806108267658686</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="10"/>
+        <v>24.327450255910719</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="11"/>
+        <v>57.50087651814971</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="12"/>
+        <v>3.2741852838696461E-4</v>
+      </c>
+      <c r="J43" s="28">
+        <f t="shared" si="13"/>
+        <v>5.8314985066577414</v>
+      </c>
+      <c r="K43" s="38">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L43" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="str">
+        <f>'Resultados por pier'!B32</f>
+        <v>M20X</v>
+      </c>
+      <c r="B44" s="24">
+        <f>'Resultados por pier'!D32</f>
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="C44" s="24">
+        <f>'Resultados por pier'!H32</f>
+        <v>0.1595</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0.37</v>
+      </c>
+      <c r="E44" s="24">
+        <f t="shared" si="8"/>
+        <v>4.6389961389961387</v>
+      </c>
+      <c r="F44" s="24">
+        <f t="shared" si="9"/>
+        <v>1.7939287602208951</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="11"/>
+        <v>48.641546028061242</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="12"/>
+        <v>3.001703384056325E-4</v>
+      </c>
+      <c r="J44" s="28">
+        <f t="shared" si="13"/>
+        <v>6.3608572035538327</v>
+      </c>
+      <c r="K44" s="38">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="str">
+        <f>'Resultados por pier'!B33</f>
+        <v>M21X</v>
+      </c>
+      <c r="B45" s="24">
+        <f>'Resultados por pier'!D33</f>
+        <v>1.9393</v>
+      </c>
+      <c r="C45" s="24">
+        <f>'Resultados por pier'!H33</f>
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="D45" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E45" s="24">
+        <f t="shared" si="8"/>
+        <v>2.7161064425770305</v>
+      </c>
+      <c r="F45" s="24">
+        <f t="shared" si="9"/>
+        <v>0.20403561826937755</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="10"/>
+        <v>26.163679435575602</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="11"/>
+        <v>60.554450062106589</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="12"/>
+        <v>1.7574806393145495E-4</v>
+      </c>
+      <c r="J45" s="28">
+        <f t="shared" si="13"/>
+        <v>10.864077911466143</v>
+      </c>
+      <c r="K45" s="38">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CAD58B-62DD-49B0-8FF5-2F3E018E2753}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="6"/>
+    <col min="3" max="4" width="20.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="6"/>
+    <col min="7" max="8" width="20.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="33">
+        <f>'Resistencia al corte'!B9</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="33">
+        <f>'Resistencia al corte'!B12</f>
+        <v>0.63608175575157011</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="34">
+        <f>'Resistencia al corte'!B10</f>
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="34">
+        <f>'Resistencia al corte'!B13</f>
+        <v>0.48641546028061239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C85F50-745A-40AF-AD65-075F51DE0E61}">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="6"/>
+    <col min="1" max="1" width="7.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1.04</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="26"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>10.49</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f>C3*C4*C5*1000</f>
         <v>262.0800000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f>C9*C10*C11*1000</f>
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <f>C15+C16+'Solicitacion cercha madera'!C27*'Solicitacion cercha madera'!C10/'Solicitación timpano'!C6</f>
         <v>307.01562500000011</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <f>'Solicitacion cercha madera'!F22/2*5/C6</f>
         <v>70</v>
       </c>
@@ -1856,249 +3774,249 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799F4323-B58A-4472-B8A9-BF42EC749805}">
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="6"/>
-    <col min="5" max="5" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" style="6"/>
+    <col min="5" max="5" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="6"/>
+    <col min="8" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>550</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>100</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>50</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.157</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>8.5399999999999991</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>C11*C5/1000*C4/1000</f>
         <v>4.2699999999999995E-2</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f>C11/10</f>
         <v>0.85399999999999987</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f>C15*C5/1000*C4/1000</f>
         <v>4.2699999999999995E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H18" s="6">
         <v>49.59</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
         <v>40</v>
       </c>
@@ -2106,7 +4024,7 @@
       <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="25">
         <f>8.4/5*10/6</f>
         <v>2.8000000000000003</v>
       </c>
@@ -2115,11 +4033,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <f>C3*C8/2</f>
         <v>43.174999999999997</v>
       </c>
@@ -2128,60 +4046,60 @@
         <v>0.59035714285714291</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <f>$C$16*$C$3*2*5/2</f>
         <v>11.742499999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <f>C16*C3*5/2</f>
         <v>5.871249999999999</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <f>F19*100</f>
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <f>C20+C21</f>
         <v>54.917499999999997</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <f>C22</f>
         <v>5.871249999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <f>+F22*6/2</f>
         <v>840</v>
       </c>
@@ -2197,7 +4115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44941632-0BEC-43CE-AA79-0E3620F1F440}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2205,7 +4123,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tarea 03/diseño corte.xlsx
+++ b/Tarea 03/diseño corte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Google Drive (ignacio.yanez.g@ug.uchile.cl)\Universidad\Semestre 12 Primavera 2018\proyecto albañilería\proyecto-CI5223\Tarea 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC56FA5-AB6F-4F6F-BD51-E089C1158011}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1454E1A2-35E1-4CAD-BAD8-CB6A745CDB38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="4596" activeTab="1" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="4596" activeTab="2" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados por pier" sheetId="5" r:id="rId1"/>
@@ -50,33 +50,6 @@
     <t>Caso 1: Sin considerar armadura de corte</t>
   </si>
   <si>
-    <t>$V_2 \quad (tonf)$</t>
-  </si>
-  <si>
-    <t>$M_3 \quad (tonf \cdot m)$</t>
-  </si>
-  <si>
-    <t>$d \quad (m)$</t>
-  </si>
-  <si>
-    <t>$\tau_{0} \quad (tonf/m^2)$</t>
-  </si>
-  <si>
-    <t>$\tau_{1} \quad (tonf/m^2)$</t>
-  </si>
-  <si>
-    <t>$\tau_{sol} \quad (tonf/m^2)$</t>
-  </si>
-  <si>
-    <t>$M/Vd \quad (-)$</t>
-  </si>
-  <si>
-    <t>$\rho_h \quad (-)$</t>
-  </si>
-  <si>
-    <t>$f'm \quad (MPa)$</t>
-  </si>
-  <si>
     <t>$M/Vd=0 $</t>
   </si>
   <si>
@@ -86,18 +59,6 @@
     <t>Caso 2: Armadura resiste todo el corte</t>
   </si>
   <si>
-    <t>$b \quad (m)$</t>
-  </si>
-  <si>
-    <t>$F_s \quad (Mpa)$</t>
-  </si>
-  <si>
-    <t>$A_{esc} \quad (m^2)$</t>
-  </si>
-  <si>
-    <t>$Escantillon \quad (m)$</t>
-  </si>
-  <si>
     <t>$\rho_{alb} \quad (tonf/m^3)$</t>
   </si>
   <si>
@@ -333,17 +294,57 @@
   </si>
   <si>
     <t>N°Hiladas</t>
+  </si>
+  <si>
+    <t>$V_2 $ $ (tonf)$</t>
+  </si>
+  <si>
+    <t>$M_3 $$(tonf \cdot m)$</t>
+  </si>
+  <si>
+    <t>$d $$ (m)$</t>
+  </si>
+  <si>
+    <t>$\tau_{sol} $$ (tonf/m^2)$</t>
+  </si>
+  <si>
+    <t>$M/Vd$$ (-)$</t>
+  </si>
+  <si>
+    <t>$\tau_{0resist} $ $ (tonf/m^2)$</t>
+  </si>
+  <si>
+    <t>$\tau_{1resist} $ $ (tonf/m^2)$</t>
+  </si>
+  <si>
+    <t>$\rho_h$ $ (-)$</t>
+  </si>
+  <si>
+    <t>$Escantillon $ $ (m)$</t>
+  </si>
+  <si>
+    <t>$A_{esc} $ $ (m^2)$</t>
+  </si>
+  <si>
+    <t>$b $ $ (m)$</t>
+  </si>
+  <si>
+    <t>$f'm $ $ (MPa)$</t>
+  </si>
+  <si>
+    <t>$F_s$ $ (tonf/m^2)$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0.00000"/>
     <numFmt numFmtId="183" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -587,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -705,6 +706,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1227,48 +1237,48 @@
         <v>0</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="42"/>
       <c r="C4" s="42" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C5" s="39">
         <v>5.6189</v>
@@ -1291,7 +1301,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C6" s="39">
         <v>3.9243999999999999</v>
@@ -1314,7 +1324,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C7" s="39">
         <v>6.1524000000000001</v>
@@ -1337,7 +1347,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C8" s="39">
         <v>4.5667999999999997</v>
@@ -1360,7 +1370,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C9" s="39">
         <v>5.4020999999999999</v>
@@ -1383,7 +1393,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C10" s="39">
         <v>5.4909999999999997</v>
@@ -1406,7 +1416,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C11" s="39">
         <v>3.0482</v>
@@ -1429,7 +1439,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C12" s="39">
         <v>5.4813000000000001</v>
@@ -1452,7 +1462,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C13" s="39">
         <v>3.8298000000000001</v>
@@ -1475,7 +1485,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C14" s="39">
         <v>2.0876999999999999</v>
@@ -1498,7 +1508,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C15" s="39">
         <v>1.8138000000000001</v>
@@ -1521,7 +1531,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C16" s="39">
         <v>2.4049999999999998</v>
@@ -1544,7 +1554,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="39" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C17" s="39">
         <v>5.8376000000000001</v>
@@ -1567,7 +1577,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="39" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C18" s="39">
         <v>1.8027</v>
@@ -1590,7 +1600,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="39" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C19" s="39">
         <v>2.8479999999999999</v>
@@ -1613,7 +1623,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="39" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C20" s="39">
         <v>3.8689</v>
@@ -1636,7 +1646,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="39" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C21" s="39">
         <v>0.60199999999999998</v>
@@ -1659,7 +1669,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="39" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C22" s="39">
         <v>2.8382000000000001</v>
@@ -1682,7 +1692,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="39" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C23" s="39">
         <v>3.5468999999999999</v>
@@ -1705,7 +1715,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="39" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C24" s="39">
         <v>3.7900999999999998</v>
@@ -1728,7 +1738,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="39" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C25" s="39">
         <v>3.7988</v>
@@ -1751,7 +1761,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="39" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C26" s="39">
         <v>2.1093999999999999</v>
@@ -1774,7 +1784,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="39" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C27" s="39">
         <v>1.8062</v>
@@ -1797,7 +1807,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="39" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C28" s="39">
         <v>2.4131999999999998</v>
@@ -1820,7 +1830,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="39" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C29" s="39">
         <v>1.9093</v>
@@ -1843,7 +1853,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="39" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C30" s="39">
         <v>4.38</v>
@@ -1866,7 +1876,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="39" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C31" s="39">
         <v>3.0327000000000002</v>
@@ -1889,7 +1899,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C32" s="39">
         <v>0.81130000000000002</v>
@@ -1912,7 +1922,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="39" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C33" s="39">
         <v>3.8149000000000002</v>
@@ -1942,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DECA69-FFD3-42FF-AF12-189361EB5B99}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L10:L11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B1" s="22">
         <v>14</v>
@@ -1969,7 +1979,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B2" s="22">
         <v>0.14000000000000001</v>
@@ -1977,7 +1987,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B3" s="22">
         <v>17000</v>
@@ -1985,14 +1995,14 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B4" s="31">
         <f>0.0000139*2</f>
         <v>2.7800000000000001E-5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F4" s="30">
         <v>1.3900000000000001E-5</v>
@@ -2000,7 +2010,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B5" s="22">
         <v>0.104</v>
@@ -2022,7 +2032,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <f>MIN(0.13*SQRT(B1),0.28)</f>
@@ -2031,7 +2041,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
         <f>MIN(0.06*SQRT(B1),0.19)</f>
@@ -2040,12 +2050,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3">
         <f>MIN(0.17*SQRT(B1),0.84)</f>
@@ -2054,7 +2064,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3">
         <f>MIN(0.13*SQRT(B1),0.52)</f>
@@ -2066,34 +2076,34 @@
         <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>2</v>
@@ -3030,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3575,40 +3585,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CAD58B-62DD-49B0-8FF5-2F3E018E2753}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.5546875" style="6"/>
     <col min="3" max="4" width="20.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="6"/>
-    <col min="7" max="8" width="20.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="6"/>
+    <col min="5" max="5" width="11.5546875" style="6"/>
+    <col min="6" max="6" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.5546875" style="6"/>
+    <col min="15" max="16" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="6"/>
+    <col min="19" max="19" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
     </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C4" s="33">
         <f>'Resistencia al corte'!B9</f>
@@ -3619,9 +3640,9 @@
         <v>0.63608175575157011</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C5" s="34">
         <f>'Resistencia al corte'!B10</f>
@@ -3632,8 +3653,1305 @@
         <v>0.48641546028061239</v>
       </c>
     </row>
+    <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+    </row>
+    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="37" t="str">
+        <f>'Resistencia al corte'!A16</f>
+        <v>Pier</v>
+      </c>
+      <c r="G9" s="37" t="str">
+        <f>'Resistencia al corte'!B16</f>
+        <v>$V_2 $ $ (tonf)$</v>
+      </c>
+      <c r="H9" s="37" t="str">
+        <f>'Resistencia al corte'!C16</f>
+        <v>$M_3 $$(tonf \cdot m)$</v>
+      </c>
+      <c r="I9" s="37" t="str">
+        <f>'Resistencia al corte'!D16</f>
+        <v>$d $$ (m)$</v>
+      </c>
+      <c r="J9" s="37" t="str">
+        <f>'Resistencia al corte'!E16</f>
+        <v>$\tau_{sol} $$ (tonf/m^2)$</v>
+      </c>
+      <c r="K9" s="37" t="str">
+        <f>'Resistencia al corte'!F16</f>
+        <v>$M/Vd$$ (-)$</v>
+      </c>
+      <c r="N9" s="37" t="str">
+        <f t="shared" ref="N9:N38" si="0">F9</f>
+        <v>Pier</v>
+      </c>
+      <c r="O9" s="37" t="str">
+        <f>'Resistencia al corte'!G16</f>
+        <v>$\tau_{0resist} $ $ (tonf/m^2)$</v>
+      </c>
+      <c r="P9" s="37" t="str">
+        <f>'Resistencia al corte'!H16</f>
+        <v>$\tau_{1resist} $ $ (tonf/m^2)$</v>
+      </c>
+      <c r="Q9" s="37" t="str">
+        <f>'Resistencia al corte'!I16</f>
+        <v>$\rho_h$ $ (-)$</v>
+      </c>
+      <c r="S9" s="46" t="str">
+        <f>'Resistencia al corte'!A2</f>
+        <v>$b $ $ (m)$</v>
+      </c>
+      <c r="T9" s="7">
+        <f>'Resistencia al corte'!B2</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F10" s="6" t="str">
+        <f>'Resistencia al corte'!A17</f>
+        <v>M1Y</v>
+      </c>
+      <c r="G10" s="25">
+        <f>'Resistencia al corte'!B17</f>
+        <v>1.6123000000000001</v>
+      </c>
+      <c r="H10" s="25">
+        <f>'Resistencia al corte'!C17</f>
+        <v>1.8597999999999999</v>
+      </c>
+      <c r="I10" s="6">
+        <f>'Resistencia al corte'!D17</f>
+        <v>3.9</v>
+      </c>
+      <c r="J10" s="25">
+        <f>'Resistencia al corte'!E17</f>
+        <v>2.9529304029304027</v>
+      </c>
+      <c r="K10" s="25">
+        <f>'Resistencia al corte'!F17</f>
+        <v>0.29577113122359039</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M1Y</v>
+      </c>
+      <c r="O10" s="25">
+        <f>'Resistencia al corte'!G17</f>
+        <v>25.338059818987691</v>
+      </c>
+      <c r="P10" s="25">
+        <f>'Resistencia al corte'!H17</f>
+        <v>59.181478623408083</v>
+      </c>
+      <c r="Q10" s="44">
+        <f>'Resistencia al corte'!I17</f>
+        <v>1.9107196724843785E-4</v>
+      </c>
+      <c r="S10" s="46" t="str">
+        <f>'Resistencia al corte'!A4</f>
+        <v>$A_{esc} $ $ (m^2)$</v>
+      </c>
+      <c r="T10" s="7">
+        <f>'Resistencia al corte'!B4</f>
+        <v>2.7800000000000001E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F11" s="6" t="str">
+        <f>'Resistencia al corte'!A18</f>
+        <v>M2Y</v>
+      </c>
+      <c r="G11" s="25">
+        <f>'Resistencia al corte'!B18</f>
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="H11" s="25">
+        <f>'Resistencia al corte'!C18</f>
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="I11" s="6">
+        <f>'Resistencia al corte'!D18</f>
+        <v>2.25</v>
+      </c>
+      <c r="J11" s="25">
+        <f>'Resistencia al corte'!E18</f>
+        <v>2.8368253968253963</v>
+      </c>
+      <c r="K11" s="25">
+        <f>'Resistencia al corte'!F18</f>
+        <v>0.3047349050034816</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M2Y</v>
+      </c>
+      <c r="O11" s="25">
+        <f>'Resistencia al corte'!G18</f>
+        <v>25.257385854968668</v>
+      </c>
+      <c r="P11" s="25">
+        <f>'Resistencia al corte'!H18</f>
+        <v>59.047321141900476</v>
+      </c>
+      <c r="Q11" s="44">
+        <f>'Resistencia al corte'!I18</f>
+        <v>1.8355929038281981E-4</v>
+      </c>
+      <c r="S11" s="46" t="str">
+        <f>'Resistencia al corte'!A5</f>
+        <v>$Escantillon $ $ (m)$</v>
+      </c>
+      <c r="T11" s="7">
+        <f>'Resistencia al corte'!B5</f>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F12" s="6" t="str">
+        <f>'Resistencia al corte'!A19</f>
+        <v>M3Y</v>
+      </c>
+      <c r="G12" s="25">
+        <f>'Resistencia al corte'!B19</f>
+        <v>1.6081000000000001</v>
+      </c>
+      <c r="H12" s="25">
+        <f>'Resistencia al corte'!C19</f>
+        <v>1.9031</v>
+      </c>
+      <c r="I12" s="6">
+        <f>'Resistencia al corte'!D19</f>
+        <v>3.9</v>
+      </c>
+      <c r="J12" s="25">
+        <f>'Resistencia al corte'!E19</f>
+        <v>2.9452380952380954</v>
+      </c>
+      <c r="K12" s="25">
+        <f>'Resistencia al corte'!F19</f>
+        <v>0.30344777002323176</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M3Y</v>
+      </c>
+      <c r="O12" s="25">
+        <f>'Resistencia al corte'!G19</f>
+        <v>25.268970069790914</v>
+      </c>
+      <c r="P12" s="25">
+        <f>'Resistencia al corte'!H19</f>
+        <v>59.066585214326984</v>
+      </c>
+      <c r="Q12" s="44">
+        <f>'Resistencia al corte'!I19</f>
+        <v>1.9057422969187676E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F13" s="6" t="str">
+        <f>'Resistencia al corte'!A20</f>
+        <v>M4Y</v>
+      </c>
+      <c r="G13" s="25">
+        <f>'Resistencia al corte'!B20</f>
+        <v>1.6175999999999999</v>
+      </c>
+      <c r="H13" s="25">
+        <f>'Resistencia al corte'!C20</f>
+        <v>2.5688</v>
+      </c>
+      <c r="I13" s="6">
+        <f>'Resistencia al corte'!D20</f>
+        <v>3.9</v>
+      </c>
+      <c r="J13" s="25">
+        <f>'Resistencia al corte'!E20</f>
+        <v>2.9626373626373623</v>
+      </c>
+      <c r="K13" s="25">
+        <f>'Resistencia al corte'!F20</f>
+        <v>0.40718760303330037</v>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M4Y</v>
+      </c>
+      <c r="O13" s="25">
+        <f>'Resistencia al corte'!G20</f>
+        <v>24.335311572700295</v>
+      </c>
+      <c r="P13" s="25">
+        <f>'Resistencia al corte'!H20</f>
+        <v>57.513949564387715</v>
+      </c>
+      <c r="Q13" s="44">
+        <f>'Resistencia al corte'!I20</f>
+        <v>1.9170006464124111E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F14" s="6" t="str">
+        <f>'Resistencia al corte'!A21</f>
+        <v>M5Y</v>
+      </c>
+      <c r="G14" s="25">
+        <f>'Resistencia al corte'!B21</f>
+        <v>1.4973000000000001</v>
+      </c>
+      <c r="H14" s="25">
+        <f>'Resistencia al corte'!C21</f>
+        <v>2.7553000000000001</v>
+      </c>
+      <c r="I14" s="6">
+        <f>'Resistencia al corte'!D21</f>
+        <v>3.9</v>
+      </c>
+      <c r="J14" s="25">
+        <f>'Resistencia al corte'!E21</f>
+        <v>2.7423076923076923</v>
+      </c>
+      <c r="K14" s="25">
+        <f>'Resistencia al corte'!F21</f>
+        <v>0.47184076637092065</v>
+      </c>
+      <c r="N14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M5Y</v>
+      </c>
+      <c r="O14" s="25">
+        <f>'Resistencia al corte'!G21</f>
+        <v>23.753433102661713</v>
+      </c>
+      <c r="P14" s="25">
+        <f>'Resistencia al corte'!H21</f>
+        <v>56.546309619665678</v>
+      </c>
+      <c r="Q14" s="44">
+        <f>'Resistencia al corte'!I21</f>
+        <v>1.7744343891402717E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F15" s="6" t="str">
+        <f>'Resistencia al corte'!A22</f>
+        <v>M6Y</v>
+      </c>
+      <c r="G15" s="25">
+        <f>'Resistencia al corte'!B22</f>
+        <v>1.9168000000000001</v>
+      </c>
+      <c r="H15" s="25">
+        <f>'Resistencia al corte'!C22</f>
+        <v>2.0171999999999999</v>
+      </c>
+      <c r="I15" s="6">
+        <f>'Resistencia al corte'!D22</f>
+        <v>3.9</v>
+      </c>
+      <c r="J15" s="25">
+        <f>'Resistencia al corte'!E22</f>
+        <v>3.5106227106227106</v>
+      </c>
+      <c r="K15" s="25">
+        <f>'Resistencia al corte'!F22</f>
+        <v>0.269840760241428</v>
+      </c>
+      <c r="N15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M6Y</v>
+      </c>
+      <c r="O15" s="25">
+        <f>'Resistencia al corte'!G22</f>
+        <v>25.571433157827151</v>
+      </c>
+      <c r="P15" s="25">
+        <f>'Resistencia al corte'!H22</f>
+        <v>59.569568879916865</v>
+      </c>
+      <c r="Q15" s="44">
+        <f>'Resistencia al corte'!I22</f>
+        <v>2.2715794009911658E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F16" s="6" t="str">
+        <f>'Resistencia al corte'!A23</f>
+        <v>M7Y</v>
+      </c>
+      <c r="G16" s="25">
+        <f>'Resistencia al corte'!B23</f>
+        <v>1.1177999999999999</v>
+      </c>
+      <c r="H16" s="25">
+        <f>'Resistencia al corte'!C23</f>
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="I16" s="6">
+        <f>'Resistencia al corte'!D23</f>
+        <v>2.25</v>
+      </c>
+      <c r="J16" s="25">
+        <f>'Resistencia al corte'!E23</f>
+        <v>3.548571428571428</v>
+      </c>
+      <c r="K16" s="25">
+        <f>'Resistencia al corte'!F23</f>
+        <v>0.32897954315023564</v>
+      </c>
+      <c r="N16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M7Y</v>
+      </c>
+      <c r="O16" s="25">
+        <f>'Resistencia al corte'!G23</f>
+        <v>25.039184111647884</v>
+      </c>
+      <c r="P16" s="25">
+        <f>'Resistencia al corte'!H23</f>
+        <v>58.684460624254633</v>
+      </c>
+      <c r="Q16" s="44">
+        <f>'Resistencia al corte'!I23</f>
+        <v>2.2961344537815123E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="str">
+        <f>'Resistencia al corte'!A24</f>
+        <v>M8Y</v>
+      </c>
+      <c r="G17" s="25">
+        <f>'Resistencia al corte'!B24</f>
+        <v>1.9679</v>
+      </c>
+      <c r="H17" s="25">
+        <f>'Resistencia al corte'!C24</f>
+        <v>1.9932000000000001</v>
+      </c>
+      <c r="I17" s="6">
+        <f>'Resistencia al corte'!D24</f>
+        <v>3.9</v>
+      </c>
+      <c r="J17" s="25">
+        <f>'Resistencia al corte'!E24</f>
+        <v>3.6042124542124543</v>
+      </c>
+      <c r="K17" s="25">
+        <f>'Resistencia al corte'!F24</f>
+        <v>0.25970675495549728</v>
+      </c>
+      <c r="N17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M8Y</v>
+      </c>
+      <c r="O17" s="25">
+        <f>'Resistencia al corte'!G24</f>
+        <v>25.662639205400527</v>
+      </c>
+      <c r="P17" s="25">
+        <f>'Resistencia al corte'!H24</f>
+        <v>59.721240782859709</v>
+      </c>
+      <c r="Q17" s="44">
+        <f>'Resistencia al corte'!I24</f>
+        <v>2.3321374703727648E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="str">
+        <f>'Resistencia al corte'!A25</f>
+        <v>M1X</v>
+      </c>
+      <c r="G18" s="25">
+        <f>'Resistencia al corte'!B25</f>
+        <v>1.5024999999999999</v>
+      </c>
+      <c r="H18" s="25">
+        <f>'Resistencia al corte'!C25</f>
+        <v>1.0904</v>
+      </c>
+      <c r="I18" s="6">
+        <f>'Resistencia al corte'!D25</f>
+        <v>3.3</v>
+      </c>
+      <c r="J18" s="25">
+        <f>'Resistencia al corte'!E25</f>
+        <v>3.252164502164502</v>
+      </c>
+      <c r="K18" s="25">
+        <f>'Resistencia al corte'!F25</f>
+        <v>0.21991630111430446</v>
+      </c>
+      <c r="N18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M1X</v>
+      </c>
+      <c r="O18" s="25">
+        <f>'Resistencia al corte'!G25</f>
+        <v>26.02075328997126</v>
+      </c>
+      <c r="P18" s="25">
+        <f>'Resistencia al corte'!H25</f>
+        <v>60.316769765011649</v>
+      </c>
+      <c r="Q18" s="44">
+        <f>'Resistencia al corte'!I25</f>
+        <v>2.1043417366946782E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="str">
+        <f>'Resistencia al corte'!A26</f>
+        <v>M2X</v>
+      </c>
+      <c r="G19" s="25">
+        <f>'Resistencia al corte'!B26</f>
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="H19" s="25">
+        <f>'Resistencia al corte'!C26</f>
+        <v>0.5968</v>
+      </c>
+      <c r="I19" s="6">
+        <f>'Resistencia al corte'!D26</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J19" s="25">
+        <f>'Resistencia al corte'!E26</f>
+        <v>4.4732142857142847</v>
+      </c>
+      <c r="K19" s="25">
+        <f>'Resistencia al corte'!F26</f>
+        <v>0.75970507963664491</v>
+      </c>
+      <c r="N19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M2X</v>
+      </c>
+      <c r="O19" s="25">
+        <f>'Resistencia al corte'!G26</f>
+        <v>21.162654283270196</v>
+      </c>
+      <c r="P19" s="25">
+        <f>'Resistencia al corte'!H26</f>
+        <v>52.237951083188449</v>
+      </c>
+      <c r="Q19" s="44">
+        <f>'Resistencia al corte'!I26</f>
+        <v>2.894432773109244E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="str">
+        <f>'Resistencia al corte'!A27</f>
+        <v>M3X</v>
+      </c>
+      <c r="G20" s="25">
+        <f>'Resistencia al corte'!B27</f>
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="H20" s="25">
+        <f>'Resistencia al corte'!C27</f>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I20" s="6">
+        <f>'Resistencia al corte'!D27</f>
+        <v>0.98</v>
+      </c>
+      <c r="J20" s="25">
+        <f>'Resistencia al corte'!E27</f>
+        <v>5.3505830903790077</v>
+      </c>
+      <c r="K20" s="25">
+        <f>'Resistencia al corte'!F27</f>
+        <v>0.67693607888598839</v>
+      </c>
+      <c r="N20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M3X</v>
+      </c>
+      <c r="O20" s="25">
+        <f>'Resistencia al corte'!G27</f>
+        <v>21.907575290026106</v>
+      </c>
+      <c r="P20" s="25">
+        <f>'Resistencia al corte'!H27</f>
+        <v>53.47672405540682</v>
+      </c>
+      <c r="Q20" s="44">
+        <f>'Resistencia al corte'!I27</f>
+        <v>3.4621419996570059E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F21" s="6" t="str">
+        <f>'Resistencia al corte'!A28</f>
+        <v>M4X</v>
+      </c>
+      <c r="G21" s="25">
+        <f>'Resistencia al corte'!B28</f>
+        <v>1.4292</v>
+      </c>
+      <c r="H21" s="25">
+        <f>'Resistencia al corte'!C28</f>
+        <v>1.3167</v>
+      </c>
+      <c r="I21" s="6">
+        <f>'Resistencia al corte'!D28</f>
+        <v>3.3</v>
+      </c>
+      <c r="J21" s="25">
+        <f>'Resistencia al corte'!E28</f>
+        <v>3.0935064935064935</v>
+      </c>
+      <c r="K21" s="25">
+        <f>'Resistencia al corte'!F28</f>
+        <v>0.27917716204869858</v>
+      </c>
+      <c r="N21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M4X</v>
+      </c>
+      <c r="O21" s="25">
+        <f>'Resistencia al corte'!G28</f>
+        <v>25.487405541561714</v>
+      </c>
+      <c r="P21" s="25">
+        <f>'Resistencia al corte'!H28</f>
+        <v>59.429834412764613</v>
+      </c>
+      <c r="Q21" s="44">
+        <f>'Resistencia al corte'!I28</f>
+        <v>2.0016806722689077E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="str">
+        <f>'Resistencia al corte'!A29</f>
+        <v>M5X</v>
+      </c>
+      <c r="G22" s="25">
+        <f>'Resistencia al corte'!B29</f>
+        <v>1.7835000000000001</v>
+      </c>
+      <c r="H22" s="25">
+        <f>'Resistencia al corte'!C29</f>
+        <v>2.2806999999999999</v>
+      </c>
+      <c r="I22" s="6">
+        <f>'Resistencia al corte'!D29</f>
+        <v>3.82</v>
+      </c>
+      <c r="J22" s="25">
+        <f>'Resistencia al corte'!E29</f>
+        <v>3.3348915482423336</v>
+      </c>
+      <c r="K22" s="25">
+        <f>'Resistencia al corte'!F29</f>
+        <v>0.33475855610695482</v>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M5X</v>
+      </c>
+      <c r="O22" s="25">
+        <f>'Resistencia al corte'!G29</f>
+        <v>24.987172995037412</v>
+      </c>
+      <c r="P22" s="25">
+        <f>'Resistencia al corte'!H29</f>
+        <v>58.597968278183544</v>
+      </c>
+      <c r="Q22" s="44">
+        <f>'Resistencia al corte'!I29</f>
+        <v>2.1578710018038631E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="str">
+        <f>'Resistencia al corte'!A30</f>
+        <v>M6X</v>
+      </c>
+      <c r="G23" s="25">
+        <f>'Resistencia al corte'!B30</f>
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="H23" s="25">
+        <f>'Resistencia al corte'!C30</f>
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="I23" s="6">
+        <f>'Resistencia al corte'!D30</f>
+        <v>0.98</v>
+      </c>
+      <c r="J23" s="25">
+        <f>'Resistencia al corte'!E30</f>
+        <v>4.8141399416909616</v>
+      </c>
+      <c r="K23" s="25">
+        <f>'Resistencia al corte'!F30</f>
+        <v>0.67790325819957065</v>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M6X</v>
+      </c>
+      <c r="O23" s="25">
+        <f>'Resistencia al corte'!G30</f>
+        <v>21.898870676203867</v>
+      </c>
+      <c r="P23" s="25">
+        <f>'Resistencia al corte'!H30</f>
+        <v>53.462248640914822</v>
+      </c>
+      <c r="Q23" s="44">
+        <f>'Resistencia al corte'!I30</f>
+        <v>3.1150317269765048E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="str">
+        <f>'Resistencia al corte'!A31</f>
+        <v>M7X</v>
+      </c>
+      <c r="G24" s="25">
+        <f>'Resistencia al corte'!B31</f>
+        <v>1.0144</v>
+      </c>
+      <c r="H24" s="25">
+        <f>'Resistencia al corte'!C31</f>
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="I24" s="6">
+        <f>'Resistencia al corte'!D31</f>
+        <v>1.64</v>
+      </c>
+      <c r="J24" s="25">
+        <f>'Resistencia al corte'!E31</f>
+        <v>4.4181184668989539</v>
+      </c>
+      <c r="K24" s="25">
+        <f>'Resistencia al corte'!F31</f>
+        <v>0.47841569208278845</v>
+      </c>
+      <c r="N24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M7X</v>
+      </c>
+      <c r="O24" s="25">
+        <f>'Resistencia al corte'!G31</f>
+        <v>23.694258771254905</v>
+      </c>
+      <c r="P24" s="25">
+        <f>'Resistencia al corte'!H31</f>
+        <v>56.447905142236479</v>
+      </c>
+      <c r="Q24" s="44">
+        <f>'Resistencia al corte'!I31</f>
+        <v>2.8587825374052066E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F25" s="6" t="str">
+        <f>'Resistencia al corte'!A32</f>
+        <v>M8X</v>
+      </c>
+      <c r="G25" s="25">
+        <f>'Resistencia al corte'!B32</f>
+        <v>1.8542000000000001</v>
+      </c>
+      <c r="H25" s="25">
+        <f>'Resistencia al corte'!C32</f>
+        <v>1.5748</v>
+      </c>
+      <c r="I25" s="6">
+        <f>'Resistencia al corte'!D32</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J25" s="25">
+        <f>'Resistencia al corte'!E32</f>
+        <v>2.5969187675070029</v>
+      </c>
+      <c r="K25" s="25">
+        <f>'Resistencia al corte'!F32</f>
+        <v>0.16653236637120603</v>
+      </c>
+      <c r="N25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M8X</v>
+      </c>
+      <c r="O25" s="25">
+        <f>'Resistencia al corte'!G32</f>
+        <v>26.501208702659145</v>
+      </c>
+      <c r="P25" s="25">
+        <f>'Resistencia al corte'!H32</f>
+        <v>61.115747340077945</v>
+      </c>
+      <c r="Q25" s="44">
+        <f>'Resistencia al corte'!I32</f>
+        <v>1.6803592025045315E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F26" s="6" t="str">
+        <f>'Resistencia al corte'!A33</f>
+        <v>M9X</v>
+      </c>
+      <c r="G26" s="25">
+        <f>'Resistencia al corte'!B33</f>
+        <v>0.121</v>
+      </c>
+      <c r="H26" s="25">
+        <f>'Resistencia al corte'!C33</f>
+        <v>0.1002</v>
+      </c>
+      <c r="I26" s="6">
+        <f>'Resistencia al corte'!D33</f>
+        <v>0.37</v>
+      </c>
+      <c r="J26" s="25">
+        <f>'Resistencia al corte'!E33</f>
+        <v>2.3359073359073355</v>
+      </c>
+      <c r="K26" s="25">
+        <f>'Resistencia al corte'!F33</f>
+        <v>2.238105874469511</v>
+      </c>
+      <c r="N26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M9X</v>
+      </c>
+      <c r="O26" s="25">
+        <f>'Resistencia al corte'!G33</f>
+        <v>19</v>
+      </c>
+      <c r="P26" s="25">
+        <f>'Resistencia al corte'!H33</f>
+        <v>48.641546028061242</v>
+      </c>
+      <c r="Q26" s="44">
+        <f>'Resistencia al corte'!I33</f>
+        <v>1.5114694526459233E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="str">
+        <f>'Resistencia al corte'!A34</f>
+        <v>M10X</v>
+      </c>
+      <c r="G27" s="25">
+        <f>'Resistencia al corte'!B34</f>
+        <v>1.3111999999999999</v>
+      </c>
+      <c r="H27" s="25">
+        <f>'Resistencia al corte'!C34</f>
+        <v>1.6113</v>
+      </c>
+      <c r="I27" s="6">
+        <f>'Resistencia al corte'!D34</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J27" s="25">
+        <f>'Resistencia al corte'!E34</f>
+        <v>4.0369458128078817</v>
+      </c>
+      <c r="K27" s="25">
+        <f>'Resistencia al corte'!F34</f>
+        <v>0.52968720414045567</v>
+      </c>
+      <c r="N27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M10X</v>
+      </c>
+      <c r="O27" s="25">
+        <f>'Resistencia al corte'!G34</f>
+        <v>23.2328151627359</v>
+      </c>
+      <c r="P27" s="25">
+        <f>'Resistencia al corte'!H34</f>
+        <v>55.680543414949909</v>
+      </c>
+      <c r="Q27" s="44">
+        <f>'Resistencia al corte'!I34</f>
+        <v>2.6121414082874532E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F28" s="6" t="str">
+        <f>'Resistencia al corte'!A35</f>
+        <v>M11X</v>
+      </c>
+      <c r="G28" s="25">
+        <f>'Resistencia al corte'!B35</f>
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="H28" s="25">
+        <f>'Resistencia al corte'!C35</f>
+        <v>2.3294999999999999</v>
+      </c>
+      <c r="I28" s="6">
+        <f>'Resistencia al corte'!D35</f>
+        <v>2.77</v>
+      </c>
+      <c r="J28" s="25">
+        <f>'Resistencia al corte'!E35</f>
+        <v>4.0278494069107786</v>
+      </c>
+      <c r="K28" s="25">
+        <f>'Resistencia al corte'!F35</f>
+        <v>0.53839611347111216</v>
+      </c>
+      <c r="N28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M11X</v>
+      </c>
+      <c r="O28" s="25">
+        <f>'Resistencia al corte'!G35</f>
+        <v>23.154434978759991</v>
+      </c>
+      <c r="P28" s="25">
+        <f>'Resistencia al corte'!H35</f>
+        <v>55.550200395238733</v>
+      </c>
+      <c r="Q28" s="44">
+        <f>'Resistencia al corte'!I35</f>
+        <v>2.6062554985893275E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F29" s="6" t="str">
+        <f>'Resistencia al corte'!A36</f>
+        <v>M12X</v>
+      </c>
+      <c r="G29" s="25">
+        <f>'Resistencia al corte'!B36</f>
+        <v>2.8323999999999998</v>
+      </c>
+      <c r="H29" s="25">
+        <f>'Resistencia al corte'!C36</f>
+        <v>3.9697</v>
+      </c>
+      <c r="I29" s="6">
+        <f>'Resistencia al corte'!D36</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J29" s="25">
+        <f>'Resistencia al corte'!E36</f>
+        <v>8.720443349753694</v>
+      </c>
+      <c r="K29" s="25">
+        <f>'Resistencia al corte'!F36</f>
+        <v>0.60410873683339106</v>
+      </c>
+      <c r="N29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M12X</v>
+      </c>
+      <c r="O29" s="25">
+        <f>'Resistencia al corte'!G36</f>
+        <v>22.563021368499481</v>
+      </c>
+      <c r="P29" s="25">
+        <f>'Resistencia al corte'!H36</f>
+        <v>54.566703904807682</v>
+      </c>
+      <c r="Q29" s="44">
+        <f>'Resistencia al corte'!I36</f>
+        <v>5.6426398145465091E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F30" s="6" t="str">
+        <f>'Resistencia al corte'!A37</f>
+        <v>M13X</v>
+      </c>
+      <c r="G30" s="25">
+        <f>'Resistencia al corte'!B37</f>
+        <v>1.6707000000000001</v>
+      </c>
+      <c r="H30" s="25">
+        <f>'Resistencia al corte'!C37</f>
+        <v>1.1577999999999999</v>
+      </c>
+      <c r="I30" s="6">
+        <f>'Resistencia al corte'!D37</f>
+        <v>3.3</v>
+      </c>
+      <c r="J30" s="25">
+        <f>'Resistencia al corte'!E37</f>
+        <v>3.616233766233766</v>
+      </c>
+      <c r="K30" s="25">
+        <f>'Resistencia al corte'!F37</f>
+        <v>0.21000088875829584</v>
+      </c>
+      <c r="N30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M13X</v>
+      </c>
+      <c r="O30" s="25">
+        <f>'Resistencia al corte'!G37</f>
+        <v>26.109992001175343</v>
+      </c>
+      <c r="P30" s="25">
+        <f>'Resistencia al corte'!H37</f>
+        <v>60.465170068550734</v>
+      </c>
+      <c r="Q30" s="44">
+        <f>'Resistencia al corte'!I37</f>
+        <v>2.3399159663865549E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F31" s="6" t="str">
+        <f>'Resistencia al corte'!A38</f>
+        <v>M14X</v>
+      </c>
+      <c r="G31" s="25">
+        <f>'Resistencia al corte'!B38</f>
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="H31" s="25">
+        <f>'Resistencia al corte'!C38</f>
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="I31" s="6">
+        <f>'Resistencia al corte'!D38</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J31" s="25">
+        <f>'Resistencia al corte'!E38</f>
+        <v>4.8418367346938771</v>
+      </c>
+      <c r="K31" s="25">
+        <f>'Resistencia al corte'!F38</f>
+        <v>0.73338476591901247</v>
+      </c>
+      <c r="N31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M14X</v>
+      </c>
+      <c r="O31" s="25">
+        <f>'Resistencia al corte'!G38</f>
+        <v>21.399537106728889</v>
+      </c>
+      <c r="P31" s="25">
+        <f>'Resistencia al corte'!H38</f>
+        <v>52.631877468163601</v>
+      </c>
+      <c r="Q31" s="44">
+        <f>'Resistencia al corte'!I38</f>
+        <v>3.1329531812725089E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F32" s="6" t="str">
+        <f>'Resistencia al corte'!A39</f>
+        <v>M15X</v>
+      </c>
+      <c r="G32" s="25">
+        <f>'Resistencia al corte'!B39</f>
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="H32" s="25">
+        <f>'Resistencia al corte'!C39</f>
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="I32" s="6">
+        <f>'Resistencia al corte'!D39</f>
+        <v>0.98</v>
+      </c>
+      <c r="J32" s="25">
+        <f>'Resistencia al corte'!E39</f>
+        <v>5.4190962099125359</v>
+      </c>
+      <c r="K32" s="25">
+        <f>'Resistencia al corte'!F39</f>
+        <v>0.67359290723686926</v>
+      </c>
+      <c r="N32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M15X</v>
+      </c>
+      <c r="O32" s="25">
+        <f>'Resistencia al corte'!G39</f>
+        <v>21.937663834868175</v>
+      </c>
+      <c r="P32" s="25">
+        <f>'Resistencia al corte'!H39</f>
+        <v>53.526760066991542</v>
+      </c>
+      <c r="Q32" s="44">
+        <f>'Resistencia al corte'!I39</f>
+        <v>3.5064740181787004E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F33" s="6" t="str">
+        <f>'Resistencia al corte'!A40</f>
+        <v>M16X</v>
+      </c>
+      <c r="G33" s="25">
+        <f>'Resistencia al corte'!B40</f>
+        <v>1.3024</v>
+      </c>
+      <c r="H33" s="25">
+        <f>'Resistencia al corte'!C40</f>
+        <v>1.2633000000000001</v>
+      </c>
+      <c r="I33" s="6">
+        <f>'Resistencia al corte'!D40</f>
+        <v>3.3</v>
+      </c>
+      <c r="J33" s="25">
+        <f>'Resistencia al corte'!E40</f>
+        <v>2.8190476190476188</v>
+      </c>
+      <c r="K33" s="25">
+        <f>'Resistencia al corte'!F40</f>
+        <v>0.29393287916015193</v>
+      </c>
+      <c r="N33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M16X</v>
+      </c>
+      <c r="O33" s="25">
+        <f>'Resistencia al corte'!G40</f>
+        <v>25.354604087558634</v>
+      </c>
+      <c r="P33" s="25">
+        <f>'Resistencia al corte'!H40</f>
+        <v>59.208991061055748</v>
+      </c>
+      <c r="Q33" s="44">
+        <f>'Resistencia al corte'!I40</f>
+        <v>1.8240896358543419E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F34" s="6" t="str">
+        <f>'Resistencia al corte'!A41</f>
+        <v>M17X</v>
+      </c>
+      <c r="G34" s="25">
+        <f>'Resistencia al corte'!B41</f>
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="H34" s="25">
+        <f>'Resistencia al corte'!C41</f>
+        <v>0.44369999999999998</v>
+      </c>
+      <c r="I34" s="6">
+        <f>'Resistencia al corte'!D41</f>
+        <v>0.97</v>
+      </c>
+      <c r="J34" s="25">
+        <f>'Resistencia al corte'!E41</f>
+        <v>4.9315169366715752</v>
+      </c>
+      <c r="K34" s="25">
+        <f>'Resistencia al corte'!F41</f>
+        <v>0.68302625117570726</v>
+      </c>
+      <c r="N34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M17X</v>
+      </c>
+      <c r="O34" s="25">
+        <f>'Resistencia al corte'!G41</f>
+        <v>21.852763739418634</v>
+      </c>
+      <c r="P34" s="25">
+        <f>'Resistencia al corte'!H41</f>
+        <v>53.38557470286861</v>
+      </c>
+      <c r="Q34" s="44">
+        <f>'Resistencia al corte'!I41</f>
+        <v>3.1909815472580788E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F35" s="6" t="str">
+        <f>'Resistencia al corte'!A42</f>
+        <v>M18X</v>
+      </c>
+      <c r="G35" s="25">
+        <f>'Resistencia al corte'!B42</f>
+        <v>1.4371</v>
+      </c>
+      <c r="H35" s="25">
+        <f>'Resistencia al corte'!C42</f>
+        <v>2.4371</v>
+      </c>
+      <c r="I35" s="6">
+        <f>'Resistencia al corte'!D42</f>
+        <v>3.22</v>
+      </c>
+      <c r="J35" s="25">
+        <f>'Resistencia al corte'!E42</f>
+        <v>3.1878881987577636</v>
+      </c>
+      <c r="K35" s="25">
+        <f>'Resistencia al corte'!F42</f>
+        <v>0.52666018651260671</v>
+      </c>
+      <c r="N35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M18X</v>
+      </c>
+      <c r="O35" s="25">
+        <f>'Resistencia al corte'!G42</f>
+        <v>23.260058321386541</v>
+      </c>
+      <c r="P35" s="25">
+        <f>'Resistencia al corte'!H42</f>
+        <v>55.72584766641846</v>
+      </c>
+      <c r="Q35" s="44">
+        <f>'Resistencia al corte'!I42</f>
+        <v>2.0627511874314947E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F36" s="6" t="str">
+        <f>'Resistencia al corte'!A43</f>
+        <v>M19X</v>
+      </c>
+      <c r="G36" s="25">
+        <f>'Resistencia al corte'!B43</f>
+        <v>1.1617999999999999</v>
+      </c>
+      <c r="H36" s="25">
+        <f>'Resistencia al corte'!C43</f>
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="I36" s="6">
+        <f>'Resistencia al corte'!D43</f>
+        <v>1.64</v>
+      </c>
+      <c r="J36" s="25">
+        <f>'Resistencia al corte'!E43</f>
+        <v>5.0601045296167237</v>
+      </c>
+      <c r="K36" s="25">
+        <f>'Resistencia al corte'!F43</f>
+        <v>0.40806108267658686</v>
+      </c>
+      <c r="N36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M19X</v>
+      </c>
+      <c r="O36" s="25">
+        <f>'Resistencia al corte'!G43</f>
+        <v>24.327450255910719</v>
+      </c>
+      <c r="P36" s="25">
+        <f>'Resistencia al corte'!H43</f>
+        <v>57.50087651814971</v>
+      </c>
+      <c r="Q36" s="44">
+        <f>'Resistencia al corte'!I43</f>
+        <v>3.2741852838696461E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F37" s="6" t="str">
+        <f>'Resistencia al corte'!A44</f>
+        <v>M20X</v>
+      </c>
+      <c r="G37" s="25">
+        <f>'Resistencia al corte'!B44</f>
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="H37" s="25">
+        <f>'Resistencia al corte'!C44</f>
+        <v>0.1595</v>
+      </c>
+      <c r="I37" s="6">
+        <f>'Resistencia al corte'!D44</f>
+        <v>0.37</v>
+      </c>
+      <c r="J37" s="25">
+        <f>'Resistencia al corte'!E44</f>
+        <v>4.6389961389961387</v>
+      </c>
+      <c r="K37" s="25">
+        <f>'Resistencia al corte'!F44</f>
+        <v>1.7939287602208951</v>
+      </c>
+      <c r="N37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>M20X</v>
+      </c>
+      <c r="O37" s="25">
+        <f>'Resistencia al corte'!G44</f>
+        <v>19</v>
+      </c>
+      <c r="P37" s="25">
+        <f>'Resistencia al corte'!H44</f>
+        <v>48.641546028061242</v>
+      </c>
+      <c r="Q37" s="44">
+        <f>'Resistencia al corte'!I44</f>
+        <v>3.001703384056325E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="36" t="str">
+        <f>'Resistencia al corte'!A45</f>
+        <v>M21X</v>
+      </c>
+      <c r="G38" s="34">
+        <f>'Resistencia al corte'!B45</f>
+        <v>1.9393</v>
+      </c>
+      <c r="H38" s="34">
+        <f>'Resistencia al corte'!C45</f>
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="I38" s="36">
+        <f>'Resistencia al corte'!D45</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J38" s="34">
+        <f>'Resistencia al corte'!E45</f>
+        <v>2.7161064425770305</v>
+      </c>
+      <c r="K38" s="34">
+        <f>'Resistencia al corte'!F45</f>
+        <v>0.20403561826937755</v>
+      </c>
+      <c r="N38" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>M21X</v>
+      </c>
+      <c r="O38" s="34">
+        <f>'Resistencia al corte'!G45</f>
+        <v>26.163679435575602</v>
+      </c>
+      <c r="P38" s="34">
+        <f>'Resistencia al corte'!H45</f>
+        <v>60.554450062106589</v>
+      </c>
+      <c r="Q38" s="45">
+        <f>'Resistencia al corte'!I45</f>
+        <v>1.7574806393145495E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3654,13 +4972,13 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7">
         <v>1.8</v>
@@ -3668,7 +4986,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
         <v>0.14000000000000001</v>
@@ -3676,7 +4994,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7">
         <v>1.04</v>
@@ -3684,7 +5002,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
@@ -3692,13 +5010,13 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>2.5</v>
@@ -3706,7 +5024,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7">
         <v>0.14000000000000001</v>
@@ -3714,7 +5032,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7">
         <v>0.12</v>
@@ -3722,7 +5040,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7">
         <v>10.49</v>
@@ -3730,7 +5048,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7">
         <f>C3*C4*C5*1000</f>
@@ -3739,7 +5057,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7">
         <f>C9*C10*C11*1000</f>
@@ -3748,7 +5066,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C17" s="10">
         <f>C15+C16+'Solicitacion cercha madera'!C27*'Solicitacion cercha madera'!C10/'Solicitación timpano'!C6</f>
@@ -3757,7 +5075,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7">
         <f>'Solicitacion cercha madera'!F22/2*5/C6</f>
@@ -3795,7 +5113,7 @@
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C2" s="27"/>
       <c r="E2" s="11"/>
@@ -3812,7 +5130,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7">
         <v>550</v>
@@ -3831,7 +5149,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7">
         <v>100</v>
@@ -3850,7 +5168,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7">
         <v>50</v>
@@ -3897,7 +5215,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0.157</v>
@@ -3929,7 +5247,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -3948,7 +5266,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>8.5399999999999991</v>
@@ -3967,7 +5285,7 @@
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <f>C11*C5/1000*C4/1000</f>
@@ -3987,7 +5305,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C14" s="23">
         <v>4</v>
@@ -3995,7 +5313,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7">
         <f>C11/10</f>
@@ -4004,7 +5322,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <f>C15*C5/1000*C4/1000</f>
@@ -4018,11 +5336,11 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="27" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C19" s="27"/>
       <c r="E19" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F19" s="25">
         <f>8.4/5*10/6</f>
@@ -4035,7 +5353,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
         <f>C3*C8/2</f>
@@ -4048,7 +5366,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C21" s="24">
         <f>$C$16*$C$3*2*5/2</f>
@@ -4057,14 +5375,14 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C22" s="24">
         <f>C16*C3*5/2</f>
         <v>5.871249999999999</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F22" s="24">
         <f>F19*100</f>
@@ -4073,13 +5391,13 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C25" s="27"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C26" s="24">
         <f>C20+C21</f>
@@ -4088,7 +5406,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C27" s="24">
         <f>C22</f>
@@ -4097,7 +5415,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C28" s="24">
         <f>+F22*6/2</f>

--- a/Tarea 03/diseño corte.xlsx
+++ b/Tarea 03/diseño corte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Google Drive (ignacio.yanez.g@ug.uchile.cl)\Universidad\Semestre 12 Primavera 2018\proyecto albañilería\proyecto-CI5223\Tarea 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1454E1A2-35E1-4CAD-BAD8-CB6A745CDB38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5BF50-B492-4A40-926B-CB1F39E3BAB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="4596" activeTab="2" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>hiladas</t>
   </si>
   <si>
-    <t>N hiladas</t>
-  </si>
-  <si>
     <t>Caso 1: Sin considerar armadura de corte</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>$F_s$ $ (tonf/m^2)$</t>
+  </si>
+  <si>
+    <t>N° max hiladas</t>
   </si>
 </sst>
 </file>
@@ -344,8 +344,8 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="0.00000"/>
-    <numFmt numFmtId="183" formatCode="0.E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -588,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -659,20 +659,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -707,13 +701,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,721 +1229,721 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB47D0-9384-4CB5-BDAA-4D65CDC8E969}">
   <dimension ref="B3:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="41" t="s">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="37">
+        <v>5.6184000000000003</v>
+      </c>
+      <c r="D5" s="37">
+        <v>1.6125</v>
+      </c>
+      <c r="E5" s="37">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G5" s="37">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="39">
-        <v>5.6189</v>
-      </c>
-      <c r="D5" s="39">
-        <v>1.6123000000000001</v>
-      </c>
-      <c r="E5" s="39">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0.10780000000000001</v>
-      </c>
-      <c r="G5" s="39">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1.8597999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="C6" s="37">
+        <v>3.9237000000000002</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="E6" s="37">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="F6" s="37">
+        <v>2.53E-2</v>
+      </c>
+      <c r="G6" s="37">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0.61280000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="39">
-        <v>3.9243999999999999</v>
-      </c>
-      <c r="D6" s="39">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="E6" s="39">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="F6" s="39">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="G6" s="39">
+      <c r="C7" s="37">
+        <v>6.1516999999999999</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1.6083000000000001</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.1255</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.1246</v>
+      </c>
+      <c r="G7" s="37">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1.9033</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="37">
+        <v>4.5664999999999996</v>
+      </c>
+      <c r="D8" s="37">
+        <v>1.6177999999999999</v>
+      </c>
+      <c r="E8" s="37">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.1226</v>
+      </c>
+      <c r="G8" s="37">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H8" s="37">
+        <v>2.569</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="37">
+        <v>5.4017999999999997</v>
+      </c>
+      <c r="D9" s="37">
+        <v>1.4974000000000001</v>
+      </c>
+      <c r="E9" s="37">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="G9" s="37">
+        <v>9.64E-2</v>
+      </c>
+      <c r="H9" s="37">
+        <v>2.7555999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="37">
+        <v>5.4911000000000003</v>
+      </c>
+      <c r="D10" s="37">
+        <v>1.917</v>
+      </c>
+      <c r="E10" s="37">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="37">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H10" s="37">
+        <v>2.0173999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="37">
+        <v>3.0482</v>
+      </c>
+      <c r="D11" s="37">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="E11" s="37">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="37">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0.82750000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="37">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="D12" s="37">
+        <v>1.9681</v>
+      </c>
+      <c r="E12" s="37">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="F12" s="37">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="H12" s="37">
+        <v>1.9935</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="37">
+        <v>3.8298999999999999</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1.5018</v>
+      </c>
+      <c r="E13" s="37">
+        <v>1.43E-2</v>
+      </c>
+      <c r="F13" s="37">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1.34E-2</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="37">
+        <v>2.0876999999999999</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="E14" s="37">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="F14" s="37">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G14" s="37">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0.59660000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="37">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="E15" s="37">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F15" s="37">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G15" s="37">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="37">
+        <v>2.4051</v>
+      </c>
+      <c r="D16" s="37">
+        <v>1.4286000000000001</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.1091</v>
+      </c>
+      <c r="F16" s="37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G16" s="37">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="H16" s="37">
+        <v>1.3162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="37">
+        <v>5.8371000000000004</v>
+      </c>
+      <c r="D17" s="37">
+        <v>1.7826</v>
+      </c>
+      <c r="E17" s="37">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="F17" s="37">
+        <v>7.85E-2</v>
+      </c>
+      <c r="G17" s="37">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="H17" s="37">
+        <v>2.2801</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="37">
+        <v>1.8027</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="E18" s="37">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="F18" s="37">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G18" s="37">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0.43859999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="37">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="D19" s="37">
+        <v>1.0139</v>
+      </c>
+      <c r="E19" s="37">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="F19" s="37">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0.79559999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="37">
+        <v>3.8689</v>
+      </c>
+      <c r="D20" s="37">
+        <v>1.8532999999999999</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.1285</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="H20" s="37">
+        <v>1.5742</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="37">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="E21" s="37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="37">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G21" s="37">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="37">
+        <v>2.8378999999999999</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1.3105</v>
+      </c>
+      <c r="E22" s="37">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F22" s="37">
+        <v>2.76E-2</v>
+      </c>
+      <c r="G22" s="37">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="H22" s="37">
+        <v>1.6105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="37">
+        <v>3.5465</v>
+      </c>
+      <c r="D23" s="37">
+        <v>1.5612999999999999</v>
+      </c>
+      <c r="E23" s="37">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.1043</v>
+      </c>
+      <c r="G23" s="37">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="H23" s="37">
+        <v>2.3283</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="37">
+        <v>3.7892999999999999</v>
+      </c>
+      <c r="D24" s="37">
+        <v>2.8311000000000002</v>
+      </c>
+      <c r="E24" s="37">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F24" s="37">
+        <v>2.06E-2</v>
+      </c>
+      <c r="G24" s="37">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H24" s="37">
+        <v>3.9679000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="37">
+        <v>3.7989000000000002</v>
+      </c>
+      <c r="D25" s="37">
+        <v>1.6698999999999999</v>
+      </c>
+      <c r="E25" s="37">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F25" s="37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="37">
+        <v>1.34E-2</v>
+      </c>
+      <c r="H25" s="37">
+        <v>1.1573</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="37">
+        <v>2.1093999999999999</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="E26" s="37">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="G26" s="37">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0.62339999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="37">
+        <v>1.8062</v>
+      </c>
+      <c r="D27" s="37">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="E27" s="37">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F27" s="37">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="G27" s="37">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="H27" s="37">
+        <v>0.49059999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="37">
+        <v>2.4131999999999998</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1.3017000000000001</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="F28" s="37">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="G28" s="37">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H28" s="37">
+        <v>1.2627999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="37">
+        <v>1.909</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0.6694</v>
+      </c>
+      <c r="E29" s="37">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F29" s="37">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="G29" s="37">
+        <v>6.3E-3</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0.44350000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="37">
+        <v>4.38</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1.4365000000000001</v>
+      </c>
+      <c r="E30" s="37">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F30" s="37">
+        <v>0.1124</v>
+      </c>
+      <c r="G30" s="37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="37">
+        <v>2.4363999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="37">
+        <v>3.0326</v>
+      </c>
+      <c r="D31" s="37">
+        <v>1.1612</v>
+      </c>
+      <c r="E31" s="37">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F31" s="37">
         <v>2.87E-2</v>
       </c>
-      <c r="H6" s="39">
-        <v>0.61270000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="39">
-        <v>6.1524000000000001</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1.6081000000000001</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.1255</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0.1246</v>
-      </c>
-      <c r="G7" s="39">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="H7" s="39">
-        <v>1.9031</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="39">
-        <v>4.5667999999999997</v>
-      </c>
-      <c r="D8" s="39">
-        <v>1.6175999999999999</v>
-      </c>
-      <c r="E8" s="39">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="F8" s="39">
-        <v>0.1227</v>
-      </c>
-      <c r="G8" s="39">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H8" s="39">
-        <v>2.5688</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="39">
-        <v>5.4020999999999999</v>
-      </c>
-      <c r="D9" s="39">
-        <v>1.4973000000000001</v>
-      </c>
-      <c r="E9" s="39">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0.12</v>
-      </c>
-      <c r="G9" s="39">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="H9" s="39">
-        <v>2.7553000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="39">
-        <v>5.4909999999999997</v>
-      </c>
-      <c r="D10" s="39">
-        <v>1.9168000000000001</v>
-      </c>
-      <c r="E10" s="39">
-        <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="F10" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="39">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="H10" s="39">
+      <c r="G31" s="37">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.77729999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="37">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="D32" s="37">
+        <v>0.2402</v>
+      </c>
+      <c r="E32" s="37">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="G32" s="37">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="H32" s="37">
+        <v>0.15939999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="37">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="D33" s="37">
+        <v>1.9382999999999999</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="F33" s="37">
+        <v>0.1235</v>
+      </c>
+      <c r="G33" s="37">
+        <v>0.1812</v>
+      </c>
+      <c r="H33" s="37">
         <v>2.0171999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="39">
-        <v>3.0482</v>
-      </c>
-      <c r="D11" s="39">
-        <v>1.1177999999999999</v>
-      </c>
-      <c r="E11" s="39">
-        <v>4.41E-2</v>
-      </c>
-      <c r="F11" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="G11" s="39">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="H11" s="39">
-        <v>0.82740000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="39">
-        <v>5.4813000000000001</v>
-      </c>
-      <c r="D12" s="39">
-        <v>1.9679</v>
-      </c>
-      <c r="E12" s="39">
-        <v>9.5200000000000007E-2</v>
-      </c>
-      <c r="F12" s="39">
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="G12" s="39">
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="H12" s="39">
-        <v>1.9932000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="39">
-        <v>3.8298000000000001</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1.5024999999999999</v>
-      </c>
-      <c r="E13" s="39">
-        <v>1.43E-2</v>
-      </c>
-      <c r="F13" s="39">
-        <v>5.3E-3</v>
-      </c>
-      <c r="G13" s="39">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="H13" s="39">
-        <v>1.0904</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="39">
-        <v>2.0876999999999999</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0.70140000000000002</v>
-      </c>
-      <c r="E14" s="39">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="F14" s="39">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G14" s="39">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="H14" s="39">
-        <v>0.5968</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="39">
-        <v>1.8138000000000001</v>
-      </c>
-      <c r="D15" s="39">
-        <v>0.73409999999999997</v>
-      </c>
-      <c r="E15" s="39">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="F15" s="39">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="G15" s="39">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="H15" s="39">
-        <v>0.48699999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="39">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="D16" s="39">
-        <v>1.4292</v>
-      </c>
-      <c r="E16" s="39">
-        <v>0.1091</v>
-      </c>
-      <c r="F16" s="39">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G16" s="39">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="H16" s="39">
-        <v>1.3167</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="39">
-        <v>5.8376000000000001</v>
-      </c>
-      <c r="D17" s="39">
-        <v>1.7835000000000001</v>
-      </c>
-      <c r="E17" s="39">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="F17" s="39">
-        <v>7.85E-2</v>
-      </c>
-      <c r="G17" s="39">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="H17" s="39">
-        <v>2.2806999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="39">
-        <v>1.8027</v>
-      </c>
-      <c r="D18" s="39">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="E18" s="39">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="F18" s="39">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="G18" s="39">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="H18" s="39">
-        <v>0.43880000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="39">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="D19" s="39">
-        <v>1.0144</v>
-      </c>
-      <c r="E19" s="39">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="F19" s="39">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="G19" s="39">
-        <v>0.06</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0.79590000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="39">
-        <v>3.8689</v>
-      </c>
-      <c r="D20" s="39">
-        <v>1.8542000000000001</v>
-      </c>
-      <c r="E20" s="39">
-        <v>0.1603</v>
-      </c>
-      <c r="F20" s="39">
-        <v>0.12859999999999999</v>
-      </c>
-      <c r="G20" s="39">
-        <v>0.13339999999999999</v>
-      </c>
-      <c r="H20" s="39">
-        <v>1.5748</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="39">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="D21" s="39">
-        <v>0.121</v>
-      </c>
-      <c r="E21" s="39">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F21" s="39">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="G21" s="39">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="H21" s="39">
-        <v>0.1002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="39">
-        <v>2.8382000000000001</v>
-      </c>
-      <c r="D22" s="39">
-        <v>1.3111999999999999</v>
-      </c>
-      <c r="E22" s="39">
-        <v>3.56E-2</v>
-      </c>
-      <c r="F22" s="39">
-        <v>2.76E-2</v>
-      </c>
-      <c r="G22" s="39">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="H22" s="39">
-        <v>1.6113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="39">
-        <v>3.5468999999999999</v>
-      </c>
-      <c r="D23" s="39">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="E23" s="39">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="F23" s="39">
-        <v>0.1043</v>
-      </c>
-      <c r="G23" s="39">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="H23" s="39">
-        <v>2.3294999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="39">
-        <v>3.7900999999999998</v>
-      </c>
-      <c r="D24" s="39">
-        <v>2.8323999999999998</v>
-      </c>
-      <c r="E24" s="39">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="F24" s="39">
-        <v>2.06E-2</v>
-      </c>
-      <c r="G24" s="39">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="H24" s="39">
-        <v>3.9697</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="39">
-        <v>3.7988</v>
-      </c>
-      <c r="D25" s="39">
-        <v>1.6707000000000001</v>
-      </c>
-      <c r="E25" s="39">
-        <v>1.44E-2</v>
-      </c>
-      <c r="F25" s="39">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G25" s="39">
-        <v>1.34E-2</v>
-      </c>
-      <c r="H25" s="39">
-        <v>1.1577999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="39">
-        <v>2.1093999999999999</v>
-      </c>
-      <c r="D26" s="39">
-        <v>0.75919999999999999</v>
-      </c>
-      <c r="E26" s="39">
-        <v>2.12E-2</v>
-      </c>
-      <c r="F26" s="39">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="G26" s="39">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0.62360000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="39">
-        <v>1.8062</v>
-      </c>
-      <c r="D27" s="39">
-        <v>0.74350000000000005</v>
-      </c>
-      <c r="E27" s="39">
-        <v>2.12E-2</v>
-      </c>
-      <c r="F27" s="39">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="G27" s="39">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="H27" s="39">
-        <v>0.49080000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="39">
-        <v>2.4131999999999998</v>
-      </c>
-      <c r="D28" s="39">
-        <v>1.3024</v>
-      </c>
-      <c r="E28" s="39">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="F28" s="39">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="G28" s="39">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="H28" s="39">
-        <v>1.2633000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="39">
-        <v>1.9093</v>
-      </c>
-      <c r="D29" s="39">
-        <v>0.66969999999999996</v>
-      </c>
-      <c r="E29" s="39">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="F29" s="39">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="G29" s="39">
-        <v>6.3E-3</v>
-      </c>
-      <c r="H29" s="39">
-        <v>0.44369999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="39">
-        <v>4.38</v>
-      </c>
-      <c r="D30" s="39">
-        <v>1.4371</v>
-      </c>
-      <c r="E30" s="39">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="F30" s="39">
-        <v>0.1124</v>
-      </c>
-      <c r="G30" s="39">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H30" s="39">
-        <v>2.4371</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="39">
-        <v>3.0327000000000002</v>
-      </c>
-      <c r="D31" s="39">
-        <v>1.1617999999999999</v>
-      </c>
-      <c r="E31" s="39">
-        <v>6.59E-2</v>
-      </c>
-      <c r="F31" s="39">
-        <v>2.87E-2</v>
-      </c>
-      <c r="G31" s="39">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="H31" s="39">
-        <v>0.77749999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="39">
-        <v>0.81130000000000002</v>
-      </c>
-      <c r="D32" s="39">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="E32" s="39">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="F32" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="G32" s="39">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="H32" s="39">
-        <v>0.1595</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="39">
-        <v>3.8149000000000002</v>
-      </c>
-      <c r="D33" s="39">
-        <v>1.9393</v>
-      </c>
-      <c r="E33" s="39">
-        <v>0.20610000000000001</v>
-      </c>
-      <c r="F33" s="39">
-        <v>0.1235</v>
-      </c>
-      <c r="G33" s="39">
-        <v>0.1812</v>
-      </c>
-      <c r="H33" s="39">
-        <v>2.0179999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1952,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DECA69-FFD3-42FF-AF12-189361EB5B99}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1966,12 +1969,13 @@
     <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="39"/>
+    <col min="11" max="11" width="11.44140625" style="37"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="22">
         <v>14</v>
@@ -1979,7 +1983,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="22">
         <v>0.14000000000000001</v>
@@ -1987,7 +1991,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="22">
         <v>17000</v>
@@ -1995,22 +1999,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="31">
+        <v>94</v>
+      </c>
+      <c r="B4" s="29">
         <f>0.0000139*2</f>
         <v>2.7800000000000001E-5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="30">
+        <v>76</v>
+      </c>
+      <c r="F4" s="28">
         <v>1.3900000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="22">
         <v>0.104</v>
@@ -2021,18 +2025,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H7" s="32">
+      <c r="H7" s="30">
         <v>457537853737373</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
         <f>MIN(0.13*SQRT(B1),0.28)</f>
@@ -2041,7 +2045,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
         <f>MIN(0.06*SQRT(B1),0.19)</f>
@@ -2050,12 +2054,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3">
         <f>MIN(0.17*SQRT(B1),0.84)</f>
@@ -2064,7 +2068,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3">
         <f>MIN(0.13*SQRT(B1),0.52)</f>
@@ -2076,80 +2080,80 @@
         <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="str">
+      <c r="A17" s="27" t="str">
         <f>'Resultados por pier'!B5</f>
         <v>M1Y</v>
       </c>
       <c r="B17" s="24">
         <f>'Resultados por pier'!D5</f>
-        <v>1.6123000000000001</v>
+        <v>1.6125</v>
       </c>
       <c r="C17" s="24">
         <f>'Resultados por pier'!H5</f>
-        <v>1.8597999999999999</v>
-      </c>
-      <c r="D17" s="29">
+        <v>1.86</v>
+      </c>
+      <c r="D17" s="27">
         <v>3.9</v>
       </c>
       <c r="E17" s="24">
         <f>ABS(B17/D17/$B$2)</f>
-        <v>2.9529304029304027</v>
+        <v>2.953296703296703</v>
       </c>
       <c r="F17" s="24">
         <f>C17/(B17*D17)</f>
-        <v>0.29577113122359039</v>
+        <v>0.29576624925462136</v>
       </c>
       <c r="G17" s="8">
         <f>100*IF(F17&gt;=1,$B$10,($B$10-$B$9)*(F17)+$B$9)</f>
-        <v>25.338059818987691</v>
+        <v>25.338103756708406</v>
       </c>
       <c r="H17" s="8">
         <f>100*IF(F17&gt;=1,$B$13,($B$13-$B$12)*(F17)+$B$12)</f>
-        <v>59.181478623408083</v>
+        <v>59.181551690029096</v>
       </c>
       <c r="I17" s="9">
         <f>IF(H17&lt;=E17,"agregar mas muros",IF(H17&lt;=G17,0.0006,1.1*ABS(B17)/($B$3*$B$2*D17)))</f>
-        <v>1.9107196724843785E-4</v>
-      </c>
-      <c r="J17" s="28">
+        <v>1.9109566903684552E-4</v>
+      </c>
+      <c r="J17" s="26">
         <f>$B$4/(I17*$B$2*$B$5)</f>
-        <v>9.9927827552959343</v>
-      </c>
-      <c r="K17" s="38">
+        <v>9.9915433403805487</v>
+      </c>
+      <c r="K17" s="36">
         <f>ROUNDUP(J17,0)</f>
         <v>10</v>
       </c>
@@ -2159,46 +2163,46 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="str">
+      <c r="A18" s="27" t="str">
         <f>'Resultados por pier'!B6</f>
         <v>M2Y</v>
       </c>
       <c r="B18" s="24">
         <f>'Resultados por pier'!D6</f>
-        <v>0.89359999999999995</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="C18" s="24">
         <f>'Resultados por pier'!H6</f>
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="D18" s="29">
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="D18" s="27">
         <v>2.25</v>
       </c>
       <c r="E18" s="24">
-        <f t="shared" ref="E18:E31" si="0">ABS(B18/D18/$B$2)</f>
-        <v>2.8368253968253963</v>
+        <f t="shared" ref="E18:E30" si="0">ABS(B18/D18/$B$2)</f>
+        <v>2.8374603174603172</v>
       </c>
       <c r="F18" s="24">
         <f t="shared" ref="F18:F31" si="1">C18/(B18*D18)</f>
-        <v>0.3047349050034816</v>
+        <v>0.30471644165982947</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" ref="G18:G31" si="2">100*IF(F18&gt;=1,$B$10,($B$10-$B$9)*(F18)+$B$9)</f>
-        <v>25.257385854968668</v>
+        <v>25.257552025061536</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" ref="H18:H31" si="3">100*IF(F18&gt;=1,$B$13,($B$13-$B$12)*(F18)+$B$12)</f>
-        <v>59.047321141900476</v>
+        <v>59.047597475925116</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" ref="I18:I31" si="4">IF(H18&lt;=E18,"agregar mas muros",IF(H18&lt;=G18,0.0006,1.1*ABS(B18)/($B$3*$B$2*D18)))</f>
-        <v>1.8355929038281981E-4</v>
-      </c>
-      <c r="J18" s="28">
+        <v>1.8360037348272645E-4</v>
+      </c>
+      <c r="J18" s="26">
         <f t="shared" ref="J18:J31" si="5">$B$4/(I18*$B$2*$B$5)</f>
-        <v>10.401765311680261</v>
-      </c>
-      <c r="K18" s="38">
+        <v>10.399437774130098</v>
+      </c>
+      <c r="K18" s="36">
         <f t="shared" ref="K18:K45" si="6">ROUNDUP(J18,0)</f>
         <v>11</v>
       </c>
@@ -2208,46 +2212,46 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="str">
+      <c r="A19" s="27" t="str">
         <f>'Resultados por pier'!B7</f>
         <v>M3Y</v>
       </c>
       <c r="B19" s="24">
         <f>'Resultados por pier'!D7</f>
-        <v>1.6081000000000001</v>
+        <v>1.6083000000000001</v>
       </c>
       <c r="C19" s="24">
         <f>'Resultados por pier'!H7</f>
-        <v>1.9031</v>
-      </c>
-      <c r="D19" s="29">
+        <v>1.9033</v>
+      </c>
+      <c r="D19" s="27">
         <v>3.9</v>
       </c>
       <c r="E19" s="24">
         <f t="shared" si="0"/>
-        <v>2.9452380952380954</v>
+        <v>2.9456043956043954</v>
       </c>
       <c r="F19" s="24">
         <f t="shared" si="1"/>
-        <v>0.30344777002323176</v>
+        <v>0.30344192067751102</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="2"/>
-        <v>25.268970069790914</v>
+        <v>25.269022713902402</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="3"/>
-        <v>59.066585214326984</v>
+        <v>59.066672759317484</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="4"/>
-        <v>1.9057422969187676E-4</v>
-      </c>
-      <c r="J19" s="28">
+        <v>1.9059793148028446E-4</v>
+      </c>
+      <c r="J19" s="26">
         <f t="shared" si="5"/>
-        <v>10.018881684201006</v>
-      </c>
-      <c r="K19" s="38">
+        <v>10.017635787081783</v>
+      </c>
+      <c r="K19" s="36">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -2257,46 +2261,46 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="str">
+      <c r="A20" s="27" t="str">
         <f>'Resultados por pier'!B8</f>
         <v>M4Y</v>
       </c>
       <c r="B20" s="24">
         <f>'Resultados por pier'!D8</f>
-        <v>1.6175999999999999</v>
+        <v>1.6177999999999999</v>
       </c>
       <c r="C20" s="24">
         <f>'Resultados por pier'!H8</f>
-        <v>2.5688</v>
-      </c>
-      <c r="D20" s="29">
+        <v>2.569</v>
+      </c>
+      <c r="D20" s="27">
         <v>3.9</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="0"/>
-        <v>2.9626373626373623</v>
+        <v>2.9630036630036627</v>
       </c>
       <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v>0.40718760303330037</v>
+        <v>0.40716896323275359</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="2"/>
-        <v>24.335311572700295</v>
+        <v>24.335479330905219</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="3"/>
-        <v>57.513949564387715</v>
+        <v>57.514228539377335</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="4"/>
-        <v>1.9170006464124111E-4</v>
-      </c>
-      <c r="J20" s="28">
+        <v>1.9172376642964878E-4</v>
+      </c>
+      <c r="J20" s="26">
         <f t="shared" si="5"/>
-        <v>9.9600418127866206</v>
-      </c>
-      <c r="K20" s="38">
+        <v>9.9588105058496943</v>
+      </c>
+      <c r="K20" s="36">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2306,46 +2310,46 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="str">
+      <c r="A21" s="27" t="str">
         <f>'Resultados por pier'!B9</f>
         <v>M5Y</v>
       </c>
       <c r="B21" s="24">
         <f>'Resultados por pier'!D9</f>
-        <v>1.4973000000000001</v>
+        <v>1.4974000000000001</v>
       </c>
       <c r="C21" s="24">
         <f>'Resultados por pier'!H9</f>
-        <v>2.7553000000000001</v>
-      </c>
-      <c r="D21" s="29">
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="D21" s="27">
         <v>3.9</v>
       </c>
       <c r="E21" s="24">
         <f t="shared" si="0"/>
-        <v>2.7423076923076923</v>
+        <v>2.7424908424908425</v>
       </c>
       <c r="F21" s="24">
         <f t="shared" si="1"/>
-        <v>0.47184076637092065</v>
+        <v>0.47186062679584784</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="2"/>
-        <v>23.753433102661713</v>
+        <v>23.753254358837374</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="3"/>
-        <v>56.546309619665678</v>
+        <v>56.546012376043144</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="4"/>
-        <v>1.7744343891402717E-4</v>
-      </c>
-      <c r="J21" s="28">
+        <v>1.7745528980823102E-4</v>
+      </c>
+      <c r="J21" s="26">
         <f t="shared" si="5"/>
-        <v>10.76027759057212</v>
-      </c>
-      <c r="K21" s="38">
+        <v>10.759558993163905</v>
+      </c>
+      <c r="K21" s="36">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -2355,46 +2359,46 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="str">
+      <c r="A22" s="27" t="str">
         <f>'Resultados por pier'!B10</f>
         <v>M6Y</v>
       </c>
       <c r="B22" s="24">
         <f>'Resultados por pier'!D10</f>
-        <v>1.9168000000000001</v>
+        <v>1.917</v>
       </c>
       <c r="C22" s="24">
         <f>'Resultados por pier'!H10</f>
-        <v>2.0171999999999999</v>
-      </c>
-      <c r="D22" s="29">
+        <v>2.0173999999999999</v>
+      </c>
+      <c r="D22" s="27">
         <v>3.9</v>
       </c>
       <c r="E22" s="24">
         <f t="shared" si="0"/>
-        <v>3.5106227106227106</v>
+        <v>3.5109890109890105</v>
       </c>
       <c r="F22" s="24">
         <f t="shared" si="1"/>
-        <v>0.269840760241428</v>
+        <v>0.26983935904123696</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="2"/>
-        <v>25.571433157827151</v>
+        <v>25.57144576862887</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="3"/>
-        <v>59.569568879916865</v>
+        <v>59.569589851161055</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="4"/>
-        <v>2.2715794009911658E-4</v>
-      </c>
-      <c r="J22" s="28">
+        <v>2.2718164188752427E-4</v>
+      </c>
+      <c r="J22" s="26">
         <f t="shared" si="5"/>
-        <v>8.4053441341629984</v>
-      </c>
-      <c r="K22" s="38">
+        <v>8.4044672072841067</v>
+      </c>
+      <c r="K22" s="36">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2404,46 +2408,46 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="str">
+      <c r="A23" s="27" t="str">
         <f>'Resultados por pier'!B11</f>
         <v>M7Y</v>
       </c>
       <c r="B23" s="24">
         <f>'Resultados por pier'!D11</f>
-        <v>1.1177999999999999</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="C23" s="24">
         <f>'Resultados por pier'!H11</f>
-        <v>0.82740000000000002</v>
-      </c>
-      <c r="D23" s="29">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="D23" s="27">
         <v>2.25</v>
       </c>
       <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>3.548571428571428</v>
+        <v>3.549206349206349</v>
       </c>
       <c r="F23" s="24">
         <f t="shared" si="1"/>
-        <v>0.32897954315023564</v>
+        <v>0.32896044523951495</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="2"/>
-        <v>25.039184111647884</v>
+        <v>25.039355992844371</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="3"/>
-        <v>58.684460624254633</v>
+        <v>58.684746455609506</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="4"/>
-        <v>2.2961344537815123E-4</v>
-      </c>
-      <c r="J23" s="28">
+        <v>2.2965452847805793E-4</v>
+      </c>
+      <c r="J23" s="26">
         <f t="shared" si="5"/>
-        <v>8.3154566850219034</v>
-      </c>
-      <c r="K23" s="38">
+        <v>8.3139691256864765</v>
+      </c>
+      <c r="K23" s="36">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2453,46 +2457,46 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="str">
+      <c r="A24" s="27" t="str">
         <f>'Resultados por pier'!B12</f>
         <v>M8Y</v>
       </c>
       <c r="B24" s="24">
         <f>'Resultados por pier'!D12</f>
-        <v>1.9679</v>
+        <v>1.9681</v>
       </c>
       <c r="C24" s="24">
         <f>'Resultados por pier'!H12</f>
-        <v>1.9932000000000001</v>
-      </c>
-      <c r="D24" s="29">
+        <v>1.9935</v>
+      </c>
+      <c r="D24" s="27">
         <v>3.9</v>
       </c>
       <c r="E24" s="24">
         <f t="shared" si="0"/>
-        <v>3.6042124542124543</v>
+        <v>3.6045787545787542</v>
       </c>
       <c r="F24" s="24">
         <f t="shared" si="1"/>
-        <v>0.25970675495549728</v>
+        <v>0.25971944827694027</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="2"/>
-        <v>25.662639205400527</v>
+        <v>25.662524965507536</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="3"/>
-        <v>59.721240782859709</v>
+        <v>59.721050806619949</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="4"/>
-        <v>2.3321374703727648E-4</v>
-      </c>
-      <c r="J24" s="28">
+        <v>2.3323744882568415E-4</v>
+      </c>
+      <c r="J24" s="26">
         <f t="shared" si="5"/>
-        <v>8.1870845248049378</v>
-      </c>
-      <c r="K24" s="38">
+        <v>8.1862525462952274</v>
+      </c>
+      <c r="K24" s="36">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2502,46 +2506,46 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="str">
+      <c r="A25" s="27" t="str">
         <f>'Resultados por pier'!B13</f>
         <v>M1X</v>
       </c>
       <c r="B25" s="24">
         <f>'Resultados por pier'!D13</f>
-        <v>1.5024999999999999</v>
+        <v>1.5018</v>
       </c>
       <c r="C25" s="24">
         <f>'Resultados por pier'!H13</f>
-        <v>1.0904</v>
-      </c>
-      <c r="D25" s="29">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D25" s="27">
         <v>3.3</v>
       </c>
       <c r="E25" s="24">
         <f t="shared" si="0"/>
-        <v>3.252164502164502</v>
+        <v>3.2506493506493506</v>
       </c>
       <c r="F25" s="24">
         <f t="shared" si="1"/>
-        <v>0.21991630111430446</v>
+        <v>0.21993809448863386</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="2"/>
-        <v>26.02075328997126</v>
+        <v>26.020557149602297</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="3"/>
-        <v>60.316769765011649</v>
+        <v>60.316443591651478</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="4"/>
-        <v>2.1043417366946782E-4</v>
-      </c>
-      <c r="J25" s="28">
+        <v>2.1033613445378154E-4</v>
+      </c>
+      <c r="J25" s="26">
         <f t="shared" si="5"/>
-        <v>9.0733393062843977</v>
-      </c>
-      <c r="K25" s="38">
+        <v>9.0775684563139603</v>
+      </c>
+      <c r="K25" s="36">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2551,46 +2555,46 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="str">
+      <c r="A26" s="27" t="str">
         <f>'Resultados por pier'!B14</f>
         <v>M2X</v>
       </c>
       <c r="B26" s="24">
         <f>'Resultados por pier'!D14</f>
-        <v>0.70140000000000002</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="C26" s="24">
         <f>'Resultados por pier'!H14</f>
-        <v>0.5968</v>
-      </c>
-      <c r="D26" s="29">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="D26" s="27">
         <v>1.1200000000000001</v>
       </c>
       <c r="E26" s="24">
         <f t="shared" si="0"/>
-        <v>4.4732142857142847</v>
+        <v>4.4713010204081618</v>
       </c>
       <c r="F26" s="24">
         <f t="shared" si="1"/>
-        <v>0.75970507963664491</v>
+        <v>0.75977545489740606</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="2"/>
-        <v>21.162654283270196</v>
+        <v>21.162020905923345</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="3"/>
-        <v>52.237951083188449</v>
+        <v>52.236897802731363</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="4"/>
-        <v>2.894432773109244E-4</v>
-      </c>
-      <c r="J26" s="28">
+        <v>2.8931947779111636E-4</v>
+      </c>
+      <c r="J26" s="26">
         <f t="shared" si="5"/>
-        <v>6.5965970157586931</v>
-      </c>
-      <c r="K26" s="38">
+        <v>6.5994196931295788</v>
+      </c>
+      <c r="K26" s="36">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -2600,46 +2604,46 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="str">
+      <c r="A27" s="27" t="str">
         <f>'Resultados por pier'!B15</f>
         <v>M3X</v>
       </c>
       <c r="B27" s="24">
         <f>'Resultados por pier'!D15</f>
-        <v>0.73409999999999997</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="C27" s="24">
         <f>'Resultados por pier'!H15</f>
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D27" s="29">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="D27" s="27">
         <v>0.98</v>
       </c>
       <c r="E27" s="24">
         <f t="shared" si="0"/>
-        <v>5.3505830903790077</v>
+        <v>5.3476676384839648</v>
       </c>
       <c r="F27" s="24">
         <f t="shared" si="1"/>
-        <v>0.67693607888598839</v>
+        <v>0.67702697816212487</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="2"/>
-        <v>21.907575290026106</v>
+        <v>21.906757196540877</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="3"/>
-        <v>53.47672405540682</v>
+        <v>53.475363599614788</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="4"/>
-        <v>3.4621419996570059E-4</v>
-      </c>
-      <c r="J27" s="28">
+        <v>3.4602555307837425E-4</v>
+      </c>
+      <c r="J27" s="26">
         <f t="shared" si="5"/>
-        <v>5.5149114609678564</v>
-      </c>
-      <c r="K27" s="38">
+        <v>5.5179180911769166</v>
+      </c>
+      <c r="K27" s="36">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -2649,46 +2653,46 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="str">
+      <c r="A28" s="27" t="str">
         <f>'Resultados por pier'!B16</f>
         <v>M4X</v>
       </c>
       <c r="B28" s="24">
         <f>'Resultados por pier'!D16</f>
-        <v>1.4292</v>
+        <v>1.4286000000000001</v>
       </c>
       <c r="C28" s="24">
         <f>'Resultados por pier'!H16</f>
-        <v>1.3167</v>
-      </c>
-      <c r="D28" s="29">
+        <v>1.3162</v>
+      </c>
+      <c r="D28" s="27">
         <v>3.3</v>
       </c>
       <c r="E28" s="24">
         <f t="shared" si="0"/>
-        <v>3.0935064935064935</v>
+        <v>3.0922077922077924</v>
       </c>
       <c r="F28" s="24">
         <f t="shared" si="1"/>
-        <v>0.27917716204869858</v>
+        <v>0.27918835562682687</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="2"/>
-        <v>25.487405541561714</v>
+        <v>25.487304799358562</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="3"/>
-        <v>59.429834412764613</v>
+        <v>59.429666882627465</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="4"/>
-        <v>2.0016806722689077E-4</v>
-      </c>
-      <c r="J28" s="28">
+        <v>2.0008403361344542E-4</v>
+      </c>
+      <c r="J28" s="26">
         <f t="shared" si="5"/>
-        <v>9.5386875928437629</v>
-      </c>
-      <c r="K28" s="38">
+        <v>9.5426937615093834</v>
+      </c>
+      <c r="K28" s="36">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2698,46 +2702,46 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="str">
+      <c r="A29" s="27" t="str">
         <f>'Resultados por pier'!B17</f>
         <v>M5X</v>
       </c>
       <c r="B29" s="24">
         <f>'Resultados por pier'!D17</f>
-        <v>1.7835000000000001</v>
+        <v>1.7826</v>
       </c>
       <c r="C29" s="24">
         <f>'Resultados por pier'!H17</f>
-        <v>2.2806999999999999</v>
-      </c>
-      <c r="D29" s="29">
+        <v>2.2801</v>
+      </c>
+      <c r="D29" s="27">
         <v>3.82</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="0"/>
-        <v>3.3348915482423336</v>
+        <v>3.3332086761406132</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="1"/>
-        <v>0.33475855610695482</v>
+        <v>0.33483945739589738</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="2"/>
-        <v>24.987172995037412</v>
+        <v>24.986444883436924</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="3"/>
-        <v>58.597968278183544</v>
+        <v>58.596757458562053</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="4"/>
-        <v>2.1578710018038631E-4</v>
-      </c>
-      <c r="J29" s="28">
+        <v>2.1567820845615733E-4</v>
+      </c>
+      <c r="J29" s="26">
         <f t="shared" si="5"/>
-        <v>8.8482613545691766</v>
-      </c>
-      <c r="K29" s="38">
+        <v>8.8527286692887497</v>
+      </c>
+      <c r="K29" s="36">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2747,46 +2751,46 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="str">
+      <c r="A30" s="27" t="str">
         <f>'Resultados por pier'!B18</f>
         <v>M6X</v>
       </c>
       <c r="B30" s="24">
         <f>'Resultados por pier'!D18</f>
-        <v>0.66049999999999998</v>
+        <v>0.66020000000000001</v>
       </c>
       <c r="C30" s="24">
         <f>'Resultados por pier'!H18</f>
-        <v>0.43880000000000002</v>
-      </c>
-      <c r="D30" s="29">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="D30" s="27">
         <v>0.98</v>
       </c>
       <c r="E30" s="24">
         <f t="shared" si="0"/>
-        <v>4.8141399416909616</v>
+        <v>4.8119533527696783</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="1"/>
-        <v>0.67790325819957065</v>
+        <v>0.67790218177546691</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="2"/>
-        <v>21.898870676203867</v>
+        <v>21.898880364020798</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="3"/>
-        <v>53.462248640914822</v>
+        <v>53.462264751355612</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="4"/>
-        <v>3.1150317269765048E-4</v>
-      </c>
-      <c r="J30" s="28">
+        <v>3.1136168753215574E-4</v>
+      </c>
+      <c r="J30" s="26">
         <f t="shared" si="5"/>
-        <v>6.129442094619991</v>
-      </c>
-      <c r="K30" s="38">
+        <v>6.1322273606429922</v>
+      </c>
+      <c r="K30" s="36">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -2796,46 +2800,46 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="str">
+      <c r="A31" s="27" t="str">
         <f>'Resultados por pier'!B19</f>
         <v>M7X</v>
       </c>
       <c r="B31" s="24">
         <f>'Resultados por pier'!D19</f>
-        <v>1.0144</v>
+        <v>1.0139</v>
       </c>
       <c r="C31" s="24">
         <f>'Resultados por pier'!H19</f>
-        <v>0.79590000000000005</v>
-      </c>
-      <c r="D31" s="29">
+        <v>0.79559999999999997</v>
+      </c>
+      <c r="D31" s="27">
         <v>1.64</v>
       </c>
       <c r="E31" s="24">
         <f>ABS(B31/D31/$B$2)</f>
-        <v>4.4181184668989539</v>
+        <v>4.4159407665505226</v>
       </c>
       <c r="F31" s="24">
         <f t="shared" si="1"/>
-        <v>0.47841569208278845</v>
+        <v>0.47847120151840633</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="2"/>
-        <v>23.694258771254905</v>
+        <v>23.693759186334347</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="3"/>
-        <v>56.447905142236479</v>
+        <v>56.44707435307722</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="4"/>
-        <v>2.8587825374052066E-4</v>
-      </c>
-      <c r="J31" s="28">
+        <v>2.8573734371797503E-4</v>
+      </c>
+      <c r="J31" s="26">
         <f t="shared" si="5"/>
-        <v>6.6788593898215325</v>
-      </c>
-      <c r="K31" s="38">
+        <v>6.6821530378094138</v>
+      </c>
+      <c r="K31" s="36">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -2845,46 +2849,46 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="str">
+      <c r="A32" s="27" t="str">
         <f>'Resultados por pier'!B20</f>
         <v>M8X</v>
       </c>
       <c r="B32" s="24">
         <f>'Resultados por pier'!D20</f>
-        <v>1.8542000000000001</v>
+        <v>1.8532999999999999</v>
       </c>
       <c r="C32" s="24">
         <f>'Resultados por pier'!H20</f>
-        <v>1.5748</v>
-      </c>
-      <c r="D32" s="29">
+        <v>1.5742</v>
+      </c>
+      <c r="D32" s="27">
         <v>5.0999999999999996</v>
       </c>
       <c r="E32" s="24">
         <f t="shared" ref="E32:E45" si="8">ABS(B32/D32/$B$2)</f>
-        <v>2.5969187675070029</v>
+        <v>2.5956582633053222</v>
       </c>
       <c r="F32" s="24">
         <f t="shared" ref="F32:F45" si="9">C32/(B32*D32)</f>
-        <v>0.16653236637120603</v>
+        <v>0.16654975808917427</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" ref="G32:G45" si="10">100*IF(F32&gt;=1,$B$10,($B$10-$B$9)*(F32)+$B$9)</f>
-        <v>26.501208702659145</v>
+        <v>26.501052177197433</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" ref="H32:H45" si="11">100*IF(F32&gt;=1,$B$13,($B$13-$B$12)*(F32)+$B$12)</f>
-        <v>61.115747340077945</v>
+        <v>61.11548704467792</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" ref="I32:I45" si="12">IF(H32&lt;=E32,"agregar mas muros",IF(H32&lt;=G32,0.0006,1.1*ABS(B32)/($B$3*$B$2*D32)))</f>
-        <v>1.6803592025045315E-4</v>
-      </c>
-      <c r="J32" s="28">
+        <v>1.6795435821387379E-4</v>
+      </c>
+      <c r="J32" s="26">
         <f t="shared" ref="J32:J45" si="13">$B$4/(I32*$B$2*$B$5)</f>
-        <v>11.362693503239289</v>
-      </c>
-      <c r="K32" s="38">
+        <v>11.368211457241836</v>
+      </c>
+      <c r="K32" s="36">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -2894,28 +2898,28 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="str">
+      <c r="A33" s="27" t="str">
         <f>'Resultados por pier'!B21</f>
         <v>M9X</v>
       </c>
       <c r="B33" s="24">
         <f>'Resultados por pier'!D21</f>
-        <v>0.121</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="C33" s="24">
         <f>'Resultados por pier'!H21</f>
         <v>0.1002</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="27">
         <v>0.37</v>
       </c>
       <c r="E33" s="24">
         <f t="shared" si="8"/>
-        <v>2.3359073359073355</v>
+        <v>2.3339768339768336</v>
       </c>
       <c r="F33" s="24">
         <f t="shared" si="9"/>
-        <v>2.238105874469511</v>
+        <v>2.2399570786667562</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="10"/>
@@ -2927,13 +2931,13 @@
       </c>
       <c r="I33" s="9">
         <f t="shared" si="12"/>
-        <v>1.5114694526459233E-4</v>
-      </c>
-      <c r="J33" s="28">
+        <v>1.5102203043379514E-4</v>
+      </c>
+      <c r="J33" s="26">
         <f t="shared" si="13"/>
-        <v>12.632346991851124</v>
-      </c>
-      <c r="K33" s="38">
+        <v>12.642795583242235</v>
+      </c>
+      <c r="K33" s="36">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -2943,46 +2947,46 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="str">
+      <c r="A34" s="27" t="str">
         <f>'Resultados por pier'!B22</f>
         <v>M10X</v>
       </c>
       <c r="B34" s="24">
         <f>'Resultados por pier'!D22</f>
-        <v>1.3111999999999999</v>
+        <v>1.3105</v>
       </c>
       <c r="C34" s="24">
         <f>'Resultados por pier'!H22</f>
-        <v>1.6113</v>
-      </c>
-      <c r="D34" s="29">
+        <v>1.6105</v>
+      </c>
+      <c r="D34" s="27">
         <v>2.3199999999999998</v>
       </c>
       <c r="E34" s="24">
         <f t="shared" si="8"/>
-        <v>4.0369458128078817</v>
+        <v>4.0347906403940881</v>
       </c>
       <c r="F34" s="24">
         <f t="shared" si="9"/>
-        <v>0.52968720414045567</v>
+        <v>0.5297070083805866</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="10"/>
-        <v>23.2328151627359</v>
+        <v>23.232636924574724</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="11"/>
-        <v>55.680543414949909</v>
+        <v>55.680247012224413</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" si="12"/>
-        <v>2.6121414082874532E-4</v>
-      </c>
-      <c r="J34" s="28">
+        <v>2.6107468849608813E-4</v>
+      </c>
+      <c r="J34" s="26">
         <f t="shared" si="13"/>
-        <v>7.309484292400704</v>
-      </c>
-      <c r="K34" s="38">
+        <v>7.3133886334954621</v>
+      </c>
+      <c r="K34" s="36">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -2992,46 +2996,46 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="str">
+      <c r="A35" s="27" t="str">
         <f>'Resultados por pier'!B23</f>
         <v>M11X</v>
       </c>
       <c r="B35" s="24">
         <f>'Resultados por pier'!D23</f>
-        <v>1.5620000000000001</v>
+        <v>1.5612999999999999</v>
       </c>
       <c r="C35" s="24">
         <f>'Resultados por pier'!H23</f>
-        <v>2.3294999999999999</v>
-      </c>
-      <c r="D35" s="29">
+        <v>2.3283</v>
+      </c>
+      <c r="D35" s="27">
         <v>2.77</v>
       </c>
       <c r="E35" s="24">
         <f t="shared" si="8"/>
-        <v>4.0278494069107786</v>
+        <v>4.0260443527591532</v>
       </c>
       <c r="F35" s="24">
         <f t="shared" si="9"/>
-        <v>0.53839611347111216</v>
+        <v>0.53836003090084383</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="10"/>
-        <v>23.154434978759991</v>
+        <v>23.154759721892407</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="11"/>
-        <v>55.550200395238733</v>
+        <v>55.550740429701051</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="12"/>
-        <v>2.6062554985893275E-4</v>
-      </c>
-      <c r="J35" s="28">
+        <v>2.6050875223735705E-4</v>
+      </c>
+      <c r="J35" s="26">
         <f t="shared" si="13"/>
-        <v>7.3259918698459021</v>
-      </c>
-      <c r="K35" s="38">
+        <v>7.329276436750976</v>
+      </c>
+      <c r="K35" s="36">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -3040,50 +3044,50 @@
         <v>3</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="str">
+      <c r="A36" s="27" t="str">
         <f>'Resultados por pier'!B24</f>
         <v>M12X</v>
       </c>
       <c r="B36" s="24">
         <f>'Resultados por pier'!D24</f>
-        <v>2.8323999999999998</v>
+        <v>2.8311000000000002</v>
       </c>
       <c r="C36" s="24">
         <f>'Resultados por pier'!H24</f>
-        <v>3.9697</v>
-      </c>
-      <c r="D36" s="29">
+        <v>3.9679000000000002</v>
+      </c>
+      <c r="D36" s="27">
         <v>2.3199999999999998</v>
       </c>
       <c r="E36" s="24">
         <f t="shared" si="8"/>
-        <v>8.720443349753694</v>
+        <v>8.7164408866995089</v>
       </c>
       <c r="F36" s="24">
         <f t="shared" si="9"/>
-        <v>0.60410873683339106</v>
+        <v>0.60411208510399883</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="10"/>
-        <v>22.563021368499481</v>
+        <v>22.562991234064011</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="11"/>
-        <v>54.566703904807682</v>
+        <v>54.566653792481866</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="12"/>
-        <v>5.6426398145465091E-4</v>
-      </c>
-      <c r="J36" s="28">
+        <v>5.6400499855114477E-4</v>
+      </c>
+      <c r="J36" s="26">
         <f t="shared" si="13"/>
-        <v>3.3837719969622242</v>
-      </c>
-      <c r="K36" s="38">
+        <v>3.3853257759160051</v>
+      </c>
+      <c r="K36" s="36">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -3093,46 +3097,46 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="str">
+      <c r="A37" s="27" t="str">
         <f>'Resultados por pier'!B25</f>
         <v>M13X</v>
       </c>
       <c r="B37" s="24">
         <f>'Resultados por pier'!D25</f>
-        <v>1.6707000000000001</v>
+        <v>1.6698999999999999</v>
       </c>
       <c r="C37" s="24">
         <f>'Resultados por pier'!H25</f>
-        <v>1.1577999999999999</v>
-      </c>
-      <c r="D37" s="29">
+        <v>1.1573</v>
+      </c>
+      <c r="D37" s="27">
         <v>3.3</v>
       </c>
       <c r="E37" s="24">
         <f t="shared" si="8"/>
-        <v>3.616233766233766</v>
+        <v>3.6145021645021642</v>
       </c>
       <c r="F37" s="24">
         <f t="shared" si="9"/>
-        <v>0.21000088875829584</v>
+        <v>0.21001076094195445</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="10"/>
-        <v>26.109992001175343</v>
+        <v>26.109903151522413</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="11"/>
-        <v>60.465170068550734</v>
+        <v>60.465022315235082</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="12"/>
-        <v>2.3399159663865549E-4</v>
-      </c>
-      <c r="J37" s="28">
+        <v>2.3387955182072831E-4</v>
+      </c>
+      <c r="J37" s="26">
         <f t="shared" si="13"/>
-        <v>8.1598685028385152</v>
-      </c>
-      <c r="K37" s="38">
+        <v>8.1637776559628161</v>
+      </c>
+      <c r="K37" s="36">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -3142,46 +3146,46 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="str">
+      <c r="A38" s="27" t="str">
         <f>'Resultados por pier'!B26</f>
         <v>M14X</v>
       </c>
       <c r="B38" s="24">
         <f>'Resultados por pier'!D26</f>
-        <v>0.75919999999999999</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="C38" s="24">
         <f>'Resultados por pier'!H26</f>
-        <v>0.62360000000000004</v>
-      </c>
-      <c r="D38" s="29">
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="D38" s="27">
         <v>1.1200000000000001</v>
       </c>
       <c r="E38" s="24">
         <f t="shared" si="8"/>
-        <v>4.8418367346938771</v>
+        <v>4.8399234693877542</v>
       </c>
       <c r="F38" s="24">
         <f t="shared" si="9"/>
-        <v>0.73338476591901247</v>
+        <v>0.73343937654123437</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="10"/>
-        <v>21.399537106728889</v>
+        <v>21.399045611128891</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="11"/>
-        <v>52.631877468163601</v>
+        <v>52.63106013121147</v>
       </c>
       <c r="I38" s="9">
         <f t="shared" si="12"/>
-        <v>3.1329531812725089E-4</v>
-      </c>
-      <c r="J38" s="28">
+        <v>3.1317151860744301E-4</v>
+      </c>
+      <c r="J38" s="26">
         <f t="shared" si="13"/>
-        <v>6.0943798035473487</v>
-      </c>
-      <c r="K38" s="38">
+        <v>6.096788966732305</v>
+      </c>
+      <c r="K38" s="36">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -3191,46 +3195,46 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="str">
+      <c r="A39" s="27" t="str">
         <f>'Resultados por pier'!B27</f>
         <v>M15X</v>
       </c>
       <c r="B39" s="24">
         <f>'Resultados por pier'!D27</f>
-        <v>0.74350000000000005</v>
+        <v>0.74309999999999998</v>
       </c>
       <c r="C39" s="24">
         <f>'Resultados por pier'!H27</f>
-        <v>0.49080000000000001</v>
-      </c>
-      <c r="D39" s="29">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="D39" s="27">
         <v>0.98</v>
       </c>
       <c r="E39" s="24">
         <f t="shared" si="8"/>
-        <v>5.4190962099125359</v>
+        <v>5.4161807580174921</v>
       </c>
       <c r="F39" s="24">
         <f t="shared" si="9"/>
-        <v>0.67359290723686926</v>
+        <v>0.67368085708243741</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="10"/>
-        <v>21.937663834868175</v>
+        <v>21.936872286258062</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="11"/>
-        <v>53.526760066991542</v>
+        <v>53.525443754234203</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="12"/>
-        <v>3.5064740181787004E-4</v>
-      </c>
-      <c r="J39" s="28">
+        <v>3.5045875493054364E-4</v>
+      </c>
+      <c r="J39" s="26">
         <f t="shared" si="13"/>
-        <v>5.4451869583006092</v>
-      </c>
-      <c r="K39" s="38">
+        <v>5.4481180238144313</v>
+      </c>
+      <c r="K39" s="36">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3240,46 +3244,46 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="str">
+      <c r="A40" s="27" t="str">
         <f>'Resultados por pier'!B28</f>
         <v>M16X</v>
       </c>
       <c r="B40" s="24">
         <f>'Resultados por pier'!D28</f>
-        <v>1.3024</v>
+        <v>1.3017000000000001</v>
       </c>
       <c r="C40" s="24">
         <f>'Resultados por pier'!H28</f>
-        <v>1.2633000000000001</v>
-      </c>
-      <c r="D40" s="29">
+        <v>1.2627999999999999</v>
+      </c>
+      <c r="D40" s="27">
         <v>3.3</v>
       </c>
       <c r="E40" s="24">
         <f t="shared" si="8"/>
-        <v>2.8190476190476188</v>
+        <v>2.8175324675324678</v>
       </c>
       <c r="F40" s="24">
         <f t="shared" si="9"/>
-        <v>0.29393287916015193</v>
+        <v>0.29397454610637369</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="10"/>
-        <v>25.354604087558634</v>
+        <v>25.35422908504264</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="11"/>
-        <v>59.208991061055748</v>
+        <v>59.208367447307289</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="12"/>
-        <v>1.8240896358543419E-4</v>
-      </c>
-      <c r="J40" s="28">
+        <v>1.8231092436974794E-4</v>
+      </c>
+      <c r="J40" s="26">
         <f t="shared" si="13"/>
-        <v>10.467362029862029</v>
-      </c>
-      <c r="K40" s="38">
+        <v>10.472990940840674</v>
+      </c>
+      <c r="K40" s="36">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -3289,46 +3293,46 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="str">
+      <c r="A41" s="27" t="str">
         <f>'Resultados por pier'!B29</f>
         <v>M17X</v>
       </c>
       <c r="B41" s="24">
         <f>'Resultados por pier'!D29</f>
-        <v>0.66969999999999996</v>
+        <v>0.6694</v>
       </c>
       <c r="C41" s="24">
         <f>'Resultados por pier'!H29</f>
-        <v>0.44369999999999998</v>
-      </c>
-      <c r="D41" s="29">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="D41" s="27">
         <v>0.97</v>
       </c>
       <c r="E41" s="24">
         <f t="shared" si="8"/>
-        <v>4.9315169366715752</v>
+        <v>4.9293078055964648</v>
       </c>
       <c r="F41" s="24">
         <f t="shared" si="9"/>
-        <v>0.68302625117570726</v>
+        <v>0.68302434246393917</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="10"/>
-        <v>21.852763739418634</v>
+        <v>21.85278091782455</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="11"/>
-        <v>53.38557470286861</v>
+        <v>53.385603269850556</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="12"/>
-        <v>3.1909815472580788E-4</v>
-      </c>
-      <c r="J41" s="28">
+        <v>3.1895521095035961E-4</v>
+      </c>
+      <c r="J41" s="26">
         <f t="shared" si="13"/>
-        <v>5.9835528067572259</v>
-      </c>
-      <c r="K41" s="38">
+        <v>5.9862344109431032</v>
+      </c>
+      <c r="K41" s="36">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3338,46 +3342,46 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="str">
+      <c r="A42" s="27" t="str">
         <f>'Resultados por pier'!B30</f>
         <v>M18X</v>
       </c>
       <c r="B42" s="24">
         <f>'Resultados por pier'!D30</f>
-        <v>1.4371</v>
+        <v>1.4365000000000001</v>
       </c>
       <c r="C42" s="24">
         <f>'Resultados por pier'!H30</f>
-        <v>2.4371</v>
-      </c>
-      <c r="D42" s="29">
+        <v>2.4363999999999999</v>
+      </c>
+      <c r="D42" s="27">
         <v>3.22</v>
       </c>
       <c r="E42" s="24">
         <f t="shared" si="8"/>
-        <v>3.1878881987577636</v>
+        <v>3.1865572315882873</v>
       </c>
       <c r="F42" s="24">
         <f t="shared" si="9"/>
-        <v>0.52666018651260671</v>
+        <v>0.52672882891257855</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="10"/>
-        <v>23.260058321386541</v>
+        <v>23.259440539786794</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="11"/>
-        <v>55.72584766641846</v>
+        <v>55.724820321046863</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" si="12"/>
-        <v>2.0627511874314947E-4</v>
-      </c>
-      <c r="J42" s="28">
+        <v>2.0618899733806567E-4</v>
+      </c>
+      <c r="J42" s="26">
         <f t="shared" si="13"/>
-        <v>9.2562819547719677</v>
-      </c>
-      <c r="K42" s="38">
+        <v>9.2601481358877802</v>
+      </c>
+      <c r="K42" s="36">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3387,46 +3391,46 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="str">
+      <c r="A43" s="27" t="str">
         <f>'Resultados por pier'!B31</f>
         <v>M19X</v>
       </c>
       <c r="B43" s="24">
         <f>'Resultados por pier'!D31</f>
-        <v>1.1617999999999999</v>
+        <v>1.1612</v>
       </c>
       <c r="C43" s="24">
         <f>'Resultados por pier'!H31</f>
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="D43" s="29">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="D43" s="27">
         <v>1.64</v>
       </c>
       <c r="E43" s="24">
         <f t="shared" si="8"/>
-        <v>5.0601045296167237</v>
+        <v>5.0574912891986061</v>
       </c>
       <c r="F43" s="24">
         <f t="shared" si="9"/>
-        <v>0.40806108267658686</v>
+        <v>0.40816690891676399</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="10"/>
-        <v>24.327450255910719</v>
+        <v>24.326497819749125</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="11"/>
-        <v>57.50087651814971</v>
+        <v>57.499292656016621</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="12"/>
-        <v>3.2741852838696461E-4</v>
-      </c>
-      <c r="J43" s="28">
+        <v>3.2724943635990985E-4</v>
+      </c>
+      <c r="J43" s="26">
         <f t="shared" si="13"/>
-        <v>5.8314985066577414</v>
-      </c>
-      <c r="K43" s="38">
+        <v>5.8345116819109233</v>
+      </c>
+      <c r="K43" s="36">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3436,28 +3440,28 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="str">
+      <c r="A44" s="27" t="str">
         <f>'Resultados por pier'!B32</f>
         <v>M20X</v>
       </c>
       <c r="B44" s="24">
         <f>'Resultados por pier'!D32</f>
-        <v>0.24030000000000001</v>
+        <v>0.2402</v>
       </c>
       <c r="C44" s="24">
         <f>'Resultados por pier'!H32</f>
-        <v>0.1595</v>
-      </c>
-      <c r="D44" s="29">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="D44" s="27">
         <v>0.37</v>
       </c>
       <c r="E44" s="24">
         <f t="shared" si="8"/>
-        <v>4.6389961389961387</v>
+        <v>4.6370656370656365</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="9"/>
-        <v>1.7939287602208951</v>
+        <v>1.7935504196952989</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="10"/>
@@ -3469,13 +3473,13 @@
       </c>
       <c r="I44" s="9">
         <f t="shared" si="12"/>
-        <v>3.001703384056325E-4</v>
-      </c>
-      <c r="J44" s="28">
+        <v>3.0004542357483534E-4</v>
+      </c>
+      <c r="J44" s="26">
         <f t="shared" si="13"/>
-        <v>6.3608572035538327</v>
-      </c>
-      <c r="K44" s="38">
+        <v>6.3635053539299991</v>
+      </c>
+      <c r="K44" s="36">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -3485,46 +3489,46 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="str">
+      <c r="A45" s="27" t="str">
         <f>'Resultados por pier'!B33</f>
         <v>M21X</v>
       </c>
       <c r="B45" s="24">
         <f>'Resultados por pier'!D33</f>
-        <v>1.9393</v>
+        <v>1.9382999999999999</v>
       </c>
       <c r="C45" s="24">
         <f>'Resultados por pier'!H33</f>
-        <v>2.0179999999999998</v>
-      </c>
-      <c r="D45" s="29">
+        <v>2.0171999999999999</v>
+      </c>
+      <c r="D45" s="27">
         <v>5.0999999999999996</v>
       </c>
       <c r="E45" s="24">
         <f t="shared" si="8"/>
-        <v>2.7161064425770305</v>
+        <v>2.7147058823529409</v>
       </c>
       <c r="F45" s="24">
         <f t="shared" si="9"/>
-        <v>0.20403561826937755</v>
+        <v>0.20405995550983122</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="10"/>
-        <v>26.163679435575602</v>
+        <v>26.16346040041152</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="11"/>
-        <v>60.554450062106589</v>
+        <v>60.55408581564452</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" si="12"/>
-        <v>1.7574806393145495E-4</v>
-      </c>
-      <c r="J45" s="28">
+        <v>1.7565743944636679E-4</v>
+      </c>
+      <c r="J45" s="26">
         <f t="shared" si="13"/>
-        <v>10.864077911466143</v>
-      </c>
-      <c r="K45" s="38">
+        <v>10.869682863182321</v>
+      </c>
+      <c r="K45" s="36">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -3585,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CAD58B-62DD-49B0-8FF5-2F3E018E2753}">
-  <dimension ref="B2:T38"/>
+  <dimension ref="B2:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3608,105 +3612,114 @@
     <col min="18" max="18" width="11.5546875" style="6"/>
     <col min="19" max="19" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5546875" style="6"/>
+    <col min="21" max="23" width="11.5546875" style="6"/>
+    <col min="24" max="24" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37" t="s">
+    <row r="2" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="C4" s="31">
         <f>'Resistencia al corte'!B9</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <f>'Resistencia al corte'!B12</f>
         <v>0.63608175575157011</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="34">
+    <row r="5" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="32">
         <f>'Resistencia al corte'!B10</f>
         <v>0.19</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <f>'Resistencia al corte'!B13</f>
         <v>0.48641546028061239</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-    </row>
-    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="37" t="str">
+    <row r="8" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+    </row>
+    <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="35" t="str">
         <f>'Resistencia al corte'!A16</f>
         <v>Pier</v>
       </c>
-      <c r="G9" s="37" t="str">
+      <c r="G9" s="35" t="str">
         <f>'Resistencia al corte'!B16</f>
         <v>$V_2 $ $ (tonf)$</v>
       </c>
-      <c r="H9" s="37" t="str">
+      <c r="H9" s="35" t="str">
         <f>'Resistencia al corte'!C16</f>
         <v>$M_3 $$(tonf \cdot m)$</v>
       </c>
-      <c r="I9" s="37" t="str">
+      <c r="I9" s="35" t="str">
         <f>'Resistencia al corte'!D16</f>
         <v>$d $$ (m)$</v>
       </c>
-      <c r="J9" s="37" t="str">
+      <c r="J9" s="35" t="str">
         <f>'Resistencia al corte'!E16</f>
         <v>$\tau_{sol} $$ (tonf/m^2)$</v>
       </c>
-      <c r="K9" s="37" t="str">
+      <c r="K9" s="35" t="str">
         <f>'Resistencia al corte'!F16</f>
         <v>$M/Vd$$ (-)$</v>
       </c>
-      <c r="N9" s="37" t="str">
+      <c r="N9" s="35" t="str">
         <f t="shared" ref="N9:N38" si="0">F9</f>
         <v>Pier</v>
       </c>
-      <c r="O9" s="37" t="str">
+      <c r="O9" s="35" t="str">
         <f>'Resistencia al corte'!G16</f>
         <v>$\tau_{0resist} $ $ (tonf/m^2)$</v>
       </c>
-      <c r="P9" s="37" t="str">
+      <c r="P9" s="35" t="str">
         <f>'Resistencia al corte'!H16</f>
         <v>$\tau_{1resist} $ $ (tonf/m^2)$</v>
       </c>
-      <c r="Q9" s="37" t="str">
+      <c r="Q9" s="35" t="str">
         <f>'Resistencia al corte'!I16</f>
         <v>$\rho_h$ $ (-)$</v>
       </c>
-      <c r="S9" s="46" t="str">
+      <c r="S9" s="44" t="str">
         <f>'Resistencia al corte'!A2</f>
         <v>$b $ $ (m)$</v>
       </c>
@@ -3714,19 +3727,35 @@
         <f>'Resistencia al corte'!B2</f>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="X9" s="35" t="str">
+        <f t="shared" ref="X9:X38" si="1">N9</f>
+        <v>Pier</v>
+      </c>
+      <c r="Y9" s="35" t="str">
+        <f>'Resistencia al corte'!I16</f>
+        <v>$\rho_h$ $ (-)$</v>
+      </c>
+      <c r="Z9" s="35" t="str">
+        <f>'Resistencia al corte'!K16</f>
+        <v>N°Hiladas</v>
+      </c>
+      <c r="AA9" s="35" t="str">
+        <f>'Resistencia al corte'!L16</f>
+        <v>N° max hiladas</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="F10" s="6" t="str">
         <f>'Resistencia al corte'!A17</f>
         <v>M1Y</v>
       </c>
       <c r="G10" s="25">
         <f>'Resistencia al corte'!B17</f>
-        <v>1.6123000000000001</v>
+        <v>1.6125</v>
       </c>
       <c r="H10" s="25">
         <f>'Resistencia al corte'!C17</f>
-        <v>1.8597999999999999</v>
+        <v>1.86</v>
       </c>
       <c r="I10" s="6">
         <f>'Resistencia al corte'!D17</f>
@@ -3734,11 +3763,11 @@
       </c>
       <c r="J10" s="25">
         <f>'Resistencia al corte'!E17</f>
-        <v>2.9529304029304027</v>
+        <v>2.953296703296703</v>
       </c>
       <c r="K10" s="25">
         <f>'Resistencia al corte'!F17</f>
-        <v>0.29577113122359039</v>
+        <v>0.29576624925462136</v>
       </c>
       <c r="N10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3746,17 +3775,17 @@
       </c>
       <c r="O10" s="25">
         <f>'Resistencia al corte'!G17</f>
-        <v>25.338059818987691</v>
+        <v>25.338103756708406</v>
       </c>
       <c r="P10" s="25">
         <f>'Resistencia al corte'!H17</f>
-        <v>59.181478623408083</v>
-      </c>
-      <c r="Q10" s="44">
+        <v>59.181551690029096</v>
+      </c>
+      <c r="Q10" s="42">
         <f>'Resistencia al corte'!I17</f>
-        <v>1.9107196724843785E-4</v>
-      </c>
-      <c r="S10" s="46" t="str">
+        <v>1.9109566903684552E-4</v>
+      </c>
+      <c r="S10" s="44" t="str">
         <f>'Resistencia al corte'!A4</f>
         <v>$A_{esc} $ $ (m^2)$</v>
       </c>
@@ -3764,19 +3793,35 @@
         <f>'Resistencia al corte'!B4</f>
         <v>2.7800000000000001E-5</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="X10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M1Y</v>
+      </c>
+      <c r="Y10" s="47">
+        <f>'Resistencia al corte'!I17</f>
+        <v>1.9109566903684552E-4</v>
+      </c>
+      <c r="Z10" s="33">
+        <f>'Resistencia al corte'!K17</f>
+        <v>10</v>
+      </c>
+      <c r="AA10" s="33">
+        <f>'Resistencia al corte'!L17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="F11" s="6" t="str">
         <f>'Resistencia al corte'!A18</f>
         <v>M2Y</v>
       </c>
       <c r="G11" s="25">
         <f>'Resistencia al corte'!B18</f>
-        <v>0.89359999999999995</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="H11" s="25">
         <f>'Resistencia al corte'!C18</f>
-        <v>0.61270000000000002</v>
+        <v>0.61280000000000001</v>
       </c>
       <c r="I11" s="6">
         <f>'Resistencia al corte'!D18</f>
@@ -3784,11 +3829,11 @@
       </c>
       <c r="J11" s="25">
         <f>'Resistencia al corte'!E18</f>
-        <v>2.8368253968253963</v>
+        <v>2.8374603174603172</v>
       </c>
       <c r="K11" s="25">
         <f>'Resistencia al corte'!F18</f>
-        <v>0.3047349050034816</v>
+        <v>0.30471644165982947</v>
       </c>
       <c r="N11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3796,17 +3841,17 @@
       </c>
       <c r="O11" s="25">
         <f>'Resistencia al corte'!G18</f>
-        <v>25.257385854968668</v>
+        <v>25.257552025061536</v>
       </c>
       <c r="P11" s="25">
         <f>'Resistencia al corte'!H18</f>
-        <v>59.047321141900476</v>
-      </c>
-      <c r="Q11" s="44">
+        <v>59.047597475925116</v>
+      </c>
+      <c r="Q11" s="42">
         <f>'Resistencia al corte'!I18</f>
-        <v>1.8355929038281981E-4</v>
-      </c>
-      <c r="S11" s="46" t="str">
+        <v>1.8360037348272645E-4</v>
+      </c>
+      <c r="S11" s="44" t="str">
         <f>'Resistencia al corte'!A5</f>
         <v>$Escantillon $ $ (m)$</v>
       </c>
@@ -3814,19 +3859,35 @@
         <f>'Resistencia al corte'!B5</f>
         <v>0.104</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="X11" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M2Y</v>
+      </c>
+      <c r="Y11" s="47">
+        <f>'Resistencia al corte'!I18</f>
+        <v>1.8360037348272645E-4</v>
+      </c>
+      <c r="Z11" s="33">
+        <f>'Resistencia al corte'!K18</f>
+        <v>11</v>
+      </c>
+      <c r="AA11" s="33">
+        <f>'Resistencia al corte'!L18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="F12" s="6" t="str">
         <f>'Resistencia al corte'!A19</f>
         <v>M3Y</v>
       </c>
       <c r="G12" s="25">
         <f>'Resistencia al corte'!B19</f>
-        <v>1.6081000000000001</v>
+        <v>1.6083000000000001</v>
       </c>
       <c r="H12" s="25">
         <f>'Resistencia al corte'!C19</f>
-        <v>1.9031</v>
+        <v>1.9033</v>
       </c>
       <c r="I12" s="6">
         <f>'Resistencia al corte'!D19</f>
@@ -3834,11 +3895,11 @@
       </c>
       <c r="J12" s="25">
         <f>'Resistencia al corte'!E19</f>
-        <v>2.9452380952380954</v>
+        <v>2.9456043956043954</v>
       </c>
       <c r="K12" s="25">
         <f>'Resistencia al corte'!F19</f>
-        <v>0.30344777002323176</v>
+        <v>0.30344192067751102</v>
       </c>
       <c r="N12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3846,29 +3907,45 @@
       </c>
       <c r="O12" s="25">
         <f>'Resistencia al corte'!G19</f>
-        <v>25.268970069790914</v>
+        <v>25.269022713902402</v>
       </c>
       <c r="P12" s="25">
         <f>'Resistencia al corte'!H19</f>
-        <v>59.066585214326984</v>
-      </c>
-      <c r="Q12" s="44">
+        <v>59.066672759317484</v>
+      </c>
+      <c r="Q12" s="42">
         <f>'Resistencia al corte'!I19</f>
-        <v>1.9057422969187676E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+        <v>1.9059793148028446E-4</v>
+      </c>
+      <c r="X12" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M3Y</v>
+      </c>
+      <c r="Y12" s="47">
+        <f>'Resistencia al corte'!I19</f>
+        <v>1.9059793148028446E-4</v>
+      </c>
+      <c r="Z12" s="33">
+        <f>'Resistencia al corte'!K19</f>
+        <v>11</v>
+      </c>
+      <c r="AA12" s="33">
+        <f>'Resistencia al corte'!L19</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="F13" s="6" t="str">
         <f>'Resistencia al corte'!A20</f>
         <v>M4Y</v>
       </c>
       <c r="G13" s="25">
         <f>'Resistencia al corte'!B20</f>
-        <v>1.6175999999999999</v>
+        <v>1.6177999999999999</v>
       </c>
       <c r="H13" s="25">
         <f>'Resistencia al corte'!C20</f>
-        <v>2.5688</v>
+        <v>2.569</v>
       </c>
       <c r="I13" s="6">
         <f>'Resistencia al corte'!D20</f>
@@ -3876,11 +3953,11 @@
       </c>
       <c r="J13" s="25">
         <f>'Resistencia al corte'!E20</f>
-        <v>2.9626373626373623</v>
+        <v>2.9630036630036627</v>
       </c>
       <c r="K13" s="25">
         <f>'Resistencia al corte'!F20</f>
-        <v>0.40718760303330037</v>
+        <v>0.40716896323275359</v>
       </c>
       <c r="N13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3888,29 +3965,45 @@
       </c>
       <c r="O13" s="25">
         <f>'Resistencia al corte'!G20</f>
-        <v>24.335311572700295</v>
+        <v>24.335479330905219</v>
       </c>
       <c r="P13" s="25">
         <f>'Resistencia al corte'!H20</f>
-        <v>57.513949564387715</v>
-      </c>
-      <c r="Q13" s="44">
+        <v>57.514228539377335</v>
+      </c>
+      <c r="Q13" s="42">
         <f>'Resistencia al corte'!I20</f>
-        <v>1.9170006464124111E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+        <v>1.9172376642964878E-4</v>
+      </c>
+      <c r="X13" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M4Y</v>
+      </c>
+      <c r="Y13" s="47">
+        <f>'Resistencia al corte'!I20</f>
+        <v>1.9172376642964878E-4</v>
+      </c>
+      <c r="Z13" s="33">
+        <f>'Resistencia al corte'!K20</f>
+        <v>10</v>
+      </c>
+      <c r="AA13" s="33">
+        <f>'Resistencia al corte'!L20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="F14" s="6" t="str">
         <f>'Resistencia al corte'!A21</f>
         <v>M5Y</v>
       </c>
       <c r="G14" s="25">
         <f>'Resistencia al corte'!B21</f>
-        <v>1.4973000000000001</v>
+        <v>1.4974000000000001</v>
       </c>
       <c r="H14" s="25">
         <f>'Resistencia al corte'!C21</f>
-        <v>2.7553000000000001</v>
+        <v>2.7555999999999998</v>
       </c>
       <c r="I14" s="6">
         <f>'Resistencia al corte'!D21</f>
@@ -3918,11 +4011,11 @@
       </c>
       <c r="J14" s="25">
         <f>'Resistencia al corte'!E21</f>
-        <v>2.7423076923076923</v>
+        <v>2.7424908424908425</v>
       </c>
       <c r="K14" s="25">
         <f>'Resistencia al corte'!F21</f>
-        <v>0.47184076637092065</v>
+        <v>0.47186062679584784</v>
       </c>
       <c r="N14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3930,29 +4023,45 @@
       </c>
       <c r="O14" s="25">
         <f>'Resistencia al corte'!G21</f>
-        <v>23.753433102661713</v>
+        <v>23.753254358837374</v>
       </c>
       <c r="P14" s="25">
         <f>'Resistencia al corte'!H21</f>
-        <v>56.546309619665678</v>
-      </c>
-      <c r="Q14" s="44">
+        <v>56.546012376043144</v>
+      </c>
+      <c r="Q14" s="42">
         <f>'Resistencia al corte'!I21</f>
-        <v>1.7744343891402717E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+        <v>1.7745528980823102E-4</v>
+      </c>
+      <c r="X14" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M5Y</v>
+      </c>
+      <c r="Y14" s="47">
+        <f>'Resistencia al corte'!I21</f>
+        <v>1.7745528980823102E-4</v>
+      </c>
+      <c r="Z14" s="33">
+        <f>'Resistencia al corte'!K21</f>
+        <v>11</v>
+      </c>
+      <c r="AA14" s="33">
+        <f>'Resistencia al corte'!L21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="F15" s="6" t="str">
         <f>'Resistencia al corte'!A22</f>
         <v>M6Y</v>
       </c>
       <c r="G15" s="25">
         <f>'Resistencia al corte'!B22</f>
-        <v>1.9168000000000001</v>
+        <v>1.917</v>
       </c>
       <c r="H15" s="25">
         <f>'Resistencia al corte'!C22</f>
-        <v>2.0171999999999999</v>
+        <v>2.0173999999999999</v>
       </c>
       <c r="I15" s="6">
         <f>'Resistencia al corte'!D22</f>
@@ -3960,11 +4069,11 @@
       </c>
       <c r="J15" s="25">
         <f>'Resistencia al corte'!E22</f>
-        <v>3.5106227106227106</v>
+        <v>3.5109890109890105</v>
       </c>
       <c r="K15" s="25">
         <f>'Resistencia al corte'!F22</f>
-        <v>0.269840760241428</v>
+        <v>0.26983935904123696</v>
       </c>
       <c r="N15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3972,29 +4081,45 @@
       </c>
       <c r="O15" s="25">
         <f>'Resistencia al corte'!G22</f>
-        <v>25.571433157827151</v>
+        <v>25.57144576862887</v>
       </c>
       <c r="P15" s="25">
         <f>'Resistencia al corte'!H22</f>
-        <v>59.569568879916865</v>
-      </c>
-      <c r="Q15" s="44">
+        <v>59.569589851161055</v>
+      </c>
+      <c r="Q15" s="42">
         <f>'Resistencia al corte'!I22</f>
-        <v>2.2715794009911658E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+        <v>2.2718164188752427E-4</v>
+      </c>
+      <c r="X15" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M6Y</v>
+      </c>
+      <c r="Y15" s="47">
+        <f>'Resistencia al corte'!I22</f>
+        <v>2.2718164188752427E-4</v>
+      </c>
+      <c r="Z15" s="33">
+        <f>'Resistencia al corte'!K22</f>
+        <v>9</v>
+      </c>
+      <c r="AA15" s="33">
+        <f>'Resistencia al corte'!L22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="F16" s="6" t="str">
         <f>'Resistencia al corte'!A23</f>
         <v>M7Y</v>
       </c>
       <c r="G16" s="25">
         <f>'Resistencia al corte'!B23</f>
-        <v>1.1177999999999999</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="H16" s="25">
         <f>'Resistencia al corte'!C23</f>
-        <v>0.82740000000000002</v>
+        <v>0.82750000000000001</v>
       </c>
       <c r="I16" s="6">
         <f>'Resistencia al corte'!D23</f>
@@ -4002,11 +4127,11 @@
       </c>
       <c r="J16" s="25">
         <f>'Resistencia al corte'!E23</f>
-        <v>3.548571428571428</v>
+        <v>3.549206349206349</v>
       </c>
       <c r="K16" s="25">
         <f>'Resistencia al corte'!F23</f>
-        <v>0.32897954315023564</v>
+        <v>0.32896044523951495</v>
       </c>
       <c r="N16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4014,29 +4139,45 @@
       </c>
       <c r="O16" s="25">
         <f>'Resistencia al corte'!G23</f>
-        <v>25.039184111647884</v>
+        <v>25.039355992844371</v>
       </c>
       <c r="P16" s="25">
         <f>'Resistencia al corte'!H23</f>
-        <v>58.684460624254633</v>
-      </c>
-      <c r="Q16" s="44">
+        <v>58.684746455609506</v>
+      </c>
+      <c r="Q16" s="42">
         <f>'Resistencia al corte'!I23</f>
-        <v>2.2961344537815123E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.2965452847805793E-4</v>
+      </c>
+      <c r="X16" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M7Y</v>
+      </c>
+      <c r="Y16" s="47">
+        <f>'Resistencia al corte'!I23</f>
+        <v>2.2965452847805793E-4</v>
+      </c>
+      <c r="Z16" s="33">
+        <f>'Resistencia al corte'!K23</f>
+        <v>9</v>
+      </c>
+      <c r="AA16" s="33">
+        <f>'Resistencia al corte'!L23</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="str">
         <f>'Resistencia al corte'!A24</f>
         <v>M8Y</v>
       </c>
       <c r="G17" s="25">
         <f>'Resistencia al corte'!B24</f>
-        <v>1.9679</v>
+        <v>1.9681</v>
       </c>
       <c r="H17" s="25">
         <f>'Resistencia al corte'!C24</f>
-        <v>1.9932000000000001</v>
+        <v>1.9935</v>
       </c>
       <c r="I17" s="6">
         <f>'Resistencia al corte'!D24</f>
@@ -4044,11 +4185,11 @@
       </c>
       <c r="J17" s="25">
         <f>'Resistencia al corte'!E24</f>
-        <v>3.6042124542124543</v>
+        <v>3.6045787545787542</v>
       </c>
       <c r="K17" s="25">
         <f>'Resistencia al corte'!F24</f>
-        <v>0.25970675495549728</v>
+        <v>0.25971944827694027</v>
       </c>
       <c r="N17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4056,29 +4197,45 @@
       </c>
       <c r="O17" s="25">
         <f>'Resistencia al corte'!G24</f>
-        <v>25.662639205400527</v>
+        <v>25.662524965507536</v>
       </c>
       <c r="P17" s="25">
         <f>'Resistencia al corte'!H24</f>
-        <v>59.721240782859709</v>
-      </c>
-      <c r="Q17" s="44">
+        <v>59.721050806619949</v>
+      </c>
+      <c r="Q17" s="42">
         <f>'Resistencia al corte'!I24</f>
-        <v>2.3321374703727648E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.3323744882568415E-4</v>
+      </c>
+      <c r="X17" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M8Y</v>
+      </c>
+      <c r="Y17" s="47">
+        <f>'Resistencia al corte'!I24</f>
+        <v>2.3323744882568415E-4</v>
+      </c>
+      <c r="Z17" s="33">
+        <f>'Resistencia al corte'!K24</f>
+        <v>9</v>
+      </c>
+      <c r="AA17" s="33">
+        <f>'Resistencia al corte'!L24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F18" s="6" t="str">
         <f>'Resistencia al corte'!A25</f>
         <v>M1X</v>
       </c>
       <c r="G18" s="25">
         <f>'Resistencia al corte'!B25</f>
-        <v>1.5024999999999999</v>
+        <v>1.5018</v>
       </c>
       <c r="H18" s="25">
         <f>'Resistencia al corte'!C25</f>
-        <v>1.0904</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I18" s="6">
         <f>'Resistencia al corte'!D25</f>
@@ -4086,11 +4243,11 @@
       </c>
       <c r="J18" s="25">
         <f>'Resistencia al corte'!E25</f>
-        <v>3.252164502164502</v>
+        <v>3.2506493506493506</v>
       </c>
       <c r="K18" s="25">
         <f>'Resistencia al corte'!F25</f>
-        <v>0.21991630111430446</v>
+        <v>0.21993809448863386</v>
       </c>
       <c r="N18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4098,29 +4255,45 @@
       </c>
       <c r="O18" s="25">
         <f>'Resistencia al corte'!G25</f>
-        <v>26.02075328997126</v>
+        <v>26.020557149602297</v>
       </c>
       <c r="P18" s="25">
         <f>'Resistencia al corte'!H25</f>
-        <v>60.316769765011649</v>
-      </c>
-      <c r="Q18" s="44">
+        <v>60.316443591651478</v>
+      </c>
+      <c r="Q18" s="42">
         <f>'Resistencia al corte'!I25</f>
-        <v>2.1043417366946782E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.1033613445378154E-4</v>
+      </c>
+      <c r="X18" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M1X</v>
+      </c>
+      <c r="Y18" s="47">
+        <f>'Resistencia al corte'!I25</f>
+        <v>2.1033613445378154E-4</v>
+      </c>
+      <c r="Z18" s="33">
+        <f>'Resistencia al corte'!K25</f>
+        <v>10</v>
+      </c>
+      <c r="AA18" s="33">
+        <f>'Resistencia al corte'!L25</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F19" s="6" t="str">
         <f>'Resistencia al corte'!A26</f>
         <v>M2X</v>
       </c>
       <c r="G19" s="25">
         <f>'Resistencia al corte'!B26</f>
-        <v>0.70140000000000002</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="H19" s="25">
         <f>'Resistencia al corte'!C26</f>
-        <v>0.5968</v>
+        <v>0.59660000000000002</v>
       </c>
       <c r="I19" s="6">
         <f>'Resistencia al corte'!D26</f>
@@ -4128,11 +4301,11 @@
       </c>
       <c r="J19" s="25">
         <f>'Resistencia al corte'!E26</f>
-        <v>4.4732142857142847</v>
+        <v>4.4713010204081618</v>
       </c>
       <c r="K19" s="25">
         <f>'Resistencia al corte'!F26</f>
-        <v>0.75970507963664491</v>
+        <v>0.75977545489740606</v>
       </c>
       <c r="N19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4140,29 +4313,45 @@
       </c>
       <c r="O19" s="25">
         <f>'Resistencia al corte'!G26</f>
-        <v>21.162654283270196</v>
+        <v>21.162020905923345</v>
       </c>
       <c r="P19" s="25">
         <f>'Resistencia al corte'!H26</f>
-        <v>52.237951083188449</v>
-      </c>
-      <c r="Q19" s="44">
+        <v>52.236897802731363</v>
+      </c>
+      <c r="Q19" s="42">
         <f>'Resistencia al corte'!I26</f>
-        <v>2.894432773109244E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.8931947779111636E-4</v>
+      </c>
+      <c r="X19" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M2X</v>
+      </c>
+      <c r="Y19" s="47">
+        <f>'Resistencia al corte'!I26</f>
+        <v>2.8931947779111636E-4</v>
+      </c>
+      <c r="Z19" s="33">
+        <f>'Resistencia al corte'!K26</f>
+        <v>7</v>
+      </c>
+      <c r="AA19" s="33">
+        <f>'Resistencia al corte'!L26</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F20" s="6" t="str">
         <f>'Resistencia al corte'!A27</f>
         <v>M3X</v>
       </c>
       <c r="G20" s="25">
         <f>'Resistencia al corte'!B27</f>
-        <v>0.73409999999999997</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="H20" s="25">
         <f>'Resistencia al corte'!C27</f>
-        <v>0.48699999999999999</v>
+        <v>0.48680000000000001</v>
       </c>
       <c r="I20" s="6">
         <f>'Resistencia al corte'!D27</f>
@@ -4170,11 +4359,11 @@
       </c>
       <c r="J20" s="25">
         <f>'Resistencia al corte'!E27</f>
-        <v>5.3505830903790077</v>
+        <v>5.3476676384839648</v>
       </c>
       <c r="K20" s="25">
         <f>'Resistencia al corte'!F27</f>
-        <v>0.67693607888598839</v>
+        <v>0.67702697816212487</v>
       </c>
       <c r="N20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4182,29 +4371,45 @@
       </c>
       <c r="O20" s="25">
         <f>'Resistencia al corte'!G27</f>
-        <v>21.907575290026106</v>
+        <v>21.906757196540877</v>
       </c>
       <c r="P20" s="25">
         <f>'Resistencia al corte'!H27</f>
-        <v>53.47672405540682</v>
-      </c>
-      <c r="Q20" s="44">
+        <v>53.475363599614788</v>
+      </c>
+      <c r="Q20" s="42">
         <f>'Resistencia al corte'!I27</f>
-        <v>3.4621419996570059E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
+        <v>3.4602555307837425E-4</v>
+      </c>
+      <c r="X20" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M3X</v>
+      </c>
+      <c r="Y20" s="47">
+        <f>'Resistencia al corte'!I27</f>
+        <v>3.4602555307837425E-4</v>
+      </c>
+      <c r="Z20" s="33">
+        <f>'Resistencia al corte'!K27</f>
+        <v>6</v>
+      </c>
+      <c r="AA20" s="33">
+        <f>'Resistencia al corte'!L27</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F21" s="6" t="str">
         <f>'Resistencia al corte'!A28</f>
         <v>M4X</v>
       </c>
       <c r="G21" s="25">
         <f>'Resistencia al corte'!B28</f>
-        <v>1.4292</v>
+        <v>1.4286000000000001</v>
       </c>
       <c r="H21" s="25">
         <f>'Resistencia al corte'!C28</f>
-        <v>1.3167</v>
+        <v>1.3162</v>
       </c>
       <c r="I21" s="6">
         <f>'Resistencia al corte'!D28</f>
@@ -4212,11 +4417,11 @@
       </c>
       <c r="J21" s="25">
         <f>'Resistencia al corte'!E28</f>
-        <v>3.0935064935064935</v>
+        <v>3.0922077922077924</v>
       </c>
       <c r="K21" s="25">
         <f>'Resistencia al corte'!F28</f>
-        <v>0.27917716204869858</v>
+        <v>0.27918835562682687</v>
       </c>
       <c r="N21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4224,29 +4429,45 @@
       </c>
       <c r="O21" s="25">
         <f>'Resistencia al corte'!G28</f>
-        <v>25.487405541561714</v>
+        <v>25.487304799358562</v>
       </c>
       <c r="P21" s="25">
         <f>'Resistencia al corte'!H28</f>
-        <v>59.429834412764613</v>
-      </c>
-      <c r="Q21" s="44">
+        <v>59.429666882627465</v>
+      </c>
+      <c r="Q21" s="42">
         <f>'Resistencia al corte'!I28</f>
-        <v>2.0016806722689077E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.0008403361344542E-4</v>
+      </c>
+      <c r="X21" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M4X</v>
+      </c>
+      <c r="Y21" s="47">
+        <f>'Resistencia al corte'!I28</f>
+        <v>2.0008403361344542E-4</v>
+      </c>
+      <c r="Z21" s="33">
+        <f>'Resistencia al corte'!K28</f>
+        <v>10</v>
+      </c>
+      <c r="AA21" s="33">
+        <f>'Resistencia al corte'!L28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F22" s="6" t="str">
         <f>'Resistencia al corte'!A29</f>
         <v>M5X</v>
       </c>
       <c r="G22" s="25">
         <f>'Resistencia al corte'!B29</f>
-        <v>1.7835000000000001</v>
+        <v>1.7826</v>
       </c>
       <c r="H22" s="25">
         <f>'Resistencia al corte'!C29</f>
-        <v>2.2806999999999999</v>
+        <v>2.2801</v>
       </c>
       <c r="I22" s="6">
         <f>'Resistencia al corte'!D29</f>
@@ -4254,11 +4475,11 @@
       </c>
       <c r="J22" s="25">
         <f>'Resistencia al corte'!E29</f>
-        <v>3.3348915482423336</v>
+        <v>3.3332086761406132</v>
       </c>
       <c r="K22" s="25">
         <f>'Resistencia al corte'!F29</f>
-        <v>0.33475855610695482</v>
+        <v>0.33483945739589738</v>
       </c>
       <c r="N22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4266,29 +4487,45 @@
       </c>
       <c r="O22" s="25">
         <f>'Resistencia al corte'!G29</f>
-        <v>24.987172995037412</v>
+        <v>24.986444883436924</v>
       </c>
       <c r="P22" s="25">
         <f>'Resistencia al corte'!H29</f>
-        <v>58.597968278183544</v>
-      </c>
-      <c r="Q22" s="44">
+        <v>58.596757458562053</v>
+      </c>
+      <c r="Q22" s="42">
         <f>'Resistencia al corte'!I29</f>
-        <v>2.1578710018038631E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.1567820845615733E-4</v>
+      </c>
+      <c r="X22" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M5X</v>
+      </c>
+      <c r="Y22" s="47">
+        <f>'Resistencia al corte'!I29</f>
+        <v>2.1567820845615733E-4</v>
+      </c>
+      <c r="Z22" s="33">
+        <f>'Resistencia al corte'!K29</f>
+        <v>9</v>
+      </c>
+      <c r="AA22" s="33">
+        <f>'Resistencia al corte'!L29</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F23" s="6" t="str">
         <f>'Resistencia al corte'!A30</f>
         <v>M6X</v>
       </c>
       <c r="G23" s="25">
         <f>'Resistencia al corte'!B30</f>
-        <v>0.66049999999999998</v>
+        <v>0.66020000000000001</v>
       </c>
       <c r="H23" s="25">
         <f>'Resistencia al corte'!C30</f>
-        <v>0.43880000000000002</v>
+        <v>0.43859999999999999</v>
       </c>
       <c r="I23" s="6">
         <f>'Resistencia al corte'!D30</f>
@@ -4296,11 +4533,11 @@
       </c>
       <c r="J23" s="25">
         <f>'Resistencia al corte'!E30</f>
-        <v>4.8141399416909616</v>
+        <v>4.8119533527696783</v>
       </c>
       <c r="K23" s="25">
         <f>'Resistencia al corte'!F30</f>
-        <v>0.67790325819957065</v>
+        <v>0.67790218177546691</v>
       </c>
       <c r="N23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4308,29 +4545,45 @@
       </c>
       <c r="O23" s="25">
         <f>'Resistencia al corte'!G30</f>
-        <v>21.898870676203867</v>
+        <v>21.898880364020798</v>
       </c>
       <c r="P23" s="25">
         <f>'Resistencia al corte'!H30</f>
-        <v>53.462248640914822</v>
-      </c>
-      <c r="Q23" s="44">
+        <v>53.462264751355612</v>
+      </c>
+      <c r="Q23" s="42">
         <f>'Resistencia al corte'!I30</f>
-        <v>3.1150317269765048E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
+        <v>3.1136168753215574E-4</v>
+      </c>
+      <c r="X23" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M6X</v>
+      </c>
+      <c r="Y23" s="47">
+        <f>'Resistencia al corte'!I30</f>
+        <v>3.1136168753215574E-4</v>
+      </c>
+      <c r="Z23" s="33">
+        <f>'Resistencia al corte'!K30</f>
+        <v>7</v>
+      </c>
+      <c r="AA23" s="33">
+        <f>'Resistencia al corte'!L30</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F24" s="6" t="str">
         <f>'Resistencia al corte'!A31</f>
         <v>M7X</v>
       </c>
       <c r="G24" s="25">
         <f>'Resistencia al corte'!B31</f>
-        <v>1.0144</v>
+        <v>1.0139</v>
       </c>
       <c r="H24" s="25">
         <f>'Resistencia al corte'!C31</f>
-        <v>0.79590000000000005</v>
+        <v>0.79559999999999997</v>
       </c>
       <c r="I24" s="6">
         <f>'Resistencia al corte'!D31</f>
@@ -4338,11 +4591,11 @@
       </c>
       <c r="J24" s="25">
         <f>'Resistencia al corte'!E31</f>
-        <v>4.4181184668989539</v>
+        <v>4.4159407665505226</v>
       </c>
       <c r="K24" s="25">
         <f>'Resistencia al corte'!F31</f>
-        <v>0.47841569208278845</v>
+        <v>0.47847120151840633</v>
       </c>
       <c r="N24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4350,29 +4603,45 @@
       </c>
       <c r="O24" s="25">
         <f>'Resistencia al corte'!G31</f>
-        <v>23.694258771254905</v>
+        <v>23.693759186334347</v>
       </c>
       <c r="P24" s="25">
         <f>'Resistencia al corte'!H31</f>
-        <v>56.447905142236479</v>
-      </c>
-      <c r="Q24" s="44">
+        <v>56.44707435307722</v>
+      </c>
+      <c r="Q24" s="42">
         <f>'Resistencia al corte'!I31</f>
-        <v>2.8587825374052066E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.8573734371797503E-4</v>
+      </c>
+      <c r="X24" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M7X</v>
+      </c>
+      <c r="Y24" s="47">
+        <f>'Resistencia al corte'!I31</f>
+        <v>2.8573734371797503E-4</v>
+      </c>
+      <c r="Z24" s="33">
+        <f>'Resistencia al corte'!K31</f>
+        <v>7</v>
+      </c>
+      <c r="AA24" s="33">
+        <f>'Resistencia al corte'!L31</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F25" s="6" t="str">
         <f>'Resistencia al corte'!A32</f>
         <v>M8X</v>
       </c>
       <c r="G25" s="25">
         <f>'Resistencia al corte'!B32</f>
-        <v>1.8542000000000001</v>
+        <v>1.8532999999999999</v>
       </c>
       <c r="H25" s="25">
         <f>'Resistencia al corte'!C32</f>
-        <v>1.5748</v>
+        <v>1.5742</v>
       </c>
       <c r="I25" s="6">
         <f>'Resistencia al corte'!D32</f>
@@ -4380,11 +4649,11 @@
       </c>
       <c r="J25" s="25">
         <f>'Resistencia al corte'!E32</f>
-        <v>2.5969187675070029</v>
+        <v>2.5956582633053222</v>
       </c>
       <c r="K25" s="25">
         <f>'Resistencia al corte'!F32</f>
-        <v>0.16653236637120603</v>
+        <v>0.16654975808917427</v>
       </c>
       <c r="N25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4392,25 +4661,41 @@
       </c>
       <c r="O25" s="25">
         <f>'Resistencia al corte'!G32</f>
-        <v>26.501208702659145</v>
+        <v>26.501052177197433</v>
       </c>
       <c r="P25" s="25">
         <f>'Resistencia al corte'!H32</f>
-        <v>61.115747340077945</v>
-      </c>
-      <c r="Q25" s="44">
+        <v>61.11548704467792</v>
+      </c>
+      <c r="Q25" s="42">
         <f>'Resistencia al corte'!I32</f>
-        <v>1.6803592025045315E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
+        <v>1.6795435821387379E-4</v>
+      </c>
+      <c r="X25" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M8X</v>
+      </c>
+      <c r="Y25" s="47">
+        <f>'Resistencia al corte'!I32</f>
+        <v>1.6795435821387379E-4</v>
+      </c>
+      <c r="Z25" s="33">
+        <f>'Resistencia al corte'!K32</f>
+        <v>12</v>
+      </c>
+      <c r="AA25" s="33">
+        <f>'Resistencia al corte'!L32</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F26" s="6" t="str">
         <f>'Resistencia al corte'!A33</f>
         <v>M9X</v>
       </c>
       <c r="G26" s="25">
         <f>'Resistencia al corte'!B33</f>
-        <v>0.121</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="H26" s="25">
         <f>'Resistencia al corte'!C33</f>
@@ -4422,11 +4707,11 @@
       </c>
       <c r="J26" s="25">
         <f>'Resistencia al corte'!E33</f>
-        <v>2.3359073359073355</v>
+        <v>2.3339768339768336</v>
       </c>
       <c r="K26" s="25">
         <f>'Resistencia al corte'!F33</f>
-        <v>2.238105874469511</v>
+        <v>2.2399570786667562</v>
       </c>
       <c r="N26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4440,23 +4725,39 @@
         <f>'Resistencia al corte'!H33</f>
         <v>48.641546028061242</v>
       </c>
-      <c r="Q26" s="44">
+      <c r="Q26" s="42">
         <f>'Resistencia al corte'!I33</f>
-        <v>1.5114694526459233E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
+        <v>1.5102203043379514E-4</v>
+      </c>
+      <c r="X26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M9X</v>
+      </c>
+      <c r="Y26" s="47">
+        <f>'Resistencia al corte'!I33</f>
+        <v>1.5102203043379514E-4</v>
+      </c>
+      <c r="Z26" s="33">
+        <f>'Resistencia al corte'!K33</f>
+        <v>13</v>
+      </c>
+      <c r="AA26" s="33">
+        <f>'Resistencia al corte'!L33</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F27" s="6" t="str">
         <f>'Resistencia al corte'!A34</f>
         <v>M10X</v>
       </c>
       <c r="G27" s="25">
         <f>'Resistencia al corte'!B34</f>
-        <v>1.3111999999999999</v>
+        <v>1.3105</v>
       </c>
       <c r="H27" s="25">
         <f>'Resistencia al corte'!C34</f>
-        <v>1.6113</v>
+        <v>1.6105</v>
       </c>
       <c r="I27" s="6">
         <f>'Resistencia al corte'!D34</f>
@@ -4464,11 +4765,11 @@
       </c>
       <c r="J27" s="25">
         <f>'Resistencia al corte'!E34</f>
-        <v>4.0369458128078817</v>
+        <v>4.0347906403940881</v>
       </c>
       <c r="K27" s="25">
         <f>'Resistencia al corte'!F34</f>
-        <v>0.52968720414045567</v>
+        <v>0.5297070083805866</v>
       </c>
       <c r="N27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4476,29 +4777,45 @@
       </c>
       <c r="O27" s="25">
         <f>'Resistencia al corte'!G34</f>
-        <v>23.2328151627359</v>
+        <v>23.232636924574724</v>
       </c>
       <c r="P27" s="25">
         <f>'Resistencia al corte'!H34</f>
-        <v>55.680543414949909</v>
-      </c>
-      <c r="Q27" s="44">
+        <v>55.680247012224413</v>
+      </c>
+      <c r="Q27" s="42">
         <f>'Resistencia al corte'!I34</f>
-        <v>2.6121414082874532E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.6107468849608813E-4</v>
+      </c>
+      <c r="X27" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M10X</v>
+      </c>
+      <c r="Y27" s="47">
+        <f>'Resistencia al corte'!I34</f>
+        <v>2.6107468849608813E-4</v>
+      </c>
+      <c r="Z27" s="33">
+        <f>'Resistencia al corte'!K34</f>
+        <v>8</v>
+      </c>
+      <c r="AA27" s="33">
+        <f>'Resistencia al corte'!L34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F28" s="6" t="str">
         <f>'Resistencia al corte'!A35</f>
         <v>M11X</v>
       </c>
       <c r="G28" s="25">
         <f>'Resistencia al corte'!B35</f>
-        <v>1.5620000000000001</v>
+        <v>1.5612999999999999</v>
       </c>
       <c r="H28" s="25">
         <f>'Resistencia al corte'!C35</f>
-        <v>2.3294999999999999</v>
+        <v>2.3283</v>
       </c>
       <c r="I28" s="6">
         <f>'Resistencia al corte'!D35</f>
@@ -4506,11 +4823,11 @@
       </c>
       <c r="J28" s="25">
         <f>'Resistencia al corte'!E35</f>
-        <v>4.0278494069107786</v>
+        <v>4.0260443527591532</v>
       </c>
       <c r="K28" s="25">
         <f>'Resistencia al corte'!F35</f>
-        <v>0.53839611347111216</v>
+        <v>0.53836003090084383</v>
       </c>
       <c r="N28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4518,29 +4835,45 @@
       </c>
       <c r="O28" s="25">
         <f>'Resistencia al corte'!G35</f>
-        <v>23.154434978759991</v>
+        <v>23.154759721892407</v>
       </c>
       <c r="P28" s="25">
         <f>'Resistencia al corte'!H35</f>
-        <v>55.550200395238733</v>
-      </c>
-      <c r="Q28" s="44">
+        <v>55.550740429701051</v>
+      </c>
+      <c r="Q28" s="42">
         <f>'Resistencia al corte'!I35</f>
-        <v>2.6062554985893275E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.6050875223735705E-4</v>
+      </c>
+      <c r="X28" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M11X</v>
+      </c>
+      <c r="Y28" s="47">
+        <f>'Resistencia al corte'!I35</f>
+        <v>2.6050875223735705E-4</v>
+      </c>
+      <c r="Z28" s="33">
+        <f>'Resistencia al corte'!K35</f>
+        <v>8</v>
+      </c>
+      <c r="AA28" s="33">
+        <f>'Resistencia al corte'!L35</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F29" s="6" t="str">
         <f>'Resistencia al corte'!A36</f>
         <v>M12X</v>
       </c>
       <c r="G29" s="25">
         <f>'Resistencia al corte'!B36</f>
-        <v>2.8323999999999998</v>
+        <v>2.8311000000000002</v>
       </c>
       <c r="H29" s="25">
         <f>'Resistencia al corte'!C36</f>
-        <v>3.9697</v>
+        <v>3.9679000000000002</v>
       </c>
       <c r="I29" s="6">
         <f>'Resistencia al corte'!D36</f>
@@ -4548,11 +4881,11 @@
       </c>
       <c r="J29" s="25">
         <f>'Resistencia al corte'!E36</f>
-        <v>8.720443349753694</v>
+        <v>8.7164408866995089</v>
       </c>
       <c r="K29" s="25">
         <f>'Resistencia al corte'!F36</f>
-        <v>0.60410873683339106</v>
+        <v>0.60411208510399883</v>
       </c>
       <c r="N29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4560,29 +4893,45 @@
       </c>
       <c r="O29" s="25">
         <f>'Resistencia al corte'!G36</f>
-        <v>22.563021368499481</v>
+        <v>22.562991234064011</v>
       </c>
       <c r="P29" s="25">
         <f>'Resistencia al corte'!H36</f>
-        <v>54.566703904807682</v>
-      </c>
-      <c r="Q29" s="44">
+        <v>54.566653792481866</v>
+      </c>
+      <c r="Q29" s="42">
         <f>'Resistencia al corte'!I36</f>
-        <v>5.6426398145465091E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
+        <v>5.6400499855114477E-4</v>
+      </c>
+      <c r="X29" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M12X</v>
+      </c>
+      <c r="Y29" s="47">
+        <f>'Resistencia al corte'!I36</f>
+        <v>5.6400499855114477E-4</v>
+      </c>
+      <c r="Z29" s="33">
+        <f>'Resistencia al corte'!K36</f>
+        <v>4</v>
+      </c>
+      <c r="AA29" s="33">
+        <f>'Resistencia al corte'!L36</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F30" s="6" t="str">
         <f>'Resistencia al corte'!A37</f>
         <v>M13X</v>
       </c>
       <c r="G30" s="25">
         <f>'Resistencia al corte'!B37</f>
-        <v>1.6707000000000001</v>
+        <v>1.6698999999999999</v>
       </c>
       <c r="H30" s="25">
         <f>'Resistencia al corte'!C37</f>
-        <v>1.1577999999999999</v>
+        <v>1.1573</v>
       </c>
       <c r="I30" s="6">
         <f>'Resistencia al corte'!D37</f>
@@ -4590,11 +4939,11 @@
       </c>
       <c r="J30" s="25">
         <f>'Resistencia al corte'!E37</f>
-        <v>3.616233766233766</v>
+        <v>3.6145021645021642</v>
       </c>
       <c r="K30" s="25">
         <f>'Resistencia al corte'!F37</f>
-        <v>0.21000088875829584</v>
+        <v>0.21001076094195445</v>
       </c>
       <c r="N30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4602,29 +4951,45 @@
       </c>
       <c r="O30" s="25">
         <f>'Resistencia al corte'!G37</f>
-        <v>26.109992001175343</v>
+        <v>26.109903151522413</v>
       </c>
       <c r="P30" s="25">
         <f>'Resistencia al corte'!H37</f>
-        <v>60.465170068550734</v>
-      </c>
-      <c r="Q30" s="44">
+        <v>60.465022315235082</v>
+      </c>
+      <c r="Q30" s="42">
         <f>'Resistencia al corte'!I37</f>
-        <v>2.3399159663865549E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.3387955182072831E-4</v>
+      </c>
+      <c r="X30" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M13X</v>
+      </c>
+      <c r="Y30" s="47">
+        <f>'Resistencia al corte'!I37</f>
+        <v>2.3387955182072831E-4</v>
+      </c>
+      <c r="Z30" s="33">
+        <f>'Resistencia al corte'!K37</f>
+        <v>9</v>
+      </c>
+      <c r="AA30" s="33">
+        <f>'Resistencia al corte'!L37</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F31" s="6" t="str">
         <f>'Resistencia al corte'!A38</f>
         <v>M14X</v>
       </c>
       <c r="G31" s="25">
         <f>'Resistencia al corte'!B38</f>
-        <v>0.75919999999999999</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="H31" s="25">
         <f>'Resistencia al corte'!C38</f>
-        <v>0.62360000000000004</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="I31" s="6">
         <f>'Resistencia al corte'!D38</f>
@@ -4632,11 +4997,11 @@
       </c>
       <c r="J31" s="25">
         <f>'Resistencia al corte'!E38</f>
-        <v>4.8418367346938771</v>
+        <v>4.8399234693877542</v>
       </c>
       <c r="K31" s="25">
         <f>'Resistencia al corte'!F38</f>
-        <v>0.73338476591901247</v>
+        <v>0.73343937654123437</v>
       </c>
       <c r="N31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4644,29 +5009,45 @@
       </c>
       <c r="O31" s="25">
         <f>'Resistencia al corte'!G38</f>
-        <v>21.399537106728889</v>
+        <v>21.399045611128891</v>
       </c>
       <c r="P31" s="25">
         <f>'Resistencia al corte'!H38</f>
-        <v>52.631877468163601</v>
-      </c>
-      <c r="Q31" s="44">
+        <v>52.63106013121147</v>
+      </c>
+      <c r="Q31" s="42">
         <f>'Resistencia al corte'!I38</f>
-        <v>3.1329531812725089E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.3">
+        <v>3.1317151860744301E-4</v>
+      </c>
+      <c r="X31" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M14X</v>
+      </c>
+      <c r="Y31" s="47">
+        <f>'Resistencia al corte'!I38</f>
+        <v>3.1317151860744301E-4</v>
+      </c>
+      <c r="Z31" s="33">
+        <f>'Resistencia al corte'!K38</f>
+        <v>7</v>
+      </c>
+      <c r="AA31" s="33">
+        <f>'Resistencia al corte'!L38</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F32" s="6" t="str">
         <f>'Resistencia al corte'!A39</f>
         <v>M15X</v>
       </c>
       <c r="G32" s="25">
         <f>'Resistencia al corte'!B39</f>
-        <v>0.74350000000000005</v>
+        <v>0.74309999999999998</v>
       </c>
       <c r="H32" s="25">
         <f>'Resistencia al corte'!C39</f>
-        <v>0.49080000000000001</v>
+        <v>0.49059999999999998</v>
       </c>
       <c r="I32" s="6">
         <f>'Resistencia al corte'!D39</f>
@@ -4674,11 +5055,11 @@
       </c>
       <c r="J32" s="25">
         <f>'Resistencia al corte'!E39</f>
-        <v>5.4190962099125359</v>
+        <v>5.4161807580174921</v>
       </c>
       <c r="K32" s="25">
         <f>'Resistencia al corte'!F39</f>
-        <v>0.67359290723686926</v>
+        <v>0.67368085708243741</v>
       </c>
       <c r="N32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4686,29 +5067,45 @@
       </c>
       <c r="O32" s="25">
         <f>'Resistencia al corte'!G39</f>
-        <v>21.937663834868175</v>
+        <v>21.936872286258062</v>
       </c>
       <c r="P32" s="25">
         <f>'Resistencia al corte'!H39</f>
-        <v>53.526760066991542</v>
-      </c>
-      <c r="Q32" s="44">
+        <v>53.525443754234203</v>
+      </c>
+      <c r="Q32" s="42">
         <f>'Resistencia al corte'!I39</f>
-        <v>3.5064740181787004E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
+        <v>3.5045875493054364E-4</v>
+      </c>
+      <c r="X32" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M15X</v>
+      </c>
+      <c r="Y32" s="47">
+        <f>'Resistencia al corte'!I39</f>
+        <v>3.5045875493054364E-4</v>
+      </c>
+      <c r="Z32" s="33">
+        <f>'Resistencia al corte'!K39</f>
+        <v>6</v>
+      </c>
+      <c r="AA32" s="33">
+        <f>'Resistencia al corte'!L39</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F33" s="6" t="str">
         <f>'Resistencia al corte'!A40</f>
         <v>M16X</v>
       </c>
       <c r="G33" s="25">
         <f>'Resistencia al corte'!B40</f>
-        <v>1.3024</v>
+        <v>1.3017000000000001</v>
       </c>
       <c r="H33" s="25">
         <f>'Resistencia al corte'!C40</f>
-        <v>1.2633000000000001</v>
+        <v>1.2627999999999999</v>
       </c>
       <c r="I33" s="6">
         <f>'Resistencia al corte'!D40</f>
@@ -4716,11 +5113,11 @@
       </c>
       <c r="J33" s="25">
         <f>'Resistencia al corte'!E40</f>
-        <v>2.8190476190476188</v>
+        <v>2.8175324675324678</v>
       </c>
       <c r="K33" s="25">
         <f>'Resistencia al corte'!F40</f>
-        <v>0.29393287916015193</v>
+        <v>0.29397454610637369</v>
       </c>
       <c r="N33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4728,29 +5125,45 @@
       </c>
       <c r="O33" s="25">
         <f>'Resistencia al corte'!G40</f>
-        <v>25.354604087558634</v>
+        <v>25.35422908504264</v>
       </c>
       <c r="P33" s="25">
         <f>'Resistencia al corte'!H40</f>
-        <v>59.208991061055748</v>
-      </c>
-      <c r="Q33" s="44">
+        <v>59.208367447307289</v>
+      </c>
+      <c r="Q33" s="42">
         <f>'Resistencia al corte'!I40</f>
-        <v>1.8240896358543419E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
+        <v>1.8231092436974794E-4</v>
+      </c>
+      <c r="X33" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M16X</v>
+      </c>
+      <c r="Y33" s="47">
+        <f>'Resistencia al corte'!I40</f>
+        <v>1.8231092436974794E-4</v>
+      </c>
+      <c r="Z33" s="33">
+        <f>'Resistencia al corte'!K40</f>
+        <v>11</v>
+      </c>
+      <c r="AA33" s="33">
+        <f>'Resistencia al corte'!L40</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F34" s="6" t="str">
         <f>'Resistencia al corte'!A41</f>
         <v>M17X</v>
       </c>
       <c r="G34" s="25">
         <f>'Resistencia al corte'!B41</f>
-        <v>0.66969999999999996</v>
+        <v>0.6694</v>
       </c>
       <c r="H34" s="25">
         <f>'Resistencia al corte'!C41</f>
-        <v>0.44369999999999998</v>
+        <v>0.44350000000000001</v>
       </c>
       <c r="I34" s="6">
         <f>'Resistencia al corte'!D41</f>
@@ -4758,11 +5171,11 @@
       </c>
       <c r="J34" s="25">
         <f>'Resistencia al corte'!E41</f>
-        <v>4.9315169366715752</v>
+        <v>4.9293078055964648</v>
       </c>
       <c r="K34" s="25">
         <f>'Resistencia al corte'!F41</f>
-        <v>0.68302625117570726</v>
+        <v>0.68302434246393917</v>
       </c>
       <c r="N34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4770,29 +5183,45 @@
       </c>
       <c r="O34" s="25">
         <f>'Resistencia al corte'!G41</f>
-        <v>21.852763739418634</v>
+        <v>21.85278091782455</v>
       </c>
       <c r="P34" s="25">
         <f>'Resistencia al corte'!H41</f>
-        <v>53.38557470286861</v>
-      </c>
-      <c r="Q34" s="44">
+        <v>53.385603269850556</v>
+      </c>
+      <c r="Q34" s="42">
         <f>'Resistencia al corte'!I41</f>
-        <v>3.1909815472580788E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
+        <v>3.1895521095035961E-4</v>
+      </c>
+      <c r="X34" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M17X</v>
+      </c>
+      <c r="Y34" s="47">
+        <f>'Resistencia al corte'!I41</f>
+        <v>3.1895521095035961E-4</v>
+      </c>
+      <c r="Z34" s="33">
+        <f>'Resistencia al corte'!K41</f>
+        <v>6</v>
+      </c>
+      <c r="AA34" s="33">
+        <f>'Resistencia al corte'!L41</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F35" s="6" t="str">
         <f>'Resistencia al corte'!A42</f>
         <v>M18X</v>
       </c>
       <c r="G35" s="25">
         <f>'Resistencia al corte'!B42</f>
-        <v>1.4371</v>
+        <v>1.4365000000000001</v>
       </c>
       <c r="H35" s="25">
         <f>'Resistencia al corte'!C42</f>
-        <v>2.4371</v>
+        <v>2.4363999999999999</v>
       </c>
       <c r="I35" s="6">
         <f>'Resistencia al corte'!D42</f>
@@ -4800,11 +5229,11 @@
       </c>
       <c r="J35" s="25">
         <f>'Resistencia al corte'!E42</f>
-        <v>3.1878881987577636</v>
+        <v>3.1865572315882873</v>
       </c>
       <c r="K35" s="25">
         <f>'Resistencia al corte'!F42</f>
-        <v>0.52666018651260671</v>
+        <v>0.52672882891257855</v>
       </c>
       <c r="N35" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4812,29 +5241,45 @@
       </c>
       <c r="O35" s="25">
         <f>'Resistencia al corte'!G42</f>
-        <v>23.260058321386541</v>
+        <v>23.259440539786794</v>
       </c>
       <c r="P35" s="25">
         <f>'Resistencia al corte'!H42</f>
-        <v>55.72584766641846</v>
-      </c>
-      <c r="Q35" s="44">
+        <v>55.724820321046863</v>
+      </c>
+      <c r="Q35" s="42">
         <f>'Resistencia al corte'!I42</f>
-        <v>2.0627511874314947E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
+        <v>2.0618899733806567E-4</v>
+      </c>
+      <c r="X35" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M18X</v>
+      </c>
+      <c r="Y35" s="47">
+        <f>'Resistencia al corte'!I42</f>
+        <v>2.0618899733806567E-4</v>
+      </c>
+      <c r="Z35" s="33">
+        <f>'Resistencia al corte'!K42</f>
+        <v>10</v>
+      </c>
+      <c r="AA35" s="33">
+        <f>'Resistencia al corte'!L42</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F36" s="6" t="str">
         <f>'Resistencia al corte'!A43</f>
         <v>M19X</v>
       </c>
       <c r="G36" s="25">
         <f>'Resistencia al corte'!B43</f>
-        <v>1.1617999999999999</v>
+        <v>1.1612</v>
       </c>
       <c r="H36" s="25">
         <f>'Resistencia al corte'!C43</f>
-        <v>0.77749999999999997</v>
+        <v>0.77729999999999999</v>
       </c>
       <c r="I36" s="6">
         <f>'Resistencia al corte'!D43</f>
@@ -4842,11 +5287,11 @@
       </c>
       <c r="J36" s="25">
         <f>'Resistencia al corte'!E43</f>
-        <v>5.0601045296167237</v>
+        <v>5.0574912891986061</v>
       </c>
       <c r="K36" s="25">
         <f>'Resistencia al corte'!F43</f>
-        <v>0.40806108267658686</v>
+        <v>0.40816690891676399</v>
       </c>
       <c r="N36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4854,29 +5299,45 @@
       </c>
       <c r="O36" s="25">
         <f>'Resistencia al corte'!G43</f>
-        <v>24.327450255910719</v>
+        <v>24.326497819749125</v>
       </c>
       <c r="P36" s="25">
         <f>'Resistencia al corte'!H43</f>
-        <v>57.50087651814971</v>
-      </c>
-      <c r="Q36" s="44">
+        <v>57.499292656016621</v>
+      </c>
+      <c r="Q36" s="42">
         <f>'Resistencia al corte'!I43</f>
-        <v>3.2741852838696461E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
+        <v>3.2724943635990985E-4</v>
+      </c>
+      <c r="X36" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M19X</v>
+      </c>
+      <c r="Y36" s="47">
+        <f>'Resistencia al corte'!I43</f>
+        <v>3.2724943635990985E-4</v>
+      </c>
+      <c r="Z36" s="33">
+        <f>'Resistencia al corte'!K43</f>
+        <v>6</v>
+      </c>
+      <c r="AA36" s="33">
+        <f>'Resistencia al corte'!L43</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F37" s="6" t="str">
         <f>'Resistencia al corte'!A44</f>
         <v>M20X</v>
       </c>
       <c r="G37" s="25">
         <f>'Resistencia al corte'!B44</f>
-        <v>0.24030000000000001</v>
+        <v>0.2402</v>
       </c>
       <c r="H37" s="25">
         <f>'Resistencia al corte'!C44</f>
-        <v>0.1595</v>
+        <v>0.15939999999999999</v>
       </c>
       <c r="I37" s="6">
         <f>'Resistencia al corte'!D44</f>
@@ -4884,11 +5345,11 @@
       </c>
       <c r="J37" s="25">
         <f>'Resistencia al corte'!E44</f>
-        <v>4.6389961389961387</v>
+        <v>4.6370656370656365</v>
       </c>
       <c r="K37" s="25">
         <f>'Resistencia al corte'!F44</f>
-        <v>1.7939287602208951</v>
+        <v>1.7935504196952989</v>
       </c>
       <c r="N37" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4902,51 +5363,83 @@
         <f>'Resistencia al corte'!H44</f>
         <v>48.641546028061242</v>
       </c>
-      <c r="Q37" s="44">
+      <c r="Q37" s="42">
         <f>'Resistencia al corte'!I44</f>
-        <v>3.001703384056325E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="36" t="str">
+        <v>3.0004542357483534E-4</v>
+      </c>
+      <c r="X37" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>M20X</v>
+      </c>
+      <c r="Y37" s="47">
+        <f>'Resistencia al corte'!I44</f>
+        <v>3.0004542357483534E-4</v>
+      </c>
+      <c r="Z37" s="33">
+        <f>'Resistencia al corte'!K44</f>
+        <v>7</v>
+      </c>
+      <c r="AA37" s="33">
+        <f>'Resistencia al corte'!L44</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="34" t="str">
         <f>'Resistencia al corte'!A45</f>
         <v>M21X</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="32">
         <f>'Resistencia al corte'!B45</f>
-        <v>1.9393</v>
-      </c>
-      <c r="H38" s="34">
+        <v>1.9382999999999999</v>
+      </c>
+      <c r="H38" s="32">
         <f>'Resistencia al corte'!C45</f>
-        <v>2.0179999999999998</v>
-      </c>
-      <c r="I38" s="36">
+        <v>2.0171999999999999</v>
+      </c>
+      <c r="I38" s="34">
         <f>'Resistencia al corte'!D45</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="32">
         <f>'Resistencia al corte'!E45</f>
-        <v>2.7161064425770305</v>
-      </c>
-      <c r="K38" s="34">
+        <v>2.7147058823529409</v>
+      </c>
+      <c r="K38" s="32">
         <f>'Resistencia al corte'!F45</f>
-        <v>0.20403561826937755</v>
-      </c>
-      <c r="N38" s="36" t="str">
+        <v>0.20405995550983122</v>
+      </c>
+      <c r="N38" s="34" t="str">
         <f t="shared" si="0"/>
         <v>M21X</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="32">
         <f>'Resistencia al corte'!G45</f>
-        <v>26.163679435575602</v>
-      </c>
-      <c r="P38" s="34">
+        <v>26.16346040041152</v>
+      </c>
+      <c r="P38" s="32">
         <f>'Resistencia al corte'!H45</f>
-        <v>60.554450062106589</v>
-      </c>
-      <c r="Q38" s="45">
+        <v>60.55408581564452</v>
+      </c>
+      <c r="Q38" s="43">
         <f>'Resistencia al corte'!I45</f>
-        <v>1.7574806393145495E-4</v>
+        <v>1.7565743944636679E-4</v>
+      </c>
+      <c r="X38" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>M21X</v>
+      </c>
+      <c r="Y38" s="43">
+        <f>'Resistencia al corte'!I45</f>
+        <v>1.7565743944636679E-4</v>
+      </c>
+      <c r="Z38" s="34">
+        <f>'Resistencia al corte'!K45</f>
+        <v>11</v>
+      </c>
+      <c r="AA38" s="34">
+        <f>'Resistencia al corte'!L45</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4971,14 +5464,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="26"/>
+      <c r="B2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="45"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7">
         <v>1.8</v>
@@ -4986,7 +5479,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7">
         <v>0.14000000000000001</v>
@@ -4994,7 +5487,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7">
         <v>1.04</v>
@@ -5002,21 +5495,21 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="26"/>
+      <c r="B8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="45"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7">
         <v>2.5</v>
@@ -5024,7 +5517,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7">
         <v>0.14000000000000001</v>
@@ -5032,7 +5525,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7">
         <v>0.12</v>
@@ -5040,7 +5533,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7">
         <v>10.49</v>
@@ -5048,7 +5541,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7">
         <f>C3*C4*C5*1000</f>
@@ -5057,7 +5550,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7">
         <f>C9*C10*C11*1000</f>
@@ -5066,7 +5559,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="10">
         <f>C15+C16+'Solicitacion cercha madera'!C27*'Solicitacion cercha madera'!C10/'Solicitación timpano'!C6</f>
@@ -5075,7 +5568,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7">
         <f>'Solicitacion cercha madera'!F22/2*5/C6</f>
@@ -5112,10 +5605,10 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="27"/>
+      <c r="B2" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="46"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -5130,7 +5623,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7">
         <v>550</v>
@@ -5149,7 +5642,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7">
         <v>100</v>
@@ -5168,7 +5661,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7">
         <v>50</v>
@@ -5215,7 +5708,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>0.157</v>
@@ -5247,7 +5740,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -5266,7 +5759,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>8.5399999999999991</v>
@@ -5285,7 +5778,7 @@
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <f>C11*C5/1000*C4/1000</f>
@@ -5305,7 +5798,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="23">
         <v>4</v>
@@ -5313,7 +5806,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7">
         <f>C11/10</f>
@@ -5322,7 +5815,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <f>C15*C5/1000*C4/1000</f>
@@ -5335,12 +5828,12 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="27"/>
+      <c r="B19" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="46"/>
       <c r="E19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="25">
         <f>8.4/5*10/6</f>
@@ -5353,7 +5846,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
         <f>C3*C8/2</f>
@@ -5366,7 +5859,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="24">
         <f>$C$16*$C$3*2*5/2</f>
@@ -5375,14 +5868,14 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="24">
         <f>C16*C3*5/2</f>
         <v>5.871249999999999</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="24">
         <f>F19*100</f>
@@ -5390,14 +5883,14 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="27"/>
+      <c r="B25" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="46"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="24">
         <f>C20+C21</f>
@@ -5406,7 +5899,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="24">
         <f>C22</f>
@@ -5415,7 +5908,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="24">
         <f>+F22*6/2</f>

--- a/Tarea 03/diseño corte.xlsx
+++ b/Tarea 03/diseño corte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Google Drive (ignacio.yanez.g@ug.uchile.cl)\Universidad\Semestre 12 Primavera 2018\proyecto albañilería\proyecto-CI5223\Tarea 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5BF50-B492-4A40-926B-CB1F39E3BAB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AD0D77-A614-4368-9A2A-E3BC3D711EE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="4596" activeTab="2" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11976" windowHeight="4596" activeTab="4" xr2:uid="{3C432B30-B9EB-47E7-B497-33C5C308436F}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados por pier" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>Pier</t>
   </si>
@@ -56,42 +56,15 @@
     <t>Caso 2: Armadura resiste todo el corte</t>
   </si>
   <si>
-    <t>$\rho_{alb} \quad (tonf/m^3)$</t>
-  </si>
-  <si>
-    <t>$t \quad (m)$</t>
-  </si>
-  <si>
-    <t>$h_{timp} \quad (m)$</t>
-  </si>
-  <si>
     <t>Propiedades tímpano</t>
   </si>
   <si>
-    <t>$L_{tim} \quad (m)$</t>
-  </si>
-  <si>
     <t>Propiedades cadena tímpano</t>
   </si>
   <si>
-    <t>$L_{cad} \quad (m)$</t>
-  </si>
-  <si>
-    <t>$h_{cad} \quad (m)$</t>
-  </si>
-  <si>
-    <t>$\rho_{cad} \quad (tonf/m^3)$</t>
-  </si>
-  <si>
     <t>Propiedades madera</t>
   </si>
   <si>
-    <t>$\rho_{madera} \quad (550kgf/m^3)$</t>
-  </si>
-  <si>
-    <t>Volumen total de cercha (m3)</t>
-  </si>
-  <si>
     <t>N° costaneras</t>
   </si>
   <si>
@@ -101,60 +74,21 @@
     <t>Volumen total costaneras (m3)</t>
   </si>
   <si>
-    <t>$t_{viga} \quad (mm)$</t>
-  </si>
-  <si>
-    <t>$b_{viga} \quad (mm)$</t>
-  </si>
-  <si>
     <t>N° de cerchas</t>
   </si>
   <si>
-    <t>$b_{tribut} \quad (m)$</t>
-  </si>
-  <si>
-    <t>$V_{tribut} \quad (m^3)$</t>
-  </si>
-  <si>
     <t>Cargas puntuales</t>
   </si>
   <si>
-    <t>$P_{cercha} \quad (kgf)$</t>
-  </si>
-  <si>
-    <t>$P_{cost.int} \quad (kgf)$</t>
-  </si>
-  <si>
-    <t>$P_{cost.timp} \quad (kgf)$</t>
-  </si>
-  <si>
-    <t>$P_{tot.cercha} \quad (kgf)$</t>
-  </si>
-  <si>
-    <t>$P_{tot.timp} \quad (kgf)$</t>
-  </si>
-  <si>
     <t>Solicitaciones a aplicar en ETABS</t>
   </si>
   <si>
-    <t>$Q_{timp} \quad (kgf/m)$</t>
-  </si>
-  <si>
-    <t>$Q_{cad} \quad (kgf/m)$</t>
-  </si>
-  <si>
-    <t>$Q_{total} \quad (kgf/m)$</t>
-  </si>
-  <si>
     <t>L_r (kgf)</t>
   </si>
   <si>
     <t>$A_{trib.cost} [m^2]$</t>
   </si>
   <si>
-    <t>$P_{L_r} \quad (kgf)$</t>
-  </si>
-  <si>
     <t>$Q_{L_r} \quad (kgf/m)$</t>
   </si>
   <si>
@@ -333,6 +267,81 @@
   </si>
   <si>
     <t>N° max hiladas</t>
+  </si>
+  <si>
+    <t>$\rho_{cad} $ $ (tonf/m^3)$</t>
+  </si>
+  <si>
+    <t>$t$ $(m)$</t>
+  </si>
+  <si>
+    <t>$h_{cad}$ $ (m)$</t>
+  </si>
+  <si>
+    <t>$L_{cad} $ $ (m)$</t>
+  </si>
+  <si>
+    <t>$\rho_{alb} $ $ (tonf/m^3)$</t>
+  </si>
+  <si>
+    <t>$t $ $ (m)$</t>
+  </si>
+  <si>
+    <t>$h_{timp} $ $ (m)$</t>
+  </si>
+  <si>
+    <t>$L_{tim} $ $ (m)$</t>
+  </si>
+  <si>
+    <t>$\rho_{madera}$ $ (550kgf/m^3)$</t>
+  </si>
+  <si>
+    <t>$b_{viga} $ $(mm)$</t>
+  </si>
+  <si>
+    <t>$t_{viga}$ $ (mm)$</t>
+  </si>
+  <si>
+    <t>$b_{tribut} $ $(m)$</t>
+  </si>
+  <si>
+    <t>$V_{tribut} $ $(m^3)$</t>
+  </si>
+  <si>
+    <t>$P_{cercha} $ $(kgf)$</t>
+  </si>
+  <si>
+    <t>$P_{cost.int} $ $ (kgf)$</t>
+  </si>
+  <si>
+    <t>$P_{cost.timp}$ $(kgf)$</t>
+  </si>
+  <si>
+    <t>$P_{tot.cercha} $ $ (kgf)$</t>
+  </si>
+  <si>
+    <t>$P_{tot.timp} $ $ (kgf)$</t>
+  </si>
+  <si>
+    <t>$P_{L_r} $ $ (kgf)$</t>
+  </si>
+  <si>
+    <t>Volumen total de cercha ($m^3$)</t>
+  </si>
+  <si>
+    <t>$Q_{timp} $ $ (kgf/m)$</t>
+  </si>
+  <si>
+    <t>$Q_{cad} $ $ (kgf/m)$</t>
+  </si>
+  <si>
+    <t>$Q_{total} $ $ (kgf/m)$</t>
+  </si>
+  <si>
+    <t>$P_{tot.cercha} $ $ (tonf)$</t>
+  </si>
+  <si>
+    <t>$Q_{total} $ $ (tonf/m)$</t>
   </si>
 </sst>
 </file>
@@ -347,7 +356,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +381,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -588,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -609,9 +625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,9 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,13 +720,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,713 +1261,713 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="35">
+        <v>5.6184000000000003</v>
+      </c>
+      <c r="D5" s="35">
+        <v>1.6125</v>
+      </c>
+      <c r="E5" s="35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G5" s="35">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="35">
+        <v>3.9237000000000002</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="E6" s="35">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2.53E-2</v>
+      </c>
+      <c r="G6" s="35">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0.61280000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="35">
+        <v>6.1516999999999999</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1.6083000000000001</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.1255</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.1246</v>
+      </c>
+      <c r="G7" s="35">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1.9033</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="35">
+        <v>4.5664999999999996</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1.6177999999999999</v>
+      </c>
+      <c r="E8" s="35">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.1226</v>
+      </c>
+      <c r="G8" s="35">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H8" s="35">
+        <v>2.569</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="35">
+        <v>5.4017999999999997</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1.4974000000000001</v>
+      </c>
+      <c r="E9" s="35">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="G9" s="35">
+        <v>9.64E-2</v>
+      </c>
+      <c r="H9" s="35">
+        <v>2.7555999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="35">
+        <v>5.4911000000000003</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1.917</v>
+      </c>
+      <c r="E10" s="35">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="35">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H10" s="35">
+        <v>2.0173999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="35">
+        <v>3.0482</v>
+      </c>
+      <c r="D11" s="35">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="E11" s="35">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="35">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0.82750000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="35">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="D12" s="35">
+        <v>1.9681</v>
+      </c>
+      <c r="E12" s="35">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="F12" s="35">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="H12" s="35">
+        <v>1.9935</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="35">
+        <v>3.8298999999999999</v>
+      </c>
+      <c r="D13" s="35">
+        <v>1.5018</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1.43E-2</v>
+      </c>
+      <c r="F13" s="35">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G13" s="35">
+        <v>1.34E-2</v>
+      </c>
+      <c r="H13" s="35">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="35">
+        <v>2.0876999999999999</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="E14" s="35">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G14" s="35">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0.59660000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F15" s="35">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="35">
+        <v>2.4051</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1.4286000000000001</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.1091</v>
+      </c>
+      <c r="F16" s="35">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G16" s="35">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="H16" s="35">
+        <v>1.3162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="35">
+        <v>5.8371000000000004</v>
+      </c>
+      <c r="D17" s="35">
+        <v>1.7826</v>
+      </c>
+      <c r="E17" s="35">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="F17" s="35">
+        <v>7.85E-2</v>
+      </c>
+      <c r="G17" s="35">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="H17" s="35">
+        <v>2.2801</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1.8027</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="E18" s="35">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="F18" s="35">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="G18" s="35">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0.43859999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="35">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="D19" s="35">
+        <v>1.0139</v>
+      </c>
+      <c r="E19" s="35">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="F19" s="35">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="G19" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0.79559999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="35">
+        <v>3.8689</v>
+      </c>
+      <c r="D20" s="35">
+        <v>1.8532999999999999</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0.1285</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="H20" s="35">
+        <v>1.5742</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="C21" s="35">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="E21" s="35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="35">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G21" s="35">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="C22" s="35">
+        <v>2.8378999999999999</v>
+      </c>
+      <c r="D22" s="35">
+        <v>1.3105</v>
+      </c>
+      <c r="E22" s="35">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F22" s="35">
+        <v>2.76E-2</v>
+      </c>
+      <c r="G22" s="35">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="H22" s="35">
+        <v>1.6105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="C23" s="35">
+        <v>3.5465</v>
+      </c>
+      <c r="D23" s="35">
+        <v>1.5612999999999999</v>
+      </c>
+      <c r="E23" s="35">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0.1043</v>
+      </c>
+      <c r="G23" s="35">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="H23" s="35">
+        <v>2.3283</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="C24" s="35">
+        <v>3.7892999999999999</v>
+      </c>
+      <c r="D24" s="35">
+        <v>2.8311000000000002</v>
+      </c>
+      <c r="E24" s="35">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F24" s="35">
+        <v>2.06E-2</v>
+      </c>
+      <c r="G24" s="35">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H24" s="35">
+        <v>3.9679000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="C25" s="35">
+        <v>3.7989000000000002</v>
+      </c>
+      <c r="D25" s="35">
+        <v>1.6698999999999999</v>
+      </c>
+      <c r="E25" s="35">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F25" s="35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="35">
+        <v>1.34E-2</v>
+      </c>
+      <c r="H25" s="35">
+        <v>1.1573</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
+      <c r="C26" s="35">
+        <v>2.1093999999999999</v>
+      </c>
+      <c r="D26" s="35">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="E26" s="35">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="G26" s="35">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="H26" s="35">
+        <v>0.62339999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="37">
-        <v>5.6184000000000003</v>
-      </c>
-      <c r="D5" s="37">
-        <v>1.6125</v>
-      </c>
-      <c r="E5" s="37">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F5" s="37">
-        <v>0.10780000000000001</v>
-      </c>
-      <c r="G5" s="37">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="H5" s="37">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="C27" s="35">
+        <v>1.8062</v>
+      </c>
+      <c r="D27" s="35">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F27" s="35">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="G27" s="35">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0.49059999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="37">
-        <v>3.9237000000000002</v>
-      </c>
-      <c r="D6" s="37">
-        <v>0.89380000000000004</v>
-      </c>
-      <c r="E6" s="37">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="F6" s="37">
-        <v>2.53E-2</v>
-      </c>
-      <c r="G6" s="37">
+      <c r="C28" s="35">
+        <v>2.4131999999999998</v>
+      </c>
+      <c r="D28" s="35">
+        <v>1.3017000000000001</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="F28" s="35">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="G28" s="35">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H28" s="35">
+        <v>1.2627999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="35">
+        <v>1.909</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.6694</v>
+      </c>
+      <c r="E29" s="35">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F29" s="35">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="G29" s="35">
+        <v>6.3E-3</v>
+      </c>
+      <c r="H29" s="35">
+        <v>0.44350000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="35">
+        <v>4.38</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1.4365000000000001</v>
+      </c>
+      <c r="E30" s="35">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0.1124</v>
+      </c>
+      <c r="G30" s="35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="35">
+        <v>2.4363999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="35">
+        <v>3.0326</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1.1612</v>
+      </c>
+      <c r="E31" s="35">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F31" s="35">
         <v>2.87E-2</v>
       </c>
-      <c r="H6" s="37">
-        <v>0.61280000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="37">
-        <v>6.1516999999999999</v>
-      </c>
-      <c r="D7" s="37">
-        <v>1.6083000000000001</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0.1255</v>
-      </c>
-      <c r="F7" s="37">
-        <v>0.1246</v>
-      </c>
-      <c r="G7" s="37">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="H7" s="37">
-        <v>1.9033</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="37">
-        <v>4.5664999999999996</v>
-      </c>
-      <c r="D8" s="37">
-        <v>1.6177999999999999</v>
-      </c>
-      <c r="E8" s="37">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0.1226</v>
-      </c>
-      <c r="G8" s="37">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H8" s="37">
-        <v>2.569</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="37">
-        <v>5.4017999999999997</v>
-      </c>
-      <c r="D9" s="37">
-        <v>1.4974000000000001</v>
-      </c>
-      <c r="E9" s="37">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="F9" s="37">
-        <v>0.11990000000000001</v>
-      </c>
-      <c r="G9" s="37">
-        <v>9.64E-2</v>
-      </c>
-      <c r="H9" s="37">
-        <v>2.7555999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="G31" s="35">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="H31" s="35">
+        <v>0.77729999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="37">
-        <v>5.4911000000000003</v>
-      </c>
-      <c r="D10" s="37">
-        <v>1.917</v>
-      </c>
-      <c r="E10" s="37">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="F10" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="37">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="H10" s="37">
-        <v>2.0173999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="C32" s="35">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="D32" s="35">
+        <v>0.2402</v>
+      </c>
+      <c r="E32" s="35">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="G32" s="35">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="H32" s="35">
+        <v>0.15939999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="37">
-        <v>3.0482</v>
-      </c>
-      <c r="D11" s="37">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="E11" s="37">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F11" s="37">
-        <v>0.03</v>
-      </c>
-      <c r="G11" s="37">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="H11" s="37">
-        <v>0.82750000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="37">
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="D12" s="37">
-        <v>1.9681</v>
-      </c>
-      <c r="E12" s="37">
-        <v>9.5100000000000004E-2</v>
-      </c>
-      <c r="F12" s="37">
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="G12" s="37">
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="H12" s="37">
-        <v>1.9935</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="37">
-        <v>3.8298999999999999</v>
-      </c>
-      <c r="D13" s="37">
-        <v>1.5018</v>
-      </c>
-      <c r="E13" s="37">
-        <v>1.43E-2</v>
-      </c>
-      <c r="F13" s="37">
-        <v>5.3E-3</v>
-      </c>
-      <c r="G13" s="37">
-        <v>1.34E-2</v>
-      </c>
-      <c r="H13" s="37">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="37">
-        <v>2.0876999999999999</v>
-      </c>
-      <c r="D14" s="37">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="E14" s="37">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="F14" s="37">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G14" s="37">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="H14" s="37">
-        <v>0.59660000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="37">
-        <v>1.8138000000000001</v>
-      </c>
-      <c r="D15" s="37">
-        <v>0.73370000000000002</v>
-      </c>
-      <c r="E15" s="37">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="F15" s="37">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="G15" s="37">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="H15" s="37">
-        <v>0.48680000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="37">
-        <v>2.4051</v>
-      </c>
-      <c r="D16" s="37">
-        <v>1.4286000000000001</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0.1091</v>
-      </c>
-      <c r="F16" s="37">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G16" s="37">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="H16" s="37">
-        <v>1.3162</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="37">
-        <v>5.8371000000000004</v>
-      </c>
-      <c r="D17" s="37">
-        <v>1.7826</v>
-      </c>
-      <c r="E17" s="37">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="F17" s="37">
-        <v>7.85E-2</v>
-      </c>
-      <c r="G17" s="37">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="H17" s="37">
-        <v>2.2801</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="37">
-        <v>1.8027</v>
-      </c>
-      <c r="D18" s="37">
-        <v>0.66020000000000001</v>
-      </c>
-      <c r="E18" s="37">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="F18" s="37">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="G18" s="37">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="H18" s="37">
-        <v>0.43859999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="37">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="D19" s="37">
-        <v>1.0139</v>
-      </c>
-      <c r="E19" s="37">
-        <v>4.7199999999999999E-2</v>
-      </c>
-      <c r="F19" s="37">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="G19" s="37">
-        <v>0.06</v>
-      </c>
-      <c r="H19" s="37">
-        <v>0.79559999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="37">
-        <v>3.8689</v>
-      </c>
-      <c r="D20" s="37">
-        <v>1.8532999999999999</v>
-      </c>
-      <c r="E20" s="37">
-        <v>0.16039999999999999</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.1285</v>
-      </c>
-      <c r="G20" s="37">
-        <v>0.13339999999999999</v>
-      </c>
-      <c r="H20" s="37">
-        <v>1.5742</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="37">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="D21" s="37">
-        <v>0.12089999999999999</v>
-      </c>
-      <c r="E21" s="37">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F21" s="37">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="G21" s="37">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="H21" s="37">
-        <v>0.1002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="37">
-        <v>2.8378999999999999</v>
-      </c>
-      <c r="D22" s="37">
-        <v>1.3105</v>
-      </c>
-      <c r="E22" s="37">
-        <v>3.56E-2</v>
-      </c>
-      <c r="F22" s="37">
-        <v>2.76E-2</v>
-      </c>
-      <c r="G22" s="37">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="H22" s="37">
-        <v>1.6105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="37">
-        <v>3.5465</v>
-      </c>
-      <c r="D23" s="37">
-        <v>1.5612999999999999</v>
-      </c>
-      <c r="E23" s="37">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0.1043</v>
-      </c>
-      <c r="G23" s="37">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="H23" s="37">
-        <v>2.3283</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="37">
-        <v>3.7892999999999999</v>
-      </c>
-      <c r="D24" s="37">
-        <v>2.8311000000000002</v>
-      </c>
-      <c r="E24" s="37">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="F24" s="37">
-        <v>2.06E-2</v>
-      </c>
-      <c r="G24" s="37">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="H24" s="37">
-        <v>3.9679000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="37">
-        <v>3.7989000000000002</v>
-      </c>
-      <c r="D25" s="37">
-        <v>1.6698999999999999</v>
-      </c>
-      <c r="E25" s="37">
-        <v>1.44E-2</v>
-      </c>
-      <c r="F25" s="37">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G25" s="37">
-        <v>1.34E-2</v>
-      </c>
-      <c r="H25" s="37">
-        <v>1.1573</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="37">
-        <v>2.1093999999999999</v>
-      </c>
-      <c r="D26" s="37">
-        <v>0.75890000000000002</v>
-      </c>
-      <c r="E26" s="37">
-        <v>2.12E-2</v>
-      </c>
-      <c r="F26" s="37">
-        <v>0.03</v>
-      </c>
-      <c r="G26" s="37">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="H26" s="37">
-        <v>0.62339999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="37">
-        <v>1.8062</v>
-      </c>
-      <c r="D27" s="37">
-        <v>0.74309999999999998</v>
-      </c>
-      <c r="E27" s="37">
-        <v>2.12E-2</v>
-      </c>
-      <c r="F27" s="37">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="G27" s="37">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="H27" s="37">
-        <v>0.49059999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="37">
-        <v>2.4131999999999998</v>
-      </c>
-      <c r="D28" s="37">
-        <v>1.3017000000000001</v>
-      </c>
-      <c r="E28" s="37">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="F28" s="37">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="G28" s="37">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="H28" s="37">
-        <v>1.2627999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="37">
-        <v>1.909</v>
-      </c>
-      <c r="D29" s="37">
-        <v>0.6694</v>
-      </c>
-      <c r="E29" s="37">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="F29" s="37">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="G29" s="37">
-        <v>6.3E-3</v>
-      </c>
-      <c r="H29" s="37">
-        <v>0.44350000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="37">
-        <v>4.38</v>
-      </c>
-      <c r="D30" s="37">
-        <v>1.4365000000000001</v>
-      </c>
-      <c r="E30" s="37">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="F30" s="37">
-        <v>0.1124</v>
-      </c>
-      <c r="G30" s="37">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H30" s="37">
-        <v>2.4363999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="37">
-        <v>3.0326</v>
-      </c>
-      <c r="D31" s="37">
-        <v>1.1612</v>
-      </c>
-      <c r="E31" s="37">
-        <v>6.59E-2</v>
-      </c>
-      <c r="F31" s="37">
-        <v>2.87E-2</v>
-      </c>
-      <c r="G31" s="37">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="H31" s="37">
-        <v>0.77729999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="37">
-        <v>0.81130000000000002</v>
-      </c>
-      <c r="D32" s="37">
-        <v>0.2402</v>
-      </c>
-      <c r="E32" s="37">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="F32" s="37">
-        <v>0.03</v>
-      </c>
-      <c r="G32" s="37">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="H32" s="37">
-        <v>0.15939999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="37">
+      <c r="C33" s="35">
         <v>3.8149999999999999</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="35">
         <v>1.9382999999999999</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="35">
         <v>0.20619999999999999</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="35">
         <v>0.1235</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="35">
         <v>0.1812</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="35">
         <v>2.0171999999999999</v>
       </c>
     </row>
@@ -1969,54 +1994,54 @@
     <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="37"/>
+    <col min="11" max="11" width="11.44140625" style="35"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="22">
+        <v>74</v>
+      </c>
+      <c r="B1" s="20">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="22">
+        <v>73</v>
+      </c>
+      <c r="B2" s="20">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="22">
+        <v>75</v>
+      </c>
+      <c r="B3" s="20">
         <v>17000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="29">
+        <v>72</v>
+      </c>
+      <c r="B4" s="27">
         <f>0.0000139*2</f>
         <v>2.7800000000000001E-5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="28">
+        <v>54</v>
+      </c>
+      <c r="F4" s="26">
         <v>1.3900000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="22">
+        <v>71</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.104</v>
       </c>
       <c r="D5">
@@ -2025,7 +2050,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H7" s="30">
+      <c r="H7" s="28">
         <v>457537853737373</v>
       </c>
     </row>
@@ -2080,60 +2105,60 @@
         <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="str">
+      <c r="A17" s="25" t="str">
         <f>'Resultados por pier'!B5</f>
         <v>M1Y</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <f>'Resultados por pier'!D5</f>
         <v>1.6125</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <f>'Resultados por pier'!H5</f>
         <v>1.86</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>3.9</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <f>ABS(B17/D17/$B$2)</f>
         <v>2.953296703296703</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <f>C17/(B17*D17)</f>
         <v>0.29576624925462136</v>
       </c>
@@ -2149,11 +2174,11 @@
         <f>IF(H17&lt;=E17,"agregar mas muros",IF(H17&lt;=G17,0.0006,1.1*ABS(B17)/($B$3*$B$2*D17)))</f>
         <v>1.9109566903684552E-4</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="24">
         <f>$B$4/(I17*$B$2*$B$5)</f>
         <v>9.9915433403805487</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="34">
         <f>ROUNDUP(J17,0)</f>
         <v>10</v>
       </c>
@@ -2163,26 +2188,26 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="str">
+      <c r="A18" s="25" t="str">
         <f>'Resultados por pier'!B6</f>
         <v>M2Y</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f>'Resultados por pier'!D6</f>
         <v>0.89380000000000004</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f>'Resultados por pier'!H6</f>
         <v>0.61280000000000001</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>2.25</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f t="shared" ref="E18:E30" si="0">ABS(B18/D18/$B$2)</f>
         <v>2.8374603174603172</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <f t="shared" ref="F18:F31" si="1">C18/(B18*D18)</f>
         <v>0.30471644165982947</v>
       </c>
@@ -2198,11 +2223,11 @@
         <f t="shared" ref="I18:I31" si="4">IF(H18&lt;=E18,"agregar mas muros",IF(H18&lt;=G18,0.0006,1.1*ABS(B18)/($B$3*$B$2*D18)))</f>
         <v>1.8360037348272645E-4</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <f t="shared" ref="J18:J31" si="5">$B$4/(I18*$B$2*$B$5)</f>
         <v>10.399437774130098</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="34">
         <f t="shared" ref="K18:K45" si="6">ROUNDUP(J18,0)</f>
         <v>11</v>
       </c>
@@ -2212,26 +2237,26 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="str">
+      <c r="A19" s="25" t="str">
         <f>'Resultados por pier'!B7</f>
         <v>M3Y</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <f>'Resultados por pier'!D7</f>
         <v>1.6083000000000001</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <f>'Resultados por pier'!H7</f>
         <v>1.9033</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>3.9</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <f t="shared" si="0"/>
         <v>2.9456043956043954</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <f t="shared" si="1"/>
         <v>0.30344192067751102</v>
       </c>
@@ -2247,11 +2272,11 @@
         <f t="shared" si="4"/>
         <v>1.9059793148028446E-4</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <f t="shared" si="5"/>
         <v>10.017635787081783</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="34">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -2261,26 +2286,26 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="str">
+      <c r="A20" s="25" t="str">
         <f>'Resultados por pier'!B8</f>
         <v>M4Y</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <f>'Resultados por pier'!D8</f>
         <v>1.6177999999999999</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <f>'Resultados por pier'!H8</f>
         <v>2.569</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="25">
         <v>3.9</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <f t="shared" si="0"/>
         <v>2.9630036630036627</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <f t="shared" si="1"/>
         <v>0.40716896323275359</v>
       </c>
@@ -2296,11 +2321,11 @@
         <f t="shared" si="4"/>
         <v>1.9172376642964878E-4</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="24">
         <f t="shared" si="5"/>
         <v>9.9588105058496943</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="34">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2310,26 +2335,26 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="str">
+      <c r="A21" s="25" t="str">
         <f>'Resultados por pier'!B9</f>
         <v>M5Y</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <f>'Resultados por pier'!D9</f>
         <v>1.4974000000000001</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <f>'Resultados por pier'!H9</f>
         <v>2.7555999999999998</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="25">
         <v>3.9</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <f t="shared" si="0"/>
         <v>2.7424908424908425</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <f t="shared" si="1"/>
         <v>0.47186062679584784</v>
       </c>
@@ -2345,11 +2370,11 @@
         <f t="shared" si="4"/>
         <v>1.7745528980823102E-4</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="24">
         <f t="shared" si="5"/>
         <v>10.759558993163905</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="34">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -2359,26 +2384,26 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="str">
+      <c r="A22" s="25" t="str">
         <f>'Resultados por pier'!B10</f>
         <v>M6Y</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <f>'Resultados por pier'!D10</f>
         <v>1.917</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <f>'Resultados por pier'!H10</f>
         <v>2.0173999999999999</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="25">
         <v>3.9</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <f t="shared" si="0"/>
         <v>3.5109890109890105</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <f t="shared" si="1"/>
         <v>0.26983935904123696</v>
       </c>
@@ -2394,11 +2419,11 @@
         <f t="shared" si="4"/>
         <v>2.2718164188752427E-4</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="24">
         <f t="shared" si="5"/>
         <v>8.4044672072841067</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="34">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2408,26 +2433,26 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="str">
+      <c r="A23" s="25" t="str">
         <f>'Resultados por pier'!B11</f>
         <v>M7Y</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <f>'Resultados por pier'!D11</f>
         <v>1.1180000000000001</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <f>'Resultados por pier'!H11</f>
         <v>0.82750000000000001</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>2.25</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="22">
         <f t="shared" si="0"/>
         <v>3.549206349206349</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <f t="shared" si="1"/>
         <v>0.32896044523951495</v>
       </c>
@@ -2443,11 +2468,11 @@
         <f t="shared" si="4"/>
         <v>2.2965452847805793E-4</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="24">
         <f t="shared" si="5"/>
         <v>8.3139691256864765</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="34">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2457,26 +2482,26 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="str">
+      <c r="A24" s="25" t="str">
         <f>'Resultados por pier'!B12</f>
         <v>M8Y</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <f>'Resultados por pier'!D12</f>
         <v>1.9681</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <f>'Resultados por pier'!H12</f>
         <v>1.9935</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="25">
         <v>3.9</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <f t="shared" si="0"/>
         <v>3.6045787545787542</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="22">
         <f t="shared" si="1"/>
         <v>0.25971944827694027</v>
       </c>
@@ -2492,11 +2517,11 @@
         <f t="shared" si="4"/>
         <v>2.3323744882568415E-4</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="24">
         <f t="shared" si="5"/>
         <v>8.1862525462952274</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="34">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2506,26 +2531,26 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="str">
+      <c r="A25" s="25" t="str">
         <f>'Resultados por pier'!B13</f>
         <v>M1X</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <f>'Resultados por pier'!D13</f>
         <v>1.5018</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <f>'Resultados por pier'!H13</f>
         <v>1.0900000000000001</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="25">
         <v>3.3</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <f t="shared" si="0"/>
         <v>3.2506493506493506</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <f t="shared" si="1"/>
         <v>0.21993809448863386</v>
       </c>
@@ -2541,11 +2566,11 @@
         <f t="shared" si="4"/>
         <v>2.1033613445378154E-4</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="24">
         <f t="shared" si="5"/>
         <v>9.0775684563139603</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="34">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2555,26 +2580,26 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="str">
+      <c r="A26" s="25" t="str">
         <f>'Resultados por pier'!B14</f>
         <v>M2X</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <f>'Resultados por pier'!D14</f>
         <v>0.70109999999999995</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <f>'Resultados por pier'!H14</f>
         <v>0.59660000000000002</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="22">
         <f t="shared" si="0"/>
         <v>4.4713010204081618</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <f t="shared" si="1"/>
         <v>0.75977545489740606</v>
       </c>
@@ -2590,11 +2615,11 @@
         <f t="shared" si="4"/>
         <v>2.8931947779111636E-4</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="24">
         <f t="shared" si="5"/>
         <v>6.5994196931295788</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="34">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -2604,26 +2629,26 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="str">
+      <c r="A27" s="25" t="str">
         <f>'Resultados por pier'!B15</f>
         <v>M3X</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <f>'Resultados por pier'!D15</f>
         <v>0.73370000000000002</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <f>'Resultados por pier'!H15</f>
         <v>0.48680000000000001</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="25">
         <v>0.98</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="22">
         <f t="shared" si="0"/>
         <v>5.3476676384839648</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <f t="shared" si="1"/>
         <v>0.67702697816212487</v>
       </c>
@@ -2639,11 +2664,11 @@
         <f t="shared" si="4"/>
         <v>3.4602555307837425E-4</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="24">
         <f t="shared" si="5"/>
         <v>5.5179180911769166</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="34">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -2653,26 +2678,26 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="str">
+      <c r="A28" s="25" t="str">
         <f>'Resultados por pier'!B16</f>
         <v>M4X</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="22">
         <f>'Resultados por pier'!D16</f>
         <v>1.4286000000000001</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <f>'Resultados por pier'!H16</f>
         <v>1.3162</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="25">
         <v>3.3</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <f t="shared" si="0"/>
         <v>3.0922077922077924</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="22">
         <f t="shared" si="1"/>
         <v>0.27918835562682687</v>
       </c>
@@ -2688,11 +2713,11 @@
         <f t="shared" si="4"/>
         <v>2.0008403361344542E-4</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="24">
         <f t="shared" si="5"/>
         <v>9.5426937615093834</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="34">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2702,26 +2727,26 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="25" t="str">
         <f>'Resultados por pier'!B17</f>
         <v>M5X</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="22">
         <f>'Resultados por pier'!D17</f>
         <v>1.7826</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <f>'Resultados por pier'!H17</f>
         <v>2.2801</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="25">
         <v>3.82</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="22">
         <f t="shared" si="0"/>
         <v>3.3332086761406132</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="22">
         <f t="shared" si="1"/>
         <v>0.33483945739589738</v>
       </c>
@@ -2737,11 +2762,11 @@
         <f t="shared" si="4"/>
         <v>2.1567820845615733E-4</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="24">
         <f t="shared" si="5"/>
         <v>8.8527286692887497</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="34">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2751,26 +2776,26 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="str">
+      <c r="A30" s="25" t="str">
         <f>'Resultados por pier'!B18</f>
         <v>M6X</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="22">
         <f>'Resultados por pier'!D18</f>
         <v>0.66020000000000001</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <f>'Resultados por pier'!H18</f>
         <v>0.43859999999999999</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="25">
         <v>0.98</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="22">
         <f t="shared" si="0"/>
         <v>4.8119533527696783</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="22">
         <f t="shared" si="1"/>
         <v>0.67790218177546691</v>
       </c>
@@ -2786,11 +2811,11 @@
         <f t="shared" si="4"/>
         <v>3.1136168753215574E-4</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="24">
         <f t="shared" si="5"/>
         <v>6.1322273606429922</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="34">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -2800,26 +2825,26 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="str">
+      <c r="A31" s="25" t="str">
         <f>'Resultados por pier'!B19</f>
         <v>M7X</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="22">
         <f>'Resultados por pier'!D19</f>
         <v>1.0139</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <f>'Resultados por pier'!H19</f>
         <v>0.79559999999999997</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="25">
         <v>1.64</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <f>ABS(B31/D31/$B$2)</f>
         <v>4.4159407665505226</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="22">
         <f t="shared" si="1"/>
         <v>0.47847120151840633</v>
       </c>
@@ -2835,11 +2860,11 @@
         <f t="shared" si="4"/>
         <v>2.8573734371797503E-4</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="24">
         <f t="shared" si="5"/>
         <v>6.6821530378094138</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="34">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -2849,26 +2874,26 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="str">
+      <c r="A32" s="25" t="str">
         <f>'Resultados por pier'!B20</f>
         <v>M8X</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="22">
         <f>'Resultados por pier'!D20</f>
         <v>1.8532999999999999</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <f>'Resultados por pier'!H20</f>
         <v>1.5742</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="22">
         <f t="shared" ref="E32:E45" si="8">ABS(B32/D32/$B$2)</f>
         <v>2.5956582633053222</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="22">
         <f t="shared" ref="F32:F45" si="9">C32/(B32*D32)</f>
         <v>0.16654975808917427</v>
       </c>
@@ -2884,11 +2909,11 @@
         <f t="shared" ref="I32:I45" si="12">IF(H32&lt;=E32,"agregar mas muros",IF(H32&lt;=G32,0.0006,1.1*ABS(B32)/($B$3*$B$2*D32)))</f>
         <v>1.6795435821387379E-4</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="24">
         <f t="shared" ref="J32:J45" si="13">$B$4/(I32*$B$2*$B$5)</f>
         <v>11.368211457241836</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="34">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -2898,26 +2923,26 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="str">
+      <c r="A33" s="25" t="str">
         <f>'Resultados por pier'!B21</f>
         <v>M9X</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="22">
         <f>'Resultados por pier'!D21</f>
         <v>0.12089999999999999</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <f>'Resultados por pier'!H21</f>
         <v>0.1002</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="25">
         <v>0.37</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="22">
         <f t="shared" si="8"/>
         <v>2.3339768339768336</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="22">
         <f t="shared" si="9"/>
         <v>2.2399570786667562</v>
       </c>
@@ -2933,11 +2958,11 @@
         <f t="shared" si="12"/>
         <v>1.5102203043379514E-4</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="24">
         <f t="shared" si="13"/>
         <v>12.642795583242235</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="34">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -2947,26 +2972,26 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="str">
+      <c r="A34" s="25" t="str">
         <f>'Resultados por pier'!B22</f>
         <v>M10X</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="22">
         <f>'Resultados por pier'!D22</f>
         <v>1.3105</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <f>'Resultados por pier'!H22</f>
         <v>1.6105</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="25">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="22">
         <f t="shared" si="8"/>
         <v>4.0347906403940881</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="22">
         <f t="shared" si="9"/>
         <v>0.5297070083805866</v>
       </c>
@@ -2982,11 +3007,11 @@
         <f t="shared" si="12"/>
         <v>2.6107468849608813E-4</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="24">
         <f t="shared" si="13"/>
         <v>7.3133886334954621</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="34">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -2996,26 +3021,26 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="str">
+      <c r="A35" s="25" t="str">
         <f>'Resultados por pier'!B23</f>
         <v>M11X</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="22">
         <f>'Resultados por pier'!D23</f>
         <v>1.5612999999999999</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <f>'Resultados por pier'!H23</f>
         <v>2.3283</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="25">
         <v>2.77</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="22">
         <f t="shared" si="8"/>
         <v>4.0260443527591532</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="22">
         <f t="shared" si="9"/>
         <v>0.53836003090084383</v>
       </c>
@@ -3031,11 +3056,11 @@
         <f t="shared" si="12"/>
         <v>2.6050875223735705E-4</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J35" s="24">
         <f t="shared" si="13"/>
         <v>7.329276436750976</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="34">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -3044,30 +3069,30 @@
         <v>3</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="str">
+      <c r="A36" s="25" t="str">
         <f>'Resultados por pier'!B24</f>
         <v>M12X</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="22">
         <f>'Resultados por pier'!D24</f>
         <v>2.8311000000000002</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <f>'Resultados por pier'!H24</f>
         <v>3.9679000000000002</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="25">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="22">
         <f t="shared" si="8"/>
         <v>8.7164408866995089</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="22">
         <f t="shared" si="9"/>
         <v>0.60411208510399883</v>
       </c>
@@ -3083,11 +3108,11 @@
         <f t="shared" si="12"/>
         <v>5.6400499855114477E-4</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="24">
         <f t="shared" si="13"/>
         <v>3.3853257759160051</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="34">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -3097,26 +3122,26 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="str">
+      <c r="A37" s="25" t="str">
         <f>'Resultados por pier'!B25</f>
         <v>M13X</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="22">
         <f>'Resultados por pier'!D25</f>
         <v>1.6698999999999999</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <f>'Resultados por pier'!H25</f>
         <v>1.1573</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="25">
         <v>3.3</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="22">
         <f t="shared" si="8"/>
         <v>3.6145021645021642</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="22">
         <f t="shared" si="9"/>
         <v>0.21001076094195445</v>
       </c>
@@ -3132,11 +3157,11 @@
         <f t="shared" si="12"/>
         <v>2.3387955182072831E-4</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="24">
         <f t="shared" si="13"/>
         <v>8.1637776559628161</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="34">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -3146,26 +3171,26 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="str">
+      <c r="A38" s="25" t="str">
         <f>'Resultados por pier'!B26</f>
         <v>M14X</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="22">
         <f>'Resultados por pier'!D26</f>
         <v>0.75890000000000002</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="22">
         <f>'Resultados por pier'!H26</f>
         <v>0.62339999999999995</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="22">
         <f t="shared" si="8"/>
         <v>4.8399234693877542</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="22">
         <f t="shared" si="9"/>
         <v>0.73343937654123437</v>
       </c>
@@ -3181,11 +3206,11 @@
         <f t="shared" si="12"/>
         <v>3.1317151860744301E-4</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="24">
         <f t="shared" si="13"/>
         <v>6.096788966732305</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="34">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -3195,26 +3220,26 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="str">
+      <c r="A39" s="25" t="str">
         <f>'Resultados por pier'!B27</f>
         <v>M15X</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="22">
         <f>'Resultados por pier'!D27</f>
         <v>0.74309999999999998</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="22">
         <f>'Resultados por pier'!H27</f>
         <v>0.49059999999999998</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="25">
         <v>0.98</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="22">
         <f t="shared" si="8"/>
         <v>5.4161807580174921</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="22">
         <f t="shared" si="9"/>
         <v>0.67368085708243741</v>
       </c>
@@ -3230,11 +3255,11 @@
         <f t="shared" si="12"/>
         <v>3.5045875493054364E-4</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="24">
         <f t="shared" si="13"/>
         <v>5.4481180238144313</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="34">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3244,26 +3269,26 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="str">
+      <c r="A40" s="25" t="str">
         <f>'Resultados por pier'!B28</f>
         <v>M16X</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="22">
         <f>'Resultados por pier'!D28</f>
         <v>1.3017000000000001</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="22">
         <f>'Resultados por pier'!H28</f>
         <v>1.2627999999999999</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="25">
         <v>3.3</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="22">
         <f t="shared" si="8"/>
         <v>2.8175324675324678</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="22">
         <f t="shared" si="9"/>
         <v>0.29397454610637369</v>
       </c>
@@ -3279,11 +3304,11 @@
         <f t="shared" si="12"/>
         <v>1.8231092436974794E-4</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="24">
         <f t="shared" si="13"/>
         <v>10.472990940840674</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="34">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -3293,26 +3318,26 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="str">
+      <c r="A41" s="25" t="str">
         <f>'Resultados por pier'!B29</f>
         <v>M17X</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="22">
         <f>'Resultados por pier'!D29</f>
         <v>0.6694</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="22">
         <f>'Resultados por pier'!H29</f>
         <v>0.44350000000000001</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="25">
         <v>0.97</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="22">
         <f t="shared" si="8"/>
         <v>4.9293078055964648</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="22">
         <f t="shared" si="9"/>
         <v>0.68302434246393917</v>
       </c>
@@ -3328,11 +3353,11 @@
         <f t="shared" si="12"/>
         <v>3.1895521095035961E-4</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="24">
         <f t="shared" si="13"/>
         <v>5.9862344109431032</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="34">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3342,26 +3367,26 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="str">
+      <c r="A42" s="25" t="str">
         <f>'Resultados por pier'!B30</f>
         <v>M18X</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="22">
         <f>'Resultados por pier'!D30</f>
         <v>1.4365000000000001</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="22">
         <f>'Resultados por pier'!H30</f>
         <v>2.4363999999999999</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="25">
         <v>3.22</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="22">
         <f t="shared" si="8"/>
         <v>3.1865572315882873</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="22">
         <f t="shared" si="9"/>
         <v>0.52672882891257855</v>
       </c>
@@ -3377,11 +3402,11 @@
         <f t="shared" si="12"/>
         <v>2.0618899733806567E-4</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="24">
         <f t="shared" si="13"/>
         <v>9.2601481358877802</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="34">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3391,26 +3416,26 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="str">
+      <c r="A43" s="25" t="str">
         <f>'Resultados por pier'!B31</f>
         <v>M19X</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="22">
         <f>'Resultados por pier'!D31</f>
         <v>1.1612</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="22">
         <f>'Resultados por pier'!H31</f>
         <v>0.77729999999999999</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="25">
         <v>1.64</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="22">
         <f t="shared" si="8"/>
         <v>5.0574912891986061</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="22">
         <f t="shared" si="9"/>
         <v>0.40816690891676399</v>
       </c>
@@ -3426,11 +3451,11 @@
         <f t="shared" si="12"/>
         <v>3.2724943635990985E-4</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="24">
         <f t="shared" si="13"/>
         <v>5.8345116819109233</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="34">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3440,26 +3465,26 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="str">
+      <c r="A44" s="25" t="str">
         <f>'Resultados por pier'!B32</f>
         <v>M20X</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="22">
         <f>'Resultados por pier'!D32</f>
         <v>0.2402</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="22">
         <f>'Resultados por pier'!H32</f>
         <v>0.15939999999999999</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="25">
         <v>0.37</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="22">
         <f t="shared" si="8"/>
         <v>4.6370656370656365</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="22">
         <f t="shared" si="9"/>
         <v>1.7935504196952989</v>
       </c>
@@ -3475,11 +3500,11 @@
         <f t="shared" si="12"/>
         <v>3.0004542357483534E-4</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="24">
         <f t="shared" si="13"/>
         <v>6.3635053539299991</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="34">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -3489,26 +3514,26 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="str">
+      <c r="A45" s="25" t="str">
         <f>'Resultados por pier'!B33</f>
         <v>M21X</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="22">
         <f>'Resultados por pier'!D33</f>
         <v>1.9382999999999999</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="22">
         <f>'Resultados por pier'!H33</f>
         <v>2.0171999999999999</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="22">
         <f t="shared" si="8"/>
         <v>2.7147058823529409</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="22">
         <f t="shared" si="9"/>
         <v>0.20405995550983122</v>
       </c>
@@ -3524,11 +3549,11 @@
         <f t="shared" si="12"/>
         <v>1.7565743944636679E-4</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="24">
         <f t="shared" si="13"/>
         <v>10.869682863182321</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="34">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
@@ -3591,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CAD58B-62DD-49B0-8FF5-2F3E018E2753}">
   <dimension ref="B2:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20:R21"/>
+    <sheetView topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3621,105 +3646,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>81</v>
+      <c r="B3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="B4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="29">
         <f>'Resistencia al corte'!B9</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <f>'Resistencia al corte'!B12</f>
         <v>0.63608175575157011</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="B5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="30">
         <f>'Resistencia al corte'!B10</f>
         <v>0.19</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="30">
         <f>'Resistencia al corte'!B13</f>
         <v>0.48641546028061239</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
     </row>
     <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="35" t="str">
+      <c r="F9" s="33" t="str">
         <f>'Resistencia al corte'!A16</f>
         <v>Pier</v>
       </c>
-      <c r="G9" s="35" t="str">
+      <c r="G9" s="33" t="str">
         <f>'Resistencia al corte'!B16</f>
         <v>$V_2 $ $ (tonf)$</v>
       </c>
-      <c r="H9" s="35" t="str">
+      <c r="H9" s="33" t="str">
         <f>'Resistencia al corte'!C16</f>
         <v>$M_3 $$(tonf \cdot m)$</v>
       </c>
-      <c r="I9" s="35" t="str">
+      <c r="I9" s="33" t="str">
         <f>'Resistencia al corte'!D16</f>
         <v>$d $$ (m)$</v>
       </c>
-      <c r="J9" s="35" t="str">
+      <c r="J9" s="33" t="str">
         <f>'Resistencia al corte'!E16</f>
         <v>$\tau_{sol} $$ (tonf/m^2)$</v>
       </c>
-      <c r="K9" s="35" t="str">
+      <c r="K9" s="33" t="str">
         <f>'Resistencia al corte'!F16</f>
         <v>$M/Vd$$ (-)$</v>
       </c>
-      <c r="N9" s="35" t="str">
+      <c r="N9" s="33" t="str">
         <f t="shared" ref="N9:N38" si="0">F9</f>
         <v>Pier</v>
       </c>
-      <c r="O9" s="35" t="str">
+      <c r="O9" s="33" t="str">
         <f>'Resistencia al corte'!G16</f>
         <v>$\tau_{0resist} $ $ (tonf/m^2)$</v>
       </c>
-      <c r="P9" s="35" t="str">
+      <c r="P9" s="33" t="str">
         <f>'Resistencia al corte'!H16</f>
         <v>$\tau_{1resist} $ $ (tonf/m^2)$</v>
       </c>
-      <c r="Q9" s="35" t="str">
+      <c r="Q9" s="33" t="str">
         <f>'Resistencia al corte'!I16</f>
         <v>$\rho_h$ $ (-)$</v>
       </c>
-      <c r="S9" s="44" t="str">
+      <c r="S9" s="42" t="str">
         <f>'Resistencia al corte'!A2</f>
         <v>$b $ $ (m)$</v>
       </c>
@@ -3727,19 +3752,19 @@
         <f>'Resistencia al corte'!B2</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="X9" s="35" t="str">
+      <c r="X9" s="33" t="str">
         <f t="shared" ref="X9:X38" si="1">N9</f>
         <v>Pier</v>
       </c>
-      <c r="Y9" s="35" t="str">
+      <c r="Y9" s="33" t="str">
         <f>'Resistencia al corte'!I16</f>
         <v>$\rho_h$ $ (-)$</v>
       </c>
-      <c r="Z9" s="35" t="str">
+      <c r="Z9" s="33" t="str">
         <f>'Resistencia al corte'!K16</f>
         <v>N°Hiladas</v>
       </c>
-      <c r="AA9" s="35" t="str">
+      <c r="AA9" s="33" t="str">
         <f>'Resistencia al corte'!L16</f>
         <v>N° max hiladas</v>
       </c>
@@ -3749,11 +3774,11 @@
         <f>'Resistencia al corte'!A17</f>
         <v>M1Y</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="23">
         <f>'Resistencia al corte'!B17</f>
         <v>1.6125</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <f>'Resistencia al corte'!C17</f>
         <v>1.86</v>
       </c>
@@ -3761,11 +3786,11 @@
         <f>'Resistencia al corte'!D17</f>
         <v>3.9</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <f>'Resistencia al corte'!E17</f>
         <v>2.953296703296703</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="23">
         <f>'Resistencia al corte'!F17</f>
         <v>0.29576624925462136</v>
       </c>
@@ -3773,19 +3798,19 @@
         <f t="shared" si="0"/>
         <v>M1Y</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="23">
         <f>'Resistencia al corte'!G17</f>
         <v>25.338103756708406</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="23">
         <f>'Resistencia al corte'!H17</f>
         <v>59.181551690029096</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="40">
         <f>'Resistencia al corte'!I17</f>
         <v>1.9109566903684552E-4</v>
       </c>
-      <c r="S10" s="44" t="str">
+      <c r="S10" s="42" t="str">
         <f>'Resistencia al corte'!A4</f>
         <v>$A_{esc} $ $ (m^2)$</v>
       </c>
@@ -3793,19 +3818,19 @@
         <f>'Resistencia al corte'!B4</f>
         <v>2.7800000000000001E-5</v>
       </c>
-      <c r="X10" s="33" t="str">
+      <c r="X10" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M1Y</v>
       </c>
-      <c r="Y10" s="47">
+      <c r="Y10" s="43">
         <f>'Resistencia al corte'!I17</f>
         <v>1.9109566903684552E-4</v>
       </c>
-      <c r="Z10" s="33">
+      <c r="Z10" s="31">
         <f>'Resistencia al corte'!K17</f>
         <v>10</v>
       </c>
-      <c r="AA10" s="33">
+      <c r="AA10" s="31">
         <f>'Resistencia al corte'!L17</f>
         <v>3</v>
       </c>
@@ -3815,11 +3840,11 @@
         <f>'Resistencia al corte'!A18</f>
         <v>M2Y</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="23">
         <f>'Resistencia al corte'!B18</f>
         <v>0.89380000000000004</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <f>'Resistencia al corte'!C18</f>
         <v>0.61280000000000001</v>
       </c>
@@ -3827,11 +3852,11 @@
         <f>'Resistencia al corte'!D18</f>
         <v>2.25</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <f>'Resistencia al corte'!E18</f>
         <v>2.8374603174603172</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="23">
         <f>'Resistencia al corte'!F18</f>
         <v>0.30471644165982947</v>
       </c>
@@ -3839,19 +3864,19 @@
         <f t="shared" si="0"/>
         <v>M2Y</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="23">
         <f>'Resistencia al corte'!G18</f>
         <v>25.257552025061536</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="23">
         <f>'Resistencia al corte'!H18</f>
         <v>59.047597475925116</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="40">
         <f>'Resistencia al corte'!I18</f>
         <v>1.8360037348272645E-4</v>
       </c>
-      <c r="S11" s="44" t="str">
+      <c r="S11" s="42" t="str">
         <f>'Resistencia al corte'!A5</f>
         <v>$Escantillon $ $ (m)$</v>
       </c>
@@ -3859,19 +3884,19 @@
         <f>'Resistencia al corte'!B5</f>
         <v>0.104</v>
       </c>
-      <c r="X11" s="33" t="str">
+      <c r="X11" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M2Y</v>
       </c>
-      <c r="Y11" s="47">
+      <c r="Y11" s="43">
         <f>'Resistencia al corte'!I18</f>
         <v>1.8360037348272645E-4</v>
       </c>
-      <c r="Z11" s="33">
+      <c r="Z11" s="31">
         <f>'Resistencia al corte'!K18</f>
         <v>11</v>
       </c>
-      <c r="AA11" s="33">
+      <c r="AA11" s="31">
         <f>'Resistencia al corte'!L18</f>
         <v>3</v>
       </c>
@@ -3881,11 +3906,11 @@
         <f>'Resistencia al corte'!A19</f>
         <v>M3Y</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="23">
         <f>'Resistencia al corte'!B19</f>
         <v>1.6083000000000001</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <f>'Resistencia al corte'!C19</f>
         <v>1.9033</v>
       </c>
@@ -3893,11 +3918,11 @@
         <f>'Resistencia al corte'!D19</f>
         <v>3.9</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <f>'Resistencia al corte'!E19</f>
         <v>2.9456043956043954</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <f>'Resistencia al corte'!F19</f>
         <v>0.30344192067751102</v>
       </c>
@@ -3905,31 +3930,31 @@
         <f t="shared" si="0"/>
         <v>M3Y</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="23">
         <f>'Resistencia al corte'!G19</f>
         <v>25.269022713902402</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="23">
         <f>'Resistencia al corte'!H19</f>
         <v>59.066672759317484</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="40">
         <f>'Resistencia al corte'!I19</f>
         <v>1.9059793148028446E-4</v>
       </c>
-      <c r="X12" s="33" t="str">
+      <c r="X12" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M3Y</v>
       </c>
-      <c r="Y12" s="47">
+      <c r="Y12" s="43">
         <f>'Resistencia al corte'!I19</f>
         <v>1.9059793148028446E-4</v>
       </c>
-      <c r="Z12" s="33">
+      <c r="Z12" s="31">
         <f>'Resistencia al corte'!K19</f>
         <v>11</v>
       </c>
-      <c r="AA12" s="33">
+      <c r="AA12" s="31">
         <f>'Resistencia al corte'!L19</f>
         <v>3</v>
       </c>
@@ -3939,11 +3964,11 @@
         <f>'Resistencia al corte'!A20</f>
         <v>M4Y</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="23">
         <f>'Resistencia al corte'!B20</f>
         <v>1.6177999999999999</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <f>'Resistencia al corte'!C20</f>
         <v>2.569</v>
       </c>
@@ -3951,11 +3976,11 @@
         <f>'Resistencia al corte'!D20</f>
         <v>3.9</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
         <f>'Resistencia al corte'!E20</f>
         <v>2.9630036630036627</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="23">
         <f>'Resistencia al corte'!F20</f>
         <v>0.40716896323275359</v>
       </c>
@@ -3963,31 +3988,31 @@
         <f t="shared" si="0"/>
         <v>M4Y</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="23">
         <f>'Resistencia al corte'!G20</f>
         <v>24.335479330905219</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="23">
         <f>'Resistencia al corte'!H20</f>
         <v>57.514228539377335</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="40">
         <f>'Resistencia al corte'!I20</f>
         <v>1.9172376642964878E-4</v>
       </c>
-      <c r="X13" s="33" t="str">
+      <c r="X13" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M4Y</v>
       </c>
-      <c r="Y13" s="47">
+      <c r="Y13" s="43">
         <f>'Resistencia al corte'!I20</f>
         <v>1.9172376642964878E-4</v>
       </c>
-      <c r="Z13" s="33">
+      <c r="Z13" s="31">
         <f>'Resistencia al corte'!K20</f>
         <v>10</v>
       </c>
-      <c r="AA13" s="33">
+      <c r="AA13" s="31">
         <f>'Resistencia al corte'!L20</f>
         <v>3</v>
       </c>
@@ -3997,11 +4022,11 @@
         <f>'Resistencia al corte'!A21</f>
         <v>M5Y</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="23">
         <f>'Resistencia al corte'!B21</f>
         <v>1.4974000000000001</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="23">
         <f>'Resistencia al corte'!C21</f>
         <v>2.7555999999999998</v>
       </c>
@@ -4009,11 +4034,11 @@
         <f>'Resistencia al corte'!D21</f>
         <v>3.9</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <f>'Resistencia al corte'!E21</f>
         <v>2.7424908424908425</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="23">
         <f>'Resistencia al corte'!F21</f>
         <v>0.47186062679584784</v>
       </c>
@@ -4021,31 +4046,31 @@
         <f t="shared" si="0"/>
         <v>M5Y</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="23">
         <f>'Resistencia al corte'!G21</f>
         <v>23.753254358837374</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="23">
         <f>'Resistencia al corte'!H21</f>
         <v>56.546012376043144</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="40">
         <f>'Resistencia al corte'!I21</f>
         <v>1.7745528980823102E-4</v>
       </c>
-      <c r="X14" s="33" t="str">
+      <c r="X14" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M5Y</v>
       </c>
-      <c r="Y14" s="47">
+      <c r="Y14" s="43">
         <f>'Resistencia al corte'!I21</f>
         <v>1.7745528980823102E-4</v>
       </c>
-      <c r="Z14" s="33">
+      <c r="Z14" s="31">
         <f>'Resistencia al corte'!K21</f>
         <v>11</v>
       </c>
-      <c r="AA14" s="33">
+      <c r="AA14" s="31">
         <f>'Resistencia al corte'!L21</f>
         <v>3</v>
       </c>
@@ -4055,11 +4080,11 @@
         <f>'Resistencia al corte'!A22</f>
         <v>M6Y</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="23">
         <f>'Resistencia al corte'!B22</f>
         <v>1.917</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="23">
         <f>'Resistencia al corte'!C22</f>
         <v>2.0173999999999999</v>
       </c>
@@ -4067,11 +4092,11 @@
         <f>'Resistencia al corte'!D22</f>
         <v>3.9</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <f>'Resistencia al corte'!E22</f>
         <v>3.5109890109890105</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="23">
         <f>'Resistencia al corte'!F22</f>
         <v>0.26983935904123696</v>
       </c>
@@ -4079,31 +4104,31 @@
         <f t="shared" si="0"/>
         <v>M6Y</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="23">
         <f>'Resistencia al corte'!G22</f>
         <v>25.57144576862887</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="23">
         <f>'Resistencia al corte'!H22</f>
         <v>59.569589851161055</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="40">
         <f>'Resistencia al corte'!I22</f>
         <v>2.2718164188752427E-4</v>
       </c>
-      <c r="X15" s="33" t="str">
+      <c r="X15" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M6Y</v>
       </c>
-      <c r="Y15" s="47">
+      <c r="Y15" s="43">
         <f>'Resistencia al corte'!I22</f>
         <v>2.2718164188752427E-4</v>
       </c>
-      <c r="Z15" s="33">
+      <c r="Z15" s="31">
         <f>'Resistencia al corte'!K22</f>
         <v>9</v>
       </c>
-      <c r="AA15" s="33">
+      <c r="AA15" s="31">
         <f>'Resistencia al corte'!L22</f>
         <v>3</v>
       </c>
@@ -4113,11 +4138,11 @@
         <f>'Resistencia al corte'!A23</f>
         <v>M7Y</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="23">
         <f>'Resistencia al corte'!B23</f>
         <v>1.1180000000000001</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="23">
         <f>'Resistencia al corte'!C23</f>
         <v>0.82750000000000001</v>
       </c>
@@ -4125,11 +4150,11 @@
         <f>'Resistencia al corte'!D23</f>
         <v>2.25</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <f>'Resistencia al corte'!E23</f>
         <v>3.549206349206349</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="23">
         <f>'Resistencia al corte'!F23</f>
         <v>0.32896044523951495</v>
       </c>
@@ -4137,31 +4162,31 @@
         <f t="shared" si="0"/>
         <v>M7Y</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="23">
         <f>'Resistencia al corte'!G23</f>
         <v>25.039355992844371</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="23">
         <f>'Resistencia al corte'!H23</f>
         <v>58.684746455609506</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="40">
         <f>'Resistencia al corte'!I23</f>
         <v>2.2965452847805793E-4</v>
       </c>
-      <c r="X16" s="33" t="str">
+      <c r="X16" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M7Y</v>
       </c>
-      <c r="Y16" s="47">
+      <c r="Y16" s="43">
         <f>'Resistencia al corte'!I23</f>
         <v>2.2965452847805793E-4</v>
       </c>
-      <c r="Z16" s="33">
+      <c r="Z16" s="31">
         <f>'Resistencia al corte'!K23</f>
         <v>9</v>
       </c>
-      <c r="AA16" s="33">
+      <c r="AA16" s="31">
         <f>'Resistencia al corte'!L23</f>
         <v>3</v>
       </c>
@@ -4171,11 +4196,11 @@
         <f>'Resistencia al corte'!A24</f>
         <v>M8Y</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="23">
         <f>'Resistencia al corte'!B24</f>
         <v>1.9681</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="23">
         <f>'Resistencia al corte'!C24</f>
         <v>1.9935</v>
       </c>
@@ -4183,11 +4208,11 @@
         <f>'Resistencia al corte'!D24</f>
         <v>3.9</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <f>'Resistencia al corte'!E24</f>
         <v>3.6045787545787542</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="23">
         <f>'Resistencia al corte'!F24</f>
         <v>0.25971944827694027</v>
       </c>
@@ -4195,31 +4220,31 @@
         <f t="shared" si="0"/>
         <v>M8Y</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="23">
         <f>'Resistencia al corte'!G24</f>
         <v>25.662524965507536</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="23">
         <f>'Resistencia al corte'!H24</f>
         <v>59.721050806619949</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="40">
         <f>'Resistencia al corte'!I24</f>
         <v>2.3323744882568415E-4</v>
       </c>
-      <c r="X17" s="33" t="str">
+      <c r="X17" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M8Y</v>
       </c>
-      <c r="Y17" s="47">
+      <c r="Y17" s="43">
         <f>'Resistencia al corte'!I24</f>
         <v>2.3323744882568415E-4</v>
       </c>
-      <c r="Z17" s="33">
+      <c r="Z17" s="31">
         <f>'Resistencia al corte'!K24</f>
         <v>9</v>
       </c>
-      <c r="AA17" s="33">
+      <c r="AA17" s="31">
         <f>'Resistencia al corte'!L24</f>
         <v>3</v>
       </c>
@@ -4229,11 +4254,11 @@
         <f>'Resistencia al corte'!A25</f>
         <v>M1X</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="23">
         <f>'Resistencia al corte'!B25</f>
         <v>1.5018</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="23">
         <f>'Resistencia al corte'!C25</f>
         <v>1.0900000000000001</v>
       </c>
@@ -4241,11 +4266,11 @@
         <f>'Resistencia al corte'!D25</f>
         <v>3.3</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="23">
         <f>'Resistencia al corte'!E25</f>
         <v>3.2506493506493506</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="23">
         <f>'Resistencia al corte'!F25</f>
         <v>0.21993809448863386</v>
       </c>
@@ -4253,31 +4278,31 @@
         <f t="shared" si="0"/>
         <v>M1X</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="23">
         <f>'Resistencia al corte'!G25</f>
         <v>26.020557149602297</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="23">
         <f>'Resistencia al corte'!H25</f>
         <v>60.316443591651478</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="40">
         <f>'Resistencia al corte'!I25</f>
         <v>2.1033613445378154E-4</v>
       </c>
-      <c r="X18" s="33" t="str">
+      <c r="X18" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M1X</v>
       </c>
-      <c r="Y18" s="47">
+      <c r="Y18" s="43">
         <f>'Resistencia al corte'!I25</f>
         <v>2.1033613445378154E-4</v>
       </c>
-      <c r="Z18" s="33">
+      <c r="Z18" s="31">
         <f>'Resistencia al corte'!K25</f>
         <v>10</v>
       </c>
-      <c r="AA18" s="33">
+      <c r="AA18" s="31">
         <f>'Resistencia al corte'!L25</f>
         <v>3</v>
       </c>
@@ -4287,11 +4312,11 @@
         <f>'Resistencia al corte'!A26</f>
         <v>M2X</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="23">
         <f>'Resistencia al corte'!B26</f>
         <v>0.70109999999999995</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="23">
         <f>'Resistencia al corte'!C26</f>
         <v>0.59660000000000002</v>
       </c>
@@ -4299,11 +4324,11 @@
         <f>'Resistencia al corte'!D26</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="23">
         <f>'Resistencia al corte'!E26</f>
         <v>4.4713010204081618</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="23">
         <f>'Resistencia al corte'!F26</f>
         <v>0.75977545489740606</v>
       </c>
@@ -4311,31 +4336,31 @@
         <f t="shared" si="0"/>
         <v>M2X</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="23">
         <f>'Resistencia al corte'!G26</f>
         <v>21.162020905923345</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="23">
         <f>'Resistencia al corte'!H26</f>
         <v>52.236897802731363</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="40">
         <f>'Resistencia al corte'!I26</f>
         <v>2.8931947779111636E-4</v>
       </c>
-      <c r="X19" s="33" t="str">
+      <c r="X19" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M2X</v>
       </c>
-      <c r="Y19" s="47">
+      <c r="Y19" s="43">
         <f>'Resistencia al corte'!I26</f>
         <v>2.8931947779111636E-4</v>
       </c>
-      <c r="Z19" s="33">
+      <c r="Z19" s="31">
         <f>'Resistencia al corte'!K26</f>
         <v>7</v>
       </c>
-      <c r="AA19" s="33">
+      <c r="AA19" s="31">
         <f>'Resistencia al corte'!L26</f>
         <v>3</v>
       </c>
@@ -4345,11 +4370,11 @@
         <f>'Resistencia al corte'!A27</f>
         <v>M3X</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="23">
         <f>'Resistencia al corte'!B27</f>
         <v>0.73370000000000002</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="23">
         <f>'Resistencia al corte'!C27</f>
         <v>0.48680000000000001</v>
       </c>
@@ -4357,11 +4382,11 @@
         <f>'Resistencia al corte'!D27</f>
         <v>0.98</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <f>'Resistencia al corte'!E27</f>
         <v>5.3476676384839648</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="23">
         <f>'Resistencia al corte'!F27</f>
         <v>0.67702697816212487</v>
       </c>
@@ -4369,31 +4394,31 @@
         <f t="shared" si="0"/>
         <v>M3X</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="23">
         <f>'Resistencia al corte'!G27</f>
         <v>21.906757196540877</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="23">
         <f>'Resistencia al corte'!H27</f>
         <v>53.475363599614788</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="40">
         <f>'Resistencia al corte'!I27</f>
         <v>3.4602555307837425E-4</v>
       </c>
-      <c r="X20" s="33" t="str">
+      <c r="X20" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M3X</v>
       </c>
-      <c r="Y20" s="47">
+      <c r="Y20" s="43">
         <f>'Resistencia al corte'!I27</f>
         <v>3.4602555307837425E-4</v>
       </c>
-      <c r="Z20" s="33">
+      <c r="Z20" s="31">
         <f>'Resistencia al corte'!K27</f>
         <v>6</v>
       </c>
-      <c r="AA20" s="33">
+      <c r="AA20" s="31">
         <f>'Resistencia al corte'!L27</f>
         <v>3</v>
       </c>
@@ -4403,11 +4428,11 @@
         <f>'Resistencia al corte'!A28</f>
         <v>M4X</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="23">
         <f>'Resistencia al corte'!B28</f>
         <v>1.4286000000000001</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="23">
         <f>'Resistencia al corte'!C28</f>
         <v>1.3162</v>
       </c>
@@ -4415,11 +4440,11 @@
         <f>'Resistencia al corte'!D28</f>
         <v>3.3</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <f>'Resistencia al corte'!E28</f>
         <v>3.0922077922077924</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="23">
         <f>'Resistencia al corte'!F28</f>
         <v>0.27918835562682687</v>
       </c>
@@ -4427,31 +4452,31 @@
         <f t="shared" si="0"/>
         <v>M4X</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="23">
         <f>'Resistencia al corte'!G28</f>
         <v>25.487304799358562</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="23">
         <f>'Resistencia al corte'!H28</f>
         <v>59.429666882627465</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="40">
         <f>'Resistencia al corte'!I28</f>
         <v>2.0008403361344542E-4</v>
       </c>
-      <c r="X21" s="33" t="str">
+      <c r="X21" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M4X</v>
       </c>
-      <c r="Y21" s="47">
+      <c r="Y21" s="43">
         <f>'Resistencia al corte'!I28</f>
         <v>2.0008403361344542E-4</v>
       </c>
-      <c r="Z21" s="33">
+      <c r="Z21" s="31">
         <f>'Resistencia al corte'!K28</f>
         <v>10</v>
       </c>
-      <c r="AA21" s="33">
+      <c r="AA21" s="31">
         <f>'Resistencia al corte'!L28</f>
         <v>3</v>
       </c>
@@ -4461,11 +4486,11 @@
         <f>'Resistencia al corte'!A29</f>
         <v>M5X</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="23">
         <f>'Resistencia al corte'!B29</f>
         <v>1.7826</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="23">
         <f>'Resistencia al corte'!C29</f>
         <v>2.2801</v>
       </c>
@@ -4473,11 +4498,11 @@
         <f>'Resistencia al corte'!D29</f>
         <v>3.82</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <f>'Resistencia al corte'!E29</f>
         <v>3.3332086761406132</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="23">
         <f>'Resistencia al corte'!F29</f>
         <v>0.33483945739589738</v>
       </c>
@@ -4485,31 +4510,31 @@
         <f t="shared" si="0"/>
         <v>M5X</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="23">
         <f>'Resistencia al corte'!G29</f>
         <v>24.986444883436924</v>
       </c>
-      <c r="P22" s="25">
+      <c r="P22" s="23">
         <f>'Resistencia al corte'!H29</f>
         <v>58.596757458562053</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="40">
         <f>'Resistencia al corte'!I29</f>
         <v>2.1567820845615733E-4</v>
       </c>
-      <c r="X22" s="33" t="str">
+      <c r="X22" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M5X</v>
       </c>
-      <c r="Y22" s="47">
+      <c r="Y22" s="43">
         <f>'Resistencia al corte'!I29</f>
         <v>2.1567820845615733E-4</v>
       </c>
-      <c r="Z22" s="33">
+      <c r="Z22" s="31">
         <f>'Resistencia al corte'!K29</f>
         <v>9</v>
       </c>
-      <c r="AA22" s="33">
+      <c r="AA22" s="31">
         <f>'Resistencia al corte'!L29</f>
         <v>3</v>
       </c>
@@ -4519,11 +4544,11 @@
         <f>'Resistencia al corte'!A30</f>
         <v>M6X</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="23">
         <f>'Resistencia al corte'!B30</f>
         <v>0.66020000000000001</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="23">
         <f>'Resistencia al corte'!C30</f>
         <v>0.43859999999999999</v>
       </c>
@@ -4531,11 +4556,11 @@
         <f>'Resistencia al corte'!D30</f>
         <v>0.98</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="23">
         <f>'Resistencia al corte'!E30</f>
         <v>4.8119533527696783</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="23">
         <f>'Resistencia al corte'!F30</f>
         <v>0.67790218177546691</v>
       </c>
@@ -4543,31 +4568,31 @@
         <f t="shared" si="0"/>
         <v>M6X</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="23">
         <f>'Resistencia al corte'!G30</f>
         <v>21.898880364020798</v>
       </c>
-      <c r="P23" s="25">
+      <c r="P23" s="23">
         <f>'Resistencia al corte'!H30</f>
         <v>53.462264751355612</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="40">
         <f>'Resistencia al corte'!I30</f>
         <v>3.1136168753215574E-4</v>
       </c>
-      <c r="X23" s="33" t="str">
+      <c r="X23" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M6X</v>
       </c>
-      <c r="Y23" s="47">
+      <c r="Y23" s="43">
         <f>'Resistencia al corte'!I30</f>
         <v>3.1136168753215574E-4</v>
       </c>
-      <c r="Z23" s="33">
+      <c r="Z23" s="31">
         <f>'Resistencia al corte'!K30</f>
         <v>7</v>
       </c>
-      <c r="AA23" s="33">
+      <c r="AA23" s="31">
         <f>'Resistencia al corte'!L30</f>
         <v>3</v>
       </c>
@@ -4577,11 +4602,11 @@
         <f>'Resistencia al corte'!A31</f>
         <v>M7X</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="23">
         <f>'Resistencia al corte'!B31</f>
         <v>1.0139</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="23">
         <f>'Resistencia al corte'!C31</f>
         <v>0.79559999999999997</v>
       </c>
@@ -4589,11 +4614,11 @@
         <f>'Resistencia al corte'!D31</f>
         <v>1.64</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="23">
         <f>'Resistencia al corte'!E31</f>
         <v>4.4159407665505226</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="23">
         <f>'Resistencia al corte'!F31</f>
         <v>0.47847120151840633</v>
       </c>
@@ -4601,31 +4626,31 @@
         <f t="shared" si="0"/>
         <v>M7X</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="23">
         <f>'Resistencia al corte'!G31</f>
         <v>23.693759186334347</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24" s="23">
         <f>'Resistencia al corte'!H31</f>
         <v>56.44707435307722</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="40">
         <f>'Resistencia al corte'!I31</f>
         <v>2.8573734371797503E-4</v>
       </c>
-      <c r="X24" s="33" t="str">
+      <c r="X24" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M7X</v>
       </c>
-      <c r="Y24" s="47">
+      <c r="Y24" s="43">
         <f>'Resistencia al corte'!I31</f>
         <v>2.8573734371797503E-4</v>
       </c>
-      <c r="Z24" s="33">
+      <c r="Z24" s="31">
         <f>'Resistencia al corte'!K31</f>
         <v>7</v>
       </c>
-      <c r="AA24" s="33">
+      <c r="AA24" s="31">
         <f>'Resistencia al corte'!L31</f>
         <v>3</v>
       </c>
@@ -4635,11 +4660,11 @@
         <f>'Resistencia al corte'!A32</f>
         <v>M8X</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="23">
         <f>'Resistencia al corte'!B32</f>
         <v>1.8532999999999999</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="23">
         <f>'Resistencia al corte'!C32</f>
         <v>1.5742</v>
       </c>
@@ -4647,11 +4672,11 @@
         <f>'Resistencia al corte'!D32</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="23">
         <f>'Resistencia al corte'!E32</f>
         <v>2.5956582633053222</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="23">
         <f>'Resistencia al corte'!F32</f>
         <v>0.16654975808917427</v>
       </c>
@@ -4659,31 +4684,31 @@
         <f t="shared" si="0"/>
         <v>M8X</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="23">
         <f>'Resistencia al corte'!G32</f>
         <v>26.501052177197433</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="23">
         <f>'Resistencia al corte'!H32</f>
         <v>61.11548704467792</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="40">
         <f>'Resistencia al corte'!I32</f>
         <v>1.6795435821387379E-4</v>
       </c>
-      <c r="X25" s="33" t="str">
+      <c r="X25" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M8X</v>
       </c>
-      <c r="Y25" s="47">
+      <c r="Y25" s="43">
         <f>'Resistencia al corte'!I32</f>
         <v>1.6795435821387379E-4</v>
       </c>
-      <c r="Z25" s="33">
+      <c r="Z25" s="31">
         <f>'Resistencia al corte'!K32</f>
         <v>12</v>
       </c>
-      <c r="AA25" s="33">
+      <c r="AA25" s="31">
         <f>'Resistencia al corte'!L32</f>
         <v>3</v>
       </c>
@@ -4693,11 +4718,11 @@
         <f>'Resistencia al corte'!A33</f>
         <v>M9X</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="23">
         <f>'Resistencia al corte'!B33</f>
         <v>0.12089999999999999</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="23">
         <f>'Resistencia al corte'!C33</f>
         <v>0.1002</v>
       </c>
@@ -4705,11 +4730,11 @@
         <f>'Resistencia al corte'!D33</f>
         <v>0.37</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="23">
         <f>'Resistencia al corte'!E33</f>
         <v>2.3339768339768336</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="23">
         <f>'Resistencia al corte'!F33</f>
         <v>2.2399570786667562</v>
       </c>
@@ -4717,31 +4742,31 @@
         <f t="shared" si="0"/>
         <v>M9X</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="23">
         <f>'Resistencia al corte'!G33</f>
         <v>19</v>
       </c>
-      <c r="P26" s="25">
+      <c r="P26" s="23">
         <f>'Resistencia al corte'!H33</f>
         <v>48.641546028061242</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="40">
         <f>'Resistencia al corte'!I33</f>
         <v>1.5102203043379514E-4</v>
       </c>
-      <c r="X26" s="33" t="str">
+      <c r="X26" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M9X</v>
       </c>
-      <c r="Y26" s="47">
+      <c r="Y26" s="43">
         <f>'Resistencia al corte'!I33</f>
         <v>1.5102203043379514E-4</v>
       </c>
-      <c r="Z26" s="33">
+      <c r="Z26" s="31">
         <f>'Resistencia al corte'!K33</f>
         <v>13</v>
       </c>
-      <c r="AA26" s="33">
+      <c r="AA26" s="31">
         <f>'Resistencia al corte'!L33</f>
         <v>3</v>
       </c>
@@ -4751,11 +4776,11 @@
         <f>'Resistencia al corte'!A34</f>
         <v>M10X</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="23">
         <f>'Resistencia al corte'!B34</f>
         <v>1.3105</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="23">
         <f>'Resistencia al corte'!C34</f>
         <v>1.6105</v>
       </c>
@@ -4763,11 +4788,11 @@
         <f>'Resistencia al corte'!D34</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="23">
         <f>'Resistencia al corte'!E34</f>
         <v>4.0347906403940881</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="23">
         <f>'Resistencia al corte'!F34</f>
         <v>0.5297070083805866</v>
       </c>
@@ -4775,31 +4800,31 @@
         <f t="shared" si="0"/>
         <v>M10X</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="23">
         <f>'Resistencia al corte'!G34</f>
         <v>23.232636924574724</v>
       </c>
-      <c r="P27" s="25">
+      <c r="P27" s="23">
         <f>'Resistencia al corte'!H34</f>
         <v>55.680247012224413</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="40">
         <f>'Resistencia al corte'!I34</f>
         <v>2.6107468849608813E-4</v>
       </c>
-      <c r="X27" s="33" t="str">
+      <c r="X27" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M10X</v>
       </c>
-      <c r="Y27" s="47">
+      <c r="Y27" s="43">
         <f>'Resistencia al corte'!I34</f>
         <v>2.6107468849608813E-4</v>
       </c>
-      <c r="Z27" s="33">
+      <c r="Z27" s="31">
         <f>'Resistencia al corte'!K34</f>
         <v>8</v>
       </c>
-      <c r="AA27" s="33">
+      <c r="AA27" s="31">
         <f>'Resistencia al corte'!L34</f>
         <v>3</v>
       </c>
@@ -4809,11 +4834,11 @@
         <f>'Resistencia al corte'!A35</f>
         <v>M11X</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="23">
         <f>'Resistencia al corte'!B35</f>
         <v>1.5612999999999999</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="23">
         <f>'Resistencia al corte'!C35</f>
         <v>2.3283</v>
       </c>
@@ -4821,11 +4846,11 @@
         <f>'Resistencia al corte'!D35</f>
         <v>2.77</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="23">
         <f>'Resistencia al corte'!E35</f>
         <v>4.0260443527591532</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="23">
         <f>'Resistencia al corte'!F35</f>
         <v>0.53836003090084383</v>
       </c>
@@ -4833,31 +4858,31 @@
         <f t="shared" si="0"/>
         <v>M11X</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="23">
         <f>'Resistencia al corte'!G35</f>
         <v>23.154759721892407</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="23">
         <f>'Resistencia al corte'!H35</f>
         <v>55.550740429701051</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="40">
         <f>'Resistencia al corte'!I35</f>
         <v>2.6050875223735705E-4</v>
       </c>
-      <c r="X28" s="33" t="str">
+      <c r="X28" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M11X</v>
       </c>
-      <c r="Y28" s="47">
+      <c r="Y28" s="43">
         <f>'Resistencia al corte'!I35</f>
         <v>2.6050875223735705E-4</v>
       </c>
-      <c r="Z28" s="33">
+      <c r="Z28" s="31">
         <f>'Resistencia al corte'!K35</f>
         <v>8</v>
       </c>
-      <c r="AA28" s="33">
+      <c r="AA28" s="31">
         <f>'Resistencia al corte'!L35</f>
         <v>3</v>
       </c>
@@ -4867,11 +4892,11 @@
         <f>'Resistencia al corte'!A36</f>
         <v>M12X</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="23">
         <f>'Resistencia al corte'!B36</f>
         <v>2.8311000000000002</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="23">
         <f>'Resistencia al corte'!C36</f>
         <v>3.9679000000000002</v>
       </c>
@@ -4879,11 +4904,11 @@
         <f>'Resistencia al corte'!D36</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="23">
         <f>'Resistencia al corte'!E36</f>
         <v>8.7164408866995089</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="23">
         <f>'Resistencia al corte'!F36</f>
         <v>0.60411208510399883</v>
       </c>
@@ -4891,31 +4916,31 @@
         <f t="shared" si="0"/>
         <v>M12X</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="23">
         <f>'Resistencia al corte'!G36</f>
         <v>22.562991234064011</v>
       </c>
-      <c r="P29" s="25">
+      <c r="P29" s="23">
         <f>'Resistencia al corte'!H36</f>
         <v>54.566653792481866</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="40">
         <f>'Resistencia al corte'!I36</f>
         <v>5.6400499855114477E-4</v>
       </c>
-      <c r="X29" s="33" t="str">
+      <c r="X29" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M12X</v>
       </c>
-      <c r="Y29" s="47">
+      <c r="Y29" s="43">
         <f>'Resistencia al corte'!I36</f>
         <v>5.6400499855114477E-4</v>
       </c>
-      <c r="Z29" s="33">
+      <c r="Z29" s="31">
         <f>'Resistencia al corte'!K36</f>
         <v>4</v>
       </c>
-      <c r="AA29" s="33">
+      <c r="AA29" s="31">
         <f>'Resistencia al corte'!L36</f>
         <v>3</v>
       </c>
@@ -4925,11 +4950,11 @@
         <f>'Resistencia al corte'!A37</f>
         <v>M13X</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="23">
         <f>'Resistencia al corte'!B37</f>
         <v>1.6698999999999999</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="23">
         <f>'Resistencia al corte'!C37</f>
         <v>1.1573</v>
       </c>
@@ -4937,11 +4962,11 @@
         <f>'Resistencia al corte'!D37</f>
         <v>3.3</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="23">
         <f>'Resistencia al corte'!E37</f>
         <v>3.6145021645021642</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="23">
         <f>'Resistencia al corte'!F37</f>
         <v>0.21001076094195445</v>
       </c>
@@ -4949,31 +4974,31 @@
         <f t="shared" si="0"/>
         <v>M13X</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="23">
         <f>'Resistencia al corte'!G37</f>
         <v>26.109903151522413</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="23">
         <f>'Resistencia al corte'!H37</f>
         <v>60.465022315235082</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="40">
         <f>'Resistencia al corte'!I37</f>
         <v>2.3387955182072831E-4</v>
       </c>
-      <c r="X30" s="33" t="str">
+      <c r="X30" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M13X</v>
       </c>
-      <c r="Y30" s="47">
+      <c r="Y30" s="43">
         <f>'Resistencia al corte'!I37</f>
         <v>2.3387955182072831E-4</v>
       </c>
-      <c r="Z30" s="33">
+      <c r="Z30" s="31">
         <f>'Resistencia al corte'!K37</f>
         <v>9</v>
       </c>
-      <c r="AA30" s="33">
+      <c r="AA30" s="31">
         <f>'Resistencia al corte'!L37</f>
         <v>3</v>
       </c>
@@ -4983,11 +5008,11 @@
         <f>'Resistencia al corte'!A38</f>
         <v>M14X</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="23">
         <f>'Resistencia al corte'!B38</f>
         <v>0.75890000000000002</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="23">
         <f>'Resistencia al corte'!C38</f>
         <v>0.62339999999999995</v>
       </c>
@@ -4995,11 +5020,11 @@
         <f>'Resistencia al corte'!D38</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="23">
         <f>'Resistencia al corte'!E38</f>
         <v>4.8399234693877542</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="23">
         <f>'Resistencia al corte'!F38</f>
         <v>0.73343937654123437</v>
       </c>
@@ -5007,31 +5032,31 @@
         <f t="shared" si="0"/>
         <v>M14X</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="23">
         <f>'Resistencia al corte'!G38</f>
         <v>21.399045611128891</v>
       </c>
-      <c r="P31" s="25">
+      <c r="P31" s="23">
         <f>'Resistencia al corte'!H38</f>
         <v>52.63106013121147</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="40">
         <f>'Resistencia al corte'!I38</f>
         <v>3.1317151860744301E-4</v>
       </c>
-      <c r="X31" s="33" t="str">
+      <c r="X31" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M14X</v>
       </c>
-      <c r="Y31" s="47">
+      <c r="Y31" s="43">
         <f>'Resistencia al corte'!I38</f>
         <v>3.1317151860744301E-4</v>
       </c>
-      <c r="Z31" s="33">
+      <c r="Z31" s="31">
         <f>'Resistencia al corte'!K38</f>
         <v>7</v>
       </c>
-      <c r="AA31" s="33">
+      <c r="AA31" s="31">
         <f>'Resistencia al corte'!L38</f>
         <v>3</v>
       </c>
@@ -5041,11 +5066,11 @@
         <f>'Resistencia al corte'!A39</f>
         <v>M15X</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="23">
         <f>'Resistencia al corte'!B39</f>
         <v>0.74309999999999998</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="23">
         <f>'Resistencia al corte'!C39</f>
         <v>0.49059999999999998</v>
       </c>
@@ -5053,11 +5078,11 @@
         <f>'Resistencia al corte'!D39</f>
         <v>0.98</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="23">
         <f>'Resistencia al corte'!E39</f>
         <v>5.4161807580174921</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="23">
         <f>'Resistencia al corte'!F39</f>
         <v>0.67368085708243741</v>
       </c>
@@ -5065,31 +5090,31 @@
         <f t="shared" si="0"/>
         <v>M15X</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="23">
         <f>'Resistencia al corte'!G39</f>
         <v>21.936872286258062</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="23">
         <f>'Resistencia al corte'!H39</f>
         <v>53.525443754234203</v>
       </c>
-      <c r="Q32" s="42">
+      <c r="Q32" s="40">
         <f>'Resistencia al corte'!I39</f>
         <v>3.5045875493054364E-4</v>
       </c>
-      <c r="X32" s="33" t="str">
+      <c r="X32" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M15X</v>
       </c>
-      <c r="Y32" s="47">
+      <c r="Y32" s="43">
         <f>'Resistencia al corte'!I39</f>
         <v>3.5045875493054364E-4</v>
       </c>
-      <c r="Z32" s="33">
+      <c r="Z32" s="31">
         <f>'Resistencia al corte'!K39</f>
         <v>6</v>
       </c>
-      <c r="AA32" s="33">
+      <c r="AA32" s="31">
         <f>'Resistencia al corte'!L39</f>
         <v>3</v>
       </c>
@@ -5099,11 +5124,11 @@
         <f>'Resistencia al corte'!A40</f>
         <v>M16X</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="23">
         <f>'Resistencia al corte'!B40</f>
         <v>1.3017000000000001</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="23">
         <f>'Resistencia al corte'!C40</f>
         <v>1.2627999999999999</v>
       </c>
@@ -5111,11 +5136,11 @@
         <f>'Resistencia al corte'!D40</f>
         <v>3.3</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="23">
         <f>'Resistencia al corte'!E40</f>
         <v>2.8175324675324678</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="23">
         <f>'Resistencia al corte'!F40</f>
         <v>0.29397454610637369</v>
       </c>
@@ -5123,31 +5148,31 @@
         <f t="shared" si="0"/>
         <v>M16X</v>
       </c>
-      <c r="O33" s="25">
+      <c r="O33" s="23">
         <f>'Resistencia al corte'!G40</f>
         <v>25.35422908504264</v>
       </c>
-      <c r="P33" s="25">
+      <c r="P33" s="23">
         <f>'Resistencia al corte'!H40</f>
         <v>59.208367447307289</v>
       </c>
-      <c r="Q33" s="42">
+      <c r="Q33" s="40">
         <f>'Resistencia al corte'!I40</f>
         <v>1.8231092436974794E-4</v>
       </c>
-      <c r="X33" s="33" t="str">
+      <c r="X33" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M16X</v>
       </c>
-      <c r="Y33" s="47">
+      <c r="Y33" s="43">
         <f>'Resistencia al corte'!I40</f>
         <v>1.8231092436974794E-4</v>
       </c>
-      <c r="Z33" s="33">
+      <c r="Z33" s="31">
         <f>'Resistencia al corte'!K40</f>
         <v>11</v>
       </c>
-      <c r="AA33" s="33">
+      <c r="AA33" s="31">
         <f>'Resistencia al corte'!L40</f>
         <v>3</v>
       </c>
@@ -5157,11 +5182,11 @@
         <f>'Resistencia al corte'!A41</f>
         <v>M17X</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="23">
         <f>'Resistencia al corte'!B41</f>
         <v>0.6694</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="23">
         <f>'Resistencia al corte'!C41</f>
         <v>0.44350000000000001</v>
       </c>
@@ -5169,11 +5194,11 @@
         <f>'Resistencia al corte'!D41</f>
         <v>0.97</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="23">
         <f>'Resistencia al corte'!E41</f>
         <v>4.9293078055964648</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="23">
         <f>'Resistencia al corte'!F41</f>
         <v>0.68302434246393917</v>
       </c>
@@ -5181,31 +5206,31 @@
         <f t="shared" si="0"/>
         <v>M17X</v>
       </c>
-      <c r="O34" s="25">
+      <c r="O34" s="23">
         <f>'Resistencia al corte'!G41</f>
         <v>21.85278091782455</v>
       </c>
-      <c r="P34" s="25">
+      <c r="P34" s="23">
         <f>'Resistencia al corte'!H41</f>
         <v>53.385603269850556</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="40">
         <f>'Resistencia al corte'!I41</f>
         <v>3.1895521095035961E-4</v>
       </c>
-      <c r="X34" s="33" t="str">
+      <c r="X34" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M17X</v>
       </c>
-      <c r="Y34" s="47">
+      <c r="Y34" s="43">
         <f>'Resistencia al corte'!I41</f>
         <v>3.1895521095035961E-4</v>
       </c>
-      <c r="Z34" s="33">
+      <c r="Z34" s="31">
         <f>'Resistencia al corte'!K41</f>
         <v>6</v>
       </c>
-      <c r="AA34" s="33">
+      <c r="AA34" s="31">
         <f>'Resistencia al corte'!L41</f>
         <v>3</v>
       </c>
@@ -5215,11 +5240,11 @@
         <f>'Resistencia al corte'!A42</f>
         <v>M18X</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="23">
         <f>'Resistencia al corte'!B42</f>
         <v>1.4365000000000001</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="23">
         <f>'Resistencia al corte'!C42</f>
         <v>2.4363999999999999</v>
       </c>
@@ -5227,11 +5252,11 @@
         <f>'Resistencia al corte'!D42</f>
         <v>3.22</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="23">
         <f>'Resistencia al corte'!E42</f>
         <v>3.1865572315882873</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="23">
         <f>'Resistencia al corte'!F42</f>
         <v>0.52672882891257855</v>
       </c>
@@ -5239,31 +5264,31 @@
         <f t="shared" si="0"/>
         <v>M18X</v>
       </c>
-      <c r="O35" s="25">
+      <c r="O35" s="23">
         <f>'Resistencia al corte'!G42</f>
         <v>23.259440539786794</v>
       </c>
-      <c r="P35" s="25">
+      <c r="P35" s="23">
         <f>'Resistencia al corte'!H42</f>
         <v>55.724820321046863</v>
       </c>
-      <c r="Q35" s="42">
+      <c r="Q35" s="40">
         <f>'Resistencia al corte'!I42</f>
         <v>2.0618899733806567E-4</v>
       </c>
-      <c r="X35" s="33" t="str">
+      <c r="X35" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M18X</v>
       </c>
-      <c r="Y35" s="47">
+      <c r="Y35" s="43">
         <f>'Resistencia al corte'!I42</f>
         <v>2.0618899733806567E-4</v>
       </c>
-      <c r="Z35" s="33">
+      <c r="Z35" s="31">
         <f>'Resistencia al corte'!K42</f>
         <v>10</v>
       </c>
-      <c r="AA35" s="33">
+      <c r="AA35" s="31">
         <f>'Resistencia al corte'!L42</f>
         <v>3</v>
       </c>
@@ -5273,11 +5298,11 @@
         <f>'Resistencia al corte'!A43</f>
         <v>M19X</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="23">
         <f>'Resistencia al corte'!B43</f>
         <v>1.1612</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="23">
         <f>'Resistencia al corte'!C43</f>
         <v>0.77729999999999999</v>
       </c>
@@ -5285,11 +5310,11 @@
         <f>'Resistencia al corte'!D43</f>
         <v>1.64</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="23">
         <f>'Resistencia al corte'!E43</f>
         <v>5.0574912891986061</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="23">
         <f>'Resistencia al corte'!F43</f>
         <v>0.40816690891676399</v>
       </c>
@@ -5297,31 +5322,31 @@
         <f t="shared" si="0"/>
         <v>M19X</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="23">
         <f>'Resistencia al corte'!G43</f>
         <v>24.326497819749125</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="23">
         <f>'Resistencia al corte'!H43</f>
         <v>57.499292656016621</v>
       </c>
-      <c r="Q36" s="42">
+      <c r="Q36" s="40">
         <f>'Resistencia al corte'!I43</f>
         <v>3.2724943635990985E-4</v>
       </c>
-      <c r="X36" s="33" t="str">
+      <c r="X36" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M19X</v>
       </c>
-      <c r="Y36" s="47">
+      <c r="Y36" s="43">
         <f>'Resistencia al corte'!I43</f>
         <v>3.2724943635990985E-4</v>
       </c>
-      <c r="Z36" s="33">
+      <c r="Z36" s="31">
         <f>'Resistencia al corte'!K43</f>
         <v>6</v>
       </c>
-      <c r="AA36" s="33">
+      <c r="AA36" s="31">
         <f>'Resistencia al corte'!L43</f>
         <v>3</v>
       </c>
@@ -5331,11 +5356,11 @@
         <f>'Resistencia al corte'!A44</f>
         <v>M20X</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="23">
         <f>'Resistencia al corte'!B44</f>
         <v>0.2402</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="23">
         <f>'Resistencia al corte'!C44</f>
         <v>0.15939999999999999</v>
       </c>
@@ -5343,11 +5368,11 @@
         <f>'Resistencia al corte'!D44</f>
         <v>0.37</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="23">
         <f>'Resistencia al corte'!E44</f>
         <v>4.6370656370656365</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="23">
         <f>'Resistencia al corte'!F44</f>
         <v>1.7935504196952989</v>
       </c>
@@ -5355,89 +5380,89 @@
         <f t="shared" si="0"/>
         <v>M20X</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="23">
         <f>'Resistencia al corte'!G44</f>
         <v>19</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="23">
         <f>'Resistencia al corte'!H44</f>
         <v>48.641546028061242</v>
       </c>
-      <c r="Q37" s="42">
+      <c r="Q37" s="40">
         <f>'Resistencia al corte'!I44</f>
         <v>3.0004542357483534E-4</v>
       </c>
-      <c r="X37" s="33" t="str">
+      <c r="X37" s="31" t="str">
         <f t="shared" si="1"/>
         <v>M20X</v>
       </c>
-      <c r="Y37" s="47">
+      <c r="Y37" s="43">
         <f>'Resistencia al corte'!I44</f>
         <v>3.0004542357483534E-4</v>
       </c>
-      <c r="Z37" s="33">
+      <c r="Z37" s="31">
         <f>'Resistencia al corte'!K44</f>
         <v>7</v>
       </c>
-      <c r="AA37" s="33">
+      <c r="AA37" s="31">
         <f>'Resistencia al corte'!L44</f>
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="34" t="str">
+      <c r="F38" s="32" t="str">
         <f>'Resistencia al corte'!A45</f>
         <v>M21X</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="30">
         <f>'Resistencia al corte'!B45</f>
         <v>1.9382999999999999</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="30">
         <f>'Resistencia al corte'!C45</f>
         <v>2.0171999999999999</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="32">
         <f>'Resistencia al corte'!D45</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="30">
         <f>'Resistencia al corte'!E45</f>
         <v>2.7147058823529409</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="30">
         <f>'Resistencia al corte'!F45</f>
         <v>0.20405995550983122</v>
       </c>
-      <c r="N38" s="34" t="str">
+      <c r="N38" s="32" t="str">
         <f t="shared" si="0"/>
         <v>M21X</v>
       </c>
-      <c r="O38" s="32">
+      <c r="O38" s="30">
         <f>'Resistencia al corte'!G45</f>
         <v>26.16346040041152</v>
       </c>
-      <c r="P38" s="32">
+      <c r="P38" s="30">
         <f>'Resistencia al corte'!H45</f>
         <v>60.55408581564452</v>
       </c>
-      <c r="Q38" s="43">
+      <c r="Q38" s="41">
         <f>'Resistencia al corte'!I45</f>
         <v>1.7565743944636679E-4</v>
       </c>
-      <c r="X38" s="34" t="str">
+      <c r="X38" s="32" t="str">
         <f t="shared" si="1"/>
         <v>M21X</v>
       </c>
-      <c r="Y38" s="43">
+      <c r="Y38" s="41">
         <f>'Resistencia al corte'!I45</f>
         <v>1.7565743944636679E-4</v>
       </c>
-      <c r="Z38" s="34">
+      <c r="Z38" s="32">
         <f>'Resistencia al corte'!K45</f>
         <v>11</v>
       </c>
-      <c r="AA38" s="34">
+      <c r="AA38" s="32">
         <f>'Resistencia al corte'!L45</f>
         <v>3</v>
       </c>
@@ -5452,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C85F50-745A-40AF-AD65-075F51DE0E61}">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5464,38 +5489,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>6</v>
+      <c r="B3" s="42" t="s">
+        <v>81</v>
       </c>
       <c r="C3" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>7</v>
+      <c r="B4" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="C4" s="7">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>8</v>
+      <c r="B5" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="7">
         <v>1.04</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>10</v>
+      <c r="B6" s="42" t="s">
+        <v>84</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
@@ -5503,72 +5528,72 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="45"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>14</v>
+      <c r="B9" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>7</v>
+      <c r="B10" s="42" t="s">
+        <v>78</v>
       </c>
       <c r="C10" s="7">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>13</v>
+      <c r="B11" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="C11" s="7">
         <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>12</v>
+      <c r="B12" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="7">
         <v>10.49</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="25">
         <f>C3*C4*C5*1000</f>
         <v>262.0800000000001</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="25">
         <f>C9*C10*C11*1000</f>
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="50">
         <f>C15+C16+'Solicitacion cercha madera'!C27*'Solicitacion cercha madera'!C10/'Solicitación timpano'!C6</f>
         <v>307.01562500000011</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <f>'Solicitacion cercha madera'!F22/2*5/C6</f>
@@ -5587,10 +5612,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799F4323-B58A-4472-B8A9-BF42EC749805}">
-  <dimension ref="B1:O28"/>
+  <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5605,208 +5630,207 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
+      <c r="B2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
-        <v>16</v>
+      <c r="B3" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="7">
         <v>550</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>22</v>
+      <c r="B4" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="7">
         <v>100</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>21</v>
+      <c r="B5" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="C5" s="7">
         <v>50</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
+      <c r="B6" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.157</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.157</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>18</v>
+      <c r="B10" s="42" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>19</v>
+      <c r="B11" s="42" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="7">
         <v>8.5399999999999991</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>20</v>
+      <c r="B12" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="7">
         <f>C11*C5/1000*C4/1000</f>
         <v>4.2699999999999995E-2</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="B14" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>24</v>
+      <c r="B15" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="C15" s="7">
         <f>C11/10</f>
@@ -5814,8 +5838,8 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>25</v>
+      <c r="B16" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="C16" s="7">
         <f>C15*C5/1000*C4/1000</f>
@@ -5828,14 +5852,14 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="46"/>
+      <c r="B19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="48"/>
       <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="25">
+        <v>16</v>
+      </c>
+      <c r="F19" s="23">
         <f>8.4/5*10/6</f>
         <v>2.8000000000000003</v>
       </c>
@@ -5845,11 +5869,11 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>27</v>
+      <c r="B20" s="42" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="7">
-        <f>C3*C8/2</f>
+        <f>C3*C6/2</f>
         <v>43.174999999999997</v>
       </c>
       <c r="H20" s="6">
@@ -5858,61 +5882,79 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="24">
+      <c r="B21" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="22">
         <f>$C$16*$C$3*2*5/2</f>
         <v>11.742499999999998</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="24">
+      <c r="B22" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="22">
         <f>C16*C3*5/2</f>
         <v>5.871249999999999</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="24">
+        <v>15</v>
+      </c>
+      <c r="F22" s="22">
         <f>F19*100</f>
         <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="46"/>
+      <c r="B25" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="48"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="24">
+      <c r="B26" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="22">
         <f>C20+C21</f>
         <v>54.917499999999997</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="B27" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="22">
         <f>C22</f>
         <v>5.871249999999999</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="24">
+      <c r="B28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="22">
         <f>+F22*6/2</f>
         <v>840</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="9">
+        <f>C26/1000</f>
+        <v>5.4917499999999994E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="22">
+        <f>'Solicitación timpano'!C17/1000+0.001</f>
+        <v>0.30801562500000013</v>
       </c>
     </row>
   </sheetData>
